--- a/Mensageria/betti/email.xlsx
+++ b/Mensageria/betti/email.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.alves\source\aulas\AulasEuCodo\Mensageria\bin\Debug\net6.0\betti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.alves\source\aulas\AulasEuCodo\Mensageria\betti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8575313C-6F36-4F69-AC73-63773187C91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DD8D5A-16FC-4AEF-83D4-F0862B7F5261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1B2C2596-FEDC-4806-AA04-C3A6BED56956}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="43">
   <si>
     <t>A</t>
   </si>
@@ -128,9 +128,6 @@
     <t>William</t>
   </si>
   <si>
-    <t>bulpert@yahoo.com</t>
-  </si>
-  <si>
     <t>jurupis</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>CLIENTE</t>
   </si>
   <si>
-    <t>DESTINATÁRIO</t>
-  </si>
-  <si>
     <t>nayrpkt@gmail.com</t>
   </si>
   <si>
@@ -168,6 +162,9 @@
   </si>
   <si>
     <t>nayrpkt@gmail.com, robert_hk_@hotmail.com</t>
+  </si>
+  <si>
+    <t>EMAIL DO PROJETO</t>
   </si>
 </sst>
 </file>
@@ -540,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59491F56-CD08-47F1-9229-800FA97E9013}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,33 +550,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
       <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
         <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -597,15 +594,15 @@
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -623,15 +620,15 @@
         <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -646,18 +643,18 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -675,15 +672,15 @@
         <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -701,15 +698,15 @@
         <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -727,15 +724,15 @@
         <v>17</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -753,15 +750,15 @@
         <v>20</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -779,15 +776,15 @@
         <v>23</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -805,21 +802,21 @@
         <v>26</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11">
-        <v>1010</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
         <v>28</v>
@@ -831,21 +828,308 @@
         <v>29</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>101</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>101</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>101</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>101</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>101</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>101</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>101</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>101</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>101</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>101</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{211C1AE1-1DBC-4DBB-A156-E4CE9FFC88C7}"/>
-    <hyperlink ref="G3:G11" r:id="rId2" display="bulpert@yahoo.com" xr:uid="{CA459344-A753-4D58-A101-40AA3762FF23}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{C64B1445-845E-4D20-8B1F-7CEAE7BCDB55}"/>
-    <hyperlink ref="H2" r:id="rId4" display="nayrpkt@gmail.com" xr:uid="{FCA25B0F-6286-4320-9B1F-FD5A64DBBEB1}"/>
-    <hyperlink ref="H3:H11" r:id="rId5" display="nayrpkt@gmail.com" xr:uid="{1C12571D-C915-4127-BE48-164C42B2BADC}"/>
+    <hyperlink ref="H3:H11" r:id="rId2" display="nayrpkt@gmail.com" xr:uid="{1C12571D-C915-4127-BE48-164C42B2BADC}"/>
+    <hyperlink ref="H2" r:id="rId3" display="nayrpkt@gmail.com" xr:uid="{FCA25B0F-6286-4320-9B1F-FD5A64DBBEB1}"/>
+    <hyperlink ref="G3:G11" r:id="rId4" display="robert.ads.anjos@gmail.com" xr:uid="{00541651-9D2B-43BD-B943-758F742CF890}"/>
+    <hyperlink ref="G12" r:id="rId5" xr:uid="{8846D3E7-7F6A-433B-8850-9FE6F710A435}"/>
+    <hyperlink ref="G13" r:id="rId6" xr:uid="{D8B72EC1-EAA9-488E-AF90-8B094ACF4DAE}"/>
+    <hyperlink ref="G14" r:id="rId7" xr:uid="{9C017440-1F6A-4B72-8AA6-CED944057224}"/>
+    <hyperlink ref="G15" r:id="rId8" xr:uid="{BE67361D-E62B-4826-AEC7-E19537DAAAAD}"/>
+    <hyperlink ref="G16" r:id="rId9" xr:uid="{694F377E-4292-4105-A106-0ED19C02DA75}"/>
+    <hyperlink ref="G17" r:id="rId10" xr:uid="{BAE5F8E1-BBCC-4CA6-806C-851799B38594}"/>
+    <hyperlink ref="G18" r:id="rId11" xr:uid="{AEB30C71-9B96-4F83-90F5-49FCBFA5AB31}"/>
+    <hyperlink ref="G19" r:id="rId12" xr:uid="{1DFB4A55-F1D0-48F7-804E-8380FFC89D1D}"/>
+    <hyperlink ref="G20" r:id="rId13" xr:uid="{853FE99F-AFDC-4568-8AE5-6DDDF9F39777}"/>
+    <hyperlink ref="G21" r:id="rId14" xr:uid="{CB9DF868-D144-46D2-A04B-666547E3F045}"/>
+    <hyperlink ref="G22" r:id="rId15" xr:uid="{BC7344BB-1DAD-4366-A981-7EBAD6F632C8}"/>
+    <hyperlink ref="G23" r:id="rId16" xr:uid="{E503B1FB-906B-4E20-92F0-17175E37ADE9}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/Mensageria/betti/email.xlsx
+++ b/Mensageria/betti/email.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.alves\source\aulas\AulasEuCodo\Mensageria\betti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DD8D5A-16FC-4AEF-83D4-F0862B7F5261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956DBF88-F2FE-403A-8651-264447D286A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1B2C2596-FEDC-4806-AA04-C3A6BED56956}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="43">
   <si>
     <t>A</t>
   </si>
@@ -537,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59491F56-CD08-47F1-9229-800FA97E9013}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -608,7 +608,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>205</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -634,7 +634,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>307</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -660,7 +660,7 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>412</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -686,7 +686,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>510</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -712,7 +712,7 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>623</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -738,7 +738,7 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>705</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -764,7 +764,7 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>812</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -790,7 +790,7 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>923</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -816,7 +816,7 @@
         <v>27</v>
       </c>
       <c r="C11">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>28</v>
@@ -842,7 +842,7 @@
         <v>27</v>
       </c>
       <c r="C12">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
@@ -856,6 +856,9 @@
       <c r="G12" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="H12" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -865,7 +868,7 @@
         <v>27</v>
       </c>
       <c r="C13">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
@@ -879,6 +882,9 @@
       <c r="G13" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="H13" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -888,7 +894,7 @@
         <v>27</v>
       </c>
       <c r="C14">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
@@ -902,6 +908,9 @@
       <c r="G14" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="H14" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -911,7 +920,7 @@
         <v>27</v>
       </c>
       <c r="C15">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
         <v>28</v>
@@ -925,6 +934,9 @@
       <c r="G15" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="H15" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -934,7 +946,7 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
@@ -948,8 +960,11 @@
       <c r="G16" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -957,7 +972,7 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
         <v>28</v>
@@ -971,8 +986,11 @@
       <c r="G17" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -980,7 +998,7 @@
         <v>27</v>
       </c>
       <c r="C18">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
         <v>28</v>
@@ -994,8 +1012,11 @@
       <c r="G18" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1003,7 +1024,7 @@
         <v>27</v>
       </c>
       <c r="C19">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
         <v>28</v>
@@ -1017,8 +1038,11 @@
       <c r="G19" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1026,7 +1050,7 @@
         <v>27</v>
       </c>
       <c r="C20">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
         <v>28</v>
@@ -1040,8 +1064,11 @@
       <c r="G20" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1049,7 +1076,7 @@
         <v>27</v>
       </c>
       <c r="C21">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
@@ -1063,51 +1090,8 @@
       <c r="G21" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22">
-        <v>101</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23">
-        <v>101</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>31</v>
+      <c r="H21" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1116,20 +1100,28 @@
     <hyperlink ref="H3:H11" r:id="rId2" display="nayrpkt@gmail.com" xr:uid="{1C12571D-C915-4127-BE48-164C42B2BADC}"/>
     <hyperlink ref="H2" r:id="rId3" display="nayrpkt@gmail.com" xr:uid="{FCA25B0F-6286-4320-9B1F-FD5A64DBBEB1}"/>
     <hyperlink ref="G3:G11" r:id="rId4" display="robert.ads.anjos@gmail.com" xr:uid="{00541651-9D2B-43BD-B943-758F742CF890}"/>
-    <hyperlink ref="G12" r:id="rId5" xr:uid="{8846D3E7-7F6A-433B-8850-9FE6F710A435}"/>
-    <hyperlink ref="G13" r:id="rId6" xr:uid="{D8B72EC1-EAA9-488E-AF90-8B094ACF4DAE}"/>
-    <hyperlink ref="G14" r:id="rId7" xr:uid="{9C017440-1F6A-4B72-8AA6-CED944057224}"/>
-    <hyperlink ref="G15" r:id="rId8" xr:uid="{BE67361D-E62B-4826-AEC7-E19537DAAAAD}"/>
-    <hyperlink ref="G16" r:id="rId9" xr:uid="{694F377E-4292-4105-A106-0ED19C02DA75}"/>
-    <hyperlink ref="G17" r:id="rId10" xr:uid="{BAE5F8E1-BBCC-4CA6-806C-851799B38594}"/>
-    <hyperlink ref="G18" r:id="rId11" xr:uid="{AEB30C71-9B96-4F83-90F5-49FCBFA5AB31}"/>
-    <hyperlink ref="G19" r:id="rId12" xr:uid="{1DFB4A55-F1D0-48F7-804E-8380FFC89D1D}"/>
-    <hyperlink ref="G20" r:id="rId13" xr:uid="{853FE99F-AFDC-4568-8AE5-6DDDF9F39777}"/>
-    <hyperlink ref="G21" r:id="rId14" xr:uid="{CB9DF868-D144-46D2-A04B-666547E3F045}"/>
-    <hyperlink ref="G22" r:id="rId15" xr:uid="{BC7344BB-1DAD-4366-A981-7EBAD6F632C8}"/>
-    <hyperlink ref="G23" r:id="rId16" xr:uid="{E503B1FB-906B-4E20-92F0-17175E37ADE9}"/>
+    <hyperlink ref="H12" r:id="rId5" xr:uid="{D58CF81B-0951-42A7-B4CC-E4A6F9A89509}"/>
+    <hyperlink ref="H13" r:id="rId6" xr:uid="{7F260C45-0D77-442C-B97D-6F74E84A36D7}"/>
+    <hyperlink ref="H14" r:id="rId7" xr:uid="{09AE1589-F8A7-4F1B-8816-D0C5B35F40E5}"/>
+    <hyperlink ref="H15" r:id="rId8" xr:uid="{AA8EFC28-19EC-408D-B1EE-53E23075A590}"/>
+    <hyperlink ref="H16" r:id="rId9" xr:uid="{917A5642-E1A6-4314-8F64-09963EE0C884}"/>
+    <hyperlink ref="H17" r:id="rId10" xr:uid="{3E781638-FB69-4324-9B8D-1C4F01A3A221}"/>
+    <hyperlink ref="H18" r:id="rId11" xr:uid="{BA93F156-3629-4F73-ABD2-778848B088FD}"/>
+    <hyperlink ref="H19" r:id="rId12" xr:uid="{A22BD2D9-9706-42F2-B0ED-5D70FA342FD2}"/>
+    <hyperlink ref="H20" r:id="rId13" xr:uid="{CCC9C050-6E08-49A3-909E-EB73177D03C0}"/>
+    <hyperlink ref="H21" r:id="rId14" xr:uid="{5291E255-C510-4237-9CCD-E0DBCCABC219}"/>
+    <hyperlink ref="G12" r:id="rId15" xr:uid="{F5D11A7A-D37E-4408-B5AC-27B3EF698B20}"/>
+    <hyperlink ref="G13" r:id="rId16" xr:uid="{DD1E2D4C-327C-4990-961B-BC5A7018D85D}"/>
+    <hyperlink ref="G14" r:id="rId17" xr:uid="{1939887B-716D-45CD-A82D-4F04EF8386FD}"/>
+    <hyperlink ref="G15" r:id="rId18" xr:uid="{D23DD955-1E4C-470B-A94A-3967ECB3D632}"/>
+    <hyperlink ref="G16" r:id="rId19" xr:uid="{E5D6502F-51E8-4EC8-925A-9CEC53E3E6A0}"/>
+    <hyperlink ref="G17" r:id="rId20" xr:uid="{FFC28591-5153-4225-AAD3-E85CBD0CD567}"/>
+    <hyperlink ref="G18" r:id="rId21" xr:uid="{CF10A5C2-A509-469A-817A-7DF1409C9FFD}"/>
+    <hyperlink ref="G19" r:id="rId22" xr:uid="{F69C18C0-F992-4478-B99F-A115AD37C4FC}"/>
+    <hyperlink ref="G20" r:id="rId23" xr:uid="{D784AD20-00A5-4F76-AEBD-01594C6FCDFF}"/>
+    <hyperlink ref="G21" r:id="rId24" xr:uid="{F9956A11-15E4-47F8-894C-D00F02DC0AD0}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
--- a/Mensageria/betti/email.xlsx
+++ b/Mensageria/betti/email.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.alves\source\aulas\AulasEuCodo\Mensageria\betti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956DBF88-F2FE-403A-8651-264447D286A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7EBD80-06E7-452F-A707-5A8E050433E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1B2C2596-FEDC-4806-AA04-C3A6BED56956}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="43">
   <si>
     <t>A</t>
   </si>
@@ -537,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59491F56-CD08-47F1-9229-800FA97E9013}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E293" sqref="E293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1091,6 +1091,7364 @@
         <v>31</v>
       </c>
       <c r="H21" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53">
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54">
+        <v>53</v>
+      </c>
+      <c r="D54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55">
+        <v>54</v>
+      </c>
+      <c r="D55" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56">
+        <v>55</v>
+      </c>
+      <c r="D56" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57">
+        <v>56</v>
+      </c>
+      <c r="D57" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58">
+        <v>57</v>
+      </c>
+      <c r="D58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59">
+        <v>58</v>
+      </c>
+      <c r="D59" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60">
+        <v>59</v>
+      </c>
+      <c r="D60" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61">
+        <v>60</v>
+      </c>
+      <c r="D61" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62">
+        <v>61</v>
+      </c>
+      <c r="D62" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63">
+        <v>62</v>
+      </c>
+      <c r="D63" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64">
+        <v>63</v>
+      </c>
+      <c r="D64" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65">
+        <v>64</v>
+      </c>
+      <c r="D65" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66">
+        <v>65</v>
+      </c>
+      <c r="D66" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67">
+        <v>66</v>
+      </c>
+      <c r="D67" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68">
+        <v>67</v>
+      </c>
+      <c r="D68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70">
+        <v>69</v>
+      </c>
+      <c r="D70" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71">
+        <v>70</v>
+      </c>
+      <c r="D71" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72">
+        <v>71</v>
+      </c>
+      <c r="D72" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73">
+        <v>72</v>
+      </c>
+      <c r="D73" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74">
+        <v>73</v>
+      </c>
+      <c r="D74" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75">
+        <v>74</v>
+      </c>
+      <c r="D75" t="s">
+        <v>28</v>
+      </c>
+      <c r="E75" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>30</v>
+      </c>
+      <c r="B76" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76">
+        <v>75</v>
+      </c>
+      <c r="D76" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>30</v>
+      </c>
+      <c r="B77" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77">
+        <v>76</v>
+      </c>
+      <c r="D77" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78">
+        <v>77</v>
+      </c>
+      <c r="D78" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79">
+        <v>78</v>
+      </c>
+      <c r="D79" t="s">
+        <v>28</v>
+      </c>
+      <c r="E79" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>30</v>
+      </c>
+      <c r="B80" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80">
+        <v>79</v>
+      </c>
+      <c r="D80" t="s">
+        <v>28</v>
+      </c>
+      <c r="E80" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81">
+        <v>80</v>
+      </c>
+      <c r="D81" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82">
+        <v>81</v>
+      </c>
+      <c r="D82" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83">
+        <v>82</v>
+      </c>
+      <c r="D83" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>30</v>
+      </c>
+      <c r="B84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84">
+        <v>83</v>
+      </c>
+      <c r="D84" t="s">
+        <v>28</v>
+      </c>
+      <c r="E84" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85">
+        <v>84</v>
+      </c>
+      <c r="D85" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>30</v>
+      </c>
+      <c r="B86" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86">
+        <v>85</v>
+      </c>
+      <c r="D86" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87">
+        <v>86</v>
+      </c>
+      <c r="D87" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88">
+        <v>87</v>
+      </c>
+      <c r="D88" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89">
+        <v>88</v>
+      </c>
+      <c r="D89" t="s">
+        <v>28</v>
+      </c>
+      <c r="E89" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90">
+        <v>89</v>
+      </c>
+      <c r="D90" t="s">
+        <v>28</v>
+      </c>
+      <c r="E90" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91">
+        <v>90</v>
+      </c>
+      <c r="D91" t="s">
+        <v>28</v>
+      </c>
+      <c r="E91" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92">
+        <v>91</v>
+      </c>
+      <c r="D92" t="s">
+        <v>28</v>
+      </c>
+      <c r="E92" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>30</v>
+      </c>
+      <c r="B93" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93">
+        <v>92</v>
+      </c>
+      <c r="D93" t="s">
+        <v>28</v>
+      </c>
+      <c r="E93" t="s">
+        <v>29</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94">
+        <v>93</v>
+      </c>
+      <c r="D94" t="s">
+        <v>28</v>
+      </c>
+      <c r="E94" t="s">
+        <v>29</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95">
+        <v>94</v>
+      </c>
+      <c r="D95" t="s">
+        <v>28</v>
+      </c>
+      <c r="E95" t="s">
+        <v>29</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96">
+        <v>95</v>
+      </c>
+      <c r="D96" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96" t="s">
+        <v>29</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>30</v>
+      </c>
+      <c r="B97" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97">
+        <v>96</v>
+      </c>
+      <c r="D97" t="s">
+        <v>28</v>
+      </c>
+      <c r="E97" t="s">
+        <v>29</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>30</v>
+      </c>
+      <c r="B98" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98">
+        <v>97</v>
+      </c>
+      <c r="D98" t="s">
+        <v>28</v>
+      </c>
+      <c r="E98" t="s">
+        <v>29</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>30</v>
+      </c>
+      <c r="B99" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99">
+        <v>98</v>
+      </c>
+      <c r="D99" t="s">
+        <v>28</v>
+      </c>
+      <c r="E99" t="s">
+        <v>29</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>30</v>
+      </c>
+      <c r="B100" t="s">
+        <v>27</v>
+      </c>
+      <c r="C100">
+        <v>99</v>
+      </c>
+      <c r="D100" t="s">
+        <v>28</v>
+      </c>
+      <c r="E100" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>30</v>
+      </c>
+      <c r="B101" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101">
+        <v>100</v>
+      </c>
+      <c r="D101" t="s">
+        <v>28</v>
+      </c>
+      <c r="E101" t="s">
+        <v>29</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>30</v>
+      </c>
+      <c r="B102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C102">
+        <v>101</v>
+      </c>
+      <c r="D102" t="s">
+        <v>28</v>
+      </c>
+      <c r="E102" t="s">
+        <v>29</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>30</v>
+      </c>
+      <c r="B103" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103">
+        <v>102</v>
+      </c>
+      <c r="D103" t="s">
+        <v>28</v>
+      </c>
+      <c r="E103" t="s">
+        <v>29</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>30</v>
+      </c>
+      <c r="B104" t="s">
+        <v>27</v>
+      </c>
+      <c r="C104">
+        <v>103</v>
+      </c>
+      <c r="D104" t="s">
+        <v>28</v>
+      </c>
+      <c r="E104" t="s">
+        <v>29</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>30</v>
+      </c>
+      <c r="B105" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105">
+        <v>104</v>
+      </c>
+      <c r="D105" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" t="s">
+        <v>29</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>30</v>
+      </c>
+      <c r="B106" t="s">
+        <v>27</v>
+      </c>
+      <c r="C106">
+        <v>105</v>
+      </c>
+      <c r="D106" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106" t="s">
+        <v>29</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>30</v>
+      </c>
+      <c r="B107" t="s">
+        <v>27</v>
+      </c>
+      <c r="C107">
+        <v>106</v>
+      </c>
+      <c r="D107" t="s">
+        <v>28</v>
+      </c>
+      <c r="E107" t="s">
+        <v>29</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>30</v>
+      </c>
+      <c r="B108" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108">
+        <v>107</v>
+      </c>
+      <c r="D108" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>30</v>
+      </c>
+      <c r="B109" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109">
+        <v>108</v>
+      </c>
+      <c r="D109" t="s">
+        <v>28</v>
+      </c>
+      <c r="E109" t="s">
+        <v>29</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>30</v>
+      </c>
+      <c r="B110" t="s">
+        <v>27</v>
+      </c>
+      <c r="C110">
+        <v>109</v>
+      </c>
+      <c r="D110" t="s">
+        <v>28</v>
+      </c>
+      <c r="E110" t="s">
+        <v>29</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>30</v>
+      </c>
+      <c r="B111" t="s">
+        <v>27</v>
+      </c>
+      <c r="C111">
+        <v>110</v>
+      </c>
+      <c r="D111" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" t="s">
+        <v>29</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>30</v>
+      </c>
+      <c r="B112" t="s">
+        <v>27</v>
+      </c>
+      <c r="C112">
+        <v>111</v>
+      </c>
+      <c r="D112" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" t="s">
+        <v>29</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>30</v>
+      </c>
+      <c r="B113" t="s">
+        <v>27</v>
+      </c>
+      <c r="C113">
+        <v>112</v>
+      </c>
+      <c r="D113" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113" t="s">
+        <v>29</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>30</v>
+      </c>
+      <c r="B114" t="s">
+        <v>27</v>
+      </c>
+      <c r="C114">
+        <v>113</v>
+      </c>
+      <c r="D114" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" t="s">
+        <v>29</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>30</v>
+      </c>
+      <c r="B115" t="s">
+        <v>27</v>
+      </c>
+      <c r="C115">
+        <v>114</v>
+      </c>
+      <c r="D115" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" t="s">
+        <v>29</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>30</v>
+      </c>
+      <c r="B116" t="s">
+        <v>27</v>
+      </c>
+      <c r="C116">
+        <v>115</v>
+      </c>
+      <c r="D116" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" t="s">
+        <v>29</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>30</v>
+      </c>
+      <c r="B117" t="s">
+        <v>27</v>
+      </c>
+      <c r="C117">
+        <v>116</v>
+      </c>
+      <c r="D117" t="s">
+        <v>28</v>
+      </c>
+      <c r="E117" t="s">
+        <v>29</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>30</v>
+      </c>
+      <c r="B118" t="s">
+        <v>27</v>
+      </c>
+      <c r="C118">
+        <v>117</v>
+      </c>
+      <c r="D118" t="s">
+        <v>28</v>
+      </c>
+      <c r="E118" t="s">
+        <v>29</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>30</v>
+      </c>
+      <c r="B119" t="s">
+        <v>27</v>
+      </c>
+      <c r="C119">
+        <v>118</v>
+      </c>
+      <c r="D119" t="s">
+        <v>28</v>
+      </c>
+      <c r="E119" t="s">
+        <v>29</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>30</v>
+      </c>
+      <c r="B120" t="s">
+        <v>27</v>
+      </c>
+      <c r="C120">
+        <v>119</v>
+      </c>
+      <c r="D120" t="s">
+        <v>28</v>
+      </c>
+      <c r="E120" t="s">
+        <v>29</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>30</v>
+      </c>
+      <c r="B121" t="s">
+        <v>27</v>
+      </c>
+      <c r="C121">
+        <v>120</v>
+      </c>
+      <c r="D121" t="s">
+        <v>28</v>
+      </c>
+      <c r="E121" t="s">
+        <v>29</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>30</v>
+      </c>
+      <c r="B122" t="s">
+        <v>27</v>
+      </c>
+      <c r="C122">
+        <v>121</v>
+      </c>
+      <c r="D122" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" t="s">
+        <v>29</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>30</v>
+      </c>
+      <c r="B123" t="s">
+        <v>27</v>
+      </c>
+      <c r="C123">
+        <v>122</v>
+      </c>
+      <c r="D123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" t="s">
+        <v>29</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>30</v>
+      </c>
+      <c r="B124" t="s">
+        <v>27</v>
+      </c>
+      <c r="C124">
+        <v>123</v>
+      </c>
+      <c r="D124" t="s">
+        <v>28</v>
+      </c>
+      <c r="E124" t="s">
+        <v>29</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>30</v>
+      </c>
+      <c r="B125" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125">
+        <v>124</v>
+      </c>
+      <c r="D125" t="s">
+        <v>28</v>
+      </c>
+      <c r="E125" t="s">
+        <v>29</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>30</v>
+      </c>
+      <c r="B126" t="s">
+        <v>27</v>
+      </c>
+      <c r="C126">
+        <v>125</v>
+      </c>
+      <c r="D126" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126" t="s">
+        <v>29</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>30</v>
+      </c>
+      <c r="B127" t="s">
+        <v>27</v>
+      </c>
+      <c r="C127">
+        <v>126</v>
+      </c>
+      <c r="D127" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" t="s">
+        <v>29</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>30</v>
+      </c>
+      <c r="B128" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128">
+        <v>127</v>
+      </c>
+      <c r="D128" t="s">
+        <v>28</v>
+      </c>
+      <c r="E128" t="s">
+        <v>29</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>30</v>
+      </c>
+      <c r="B129" t="s">
+        <v>27</v>
+      </c>
+      <c r="C129">
+        <v>128</v>
+      </c>
+      <c r="D129" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" t="s">
+        <v>29</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>30</v>
+      </c>
+      <c r="B130" t="s">
+        <v>27</v>
+      </c>
+      <c r="C130">
+        <v>129</v>
+      </c>
+      <c r="D130" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" t="s">
+        <v>29</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>30</v>
+      </c>
+      <c r="B131" t="s">
+        <v>27</v>
+      </c>
+      <c r="C131">
+        <v>130</v>
+      </c>
+      <c r="D131" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" t="s">
+        <v>29</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>30</v>
+      </c>
+      <c r="B132" t="s">
+        <v>27</v>
+      </c>
+      <c r="C132">
+        <v>131</v>
+      </c>
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" t="s">
+        <v>29</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>30</v>
+      </c>
+      <c r="B133" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133">
+        <v>132</v>
+      </c>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" t="s">
+        <v>29</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>30</v>
+      </c>
+      <c r="B134" t="s">
+        <v>27</v>
+      </c>
+      <c r="C134">
+        <v>133</v>
+      </c>
+      <c r="D134" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" t="s">
+        <v>29</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>30</v>
+      </c>
+      <c r="B135" t="s">
+        <v>27</v>
+      </c>
+      <c r="C135">
+        <v>134</v>
+      </c>
+      <c r="D135" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" t="s">
+        <v>29</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>30</v>
+      </c>
+      <c r="B136" t="s">
+        <v>27</v>
+      </c>
+      <c r="C136">
+        <v>135</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" t="s">
+        <v>29</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>30</v>
+      </c>
+      <c r="B137" t="s">
+        <v>27</v>
+      </c>
+      <c r="C137">
+        <v>136</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" t="s">
+        <v>29</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>30</v>
+      </c>
+      <c r="B138" t="s">
+        <v>27</v>
+      </c>
+      <c r="C138">
+        <v>137</v>
+      </c>
+      <c r="D138" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" t="s">
+        <v>29</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>30</v>
+      </c>
+      <c r="B139" t="s">
+        <v>27</v>
+      </c>
+      <c r="C139">
+        <v>138</v>
+      </c>
+      <c r="D139" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" t="s">
+        <v>29</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>30</v>
+      </c>
+      <c r="B140" t="s">
+        <v>27</v>
+      </c>
+      <c r="C140">
+        <v>139</v>
+      </c>
+      <c r="D140" t="s">
+        <v>28</v>
+      </c>
+      <c r="E140" t="s">
+        <v>29</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>30</v>
+      </c>
+      <c r="B141" t="s">
+        <v>27</v>
+      </c>
+      <c r="C141">
+        <v>140</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" t="s">
+        <v>29</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>30</v>
+      </c>
+      <c r="B142" t="s">
+        <v>27</v>
+      </c>
+      <c r="C142">
+        <v>141</v>
+      </c>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" t="s">
+        <v>29</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>30</v>
+      </c>
+      <c r="B143" t="s">
+        <v>27</v>
+      </c>
+      <c r="C143">
+        <v>142</v>
+      </c>
+      <c r="D143" t="s">
+        <v>28</v>
+      </c>
+      <c r="E143" t="s">
+        <v>29</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>30</v>
+      </c>
+      <c r="B144" t="s">
+        <v>27</v>
+      </c>
+      <c r="C144">
+        <v>143</v>
+      </c>
+      <c r="D144" t="s">
+        <v>28</v>
+      </c>
+      <c r="E144" t="s">
+        <v>29</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>30</v>
+      </c>
+      <c r="B145" t="s">
+        <v>27</v>
+      </c>
+      <c r="C145">
+        <v>144</v>
+      </c>
+      <c r="D145" t="s">
+        <v>28</v>
+      </c>
+      <c r="E145" t="s">
+        <v>29</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>30</v>
+      </c>
+      <c r="B146" t="s">
+        <v>27</v>
+      </c>
+      <c r="C146">
+        <v>145</v>
+      </c>
+      <c r="D146" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" t="s">
+        <v>29</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>30</v>
+      </c>
+      <c r="B147" t="s">
+        <v>27</v>
+      </c>
+      <c r="C147">
+        <v>146</v>
+      </c>
+      <c r="D147" t="s">
+        <v>28</v>
+      </c>
+      <c r="E147" t="s">
+        <v>29</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>30</v>
+      </c>
+      <c r="B148" t="s">
+        <v>27</v>
+      </c>
+      <c r="C148">
+        <v>147</v>
+      </c>
+      <c r="D148" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" t="s">
+        <v>29</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>30</v>
+      </c>
+      <c r="B149" t="s">
+        <v>27</v>
+      </c>
+      <c r="C149">
+        <v>148</v>
+      </c>
+      <c r="D149" t="s">
+        <v>28</v>
+      </c>
+      <c r="E149" t="s">
+        <v>29</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>30</v>
+      </c>
+      <c r="B150" t="s">
+        <v>27</v>
+      </c>
+      <c r="C150">
+        <v>149</v>
+      </c>
+      <c r="D150" t="s">
+        <v>28</v>
+      </c>
+      <c r="E150" t="s">
+        <v>29</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>30</v>
+      </c>
+      <c r="B151" t="s">
+        <v>27</v>
+      </c>
+      <c r="C151">
+        <v>150</v>
+      </c>
+      <c r="D151" t="s">
+        <v>28</v>
+      </c>
+      <c r="E151" t="s">
+        <v>29</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>30</v>
+      </c>
+      <c r="B152" t="s">
+        <v>27</v>
+      </c>
+      <c r="C152">
+        <v>151</v>
+      </c>
+      <c r="D152" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" t="s">
+        <v>29</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>30</v>
+      </c>
+      <c r="B153" t="s">
+        <v>27</v>
+      </c>
+      <c r="C153">
+        <v>152</v>
+      </c>
+      <c r="D153" t="s">
+        <v>28</v>
+      </c>
+      <c r="E153" t="s">
+        <v>29</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>30</v>
+      </c>
+      <c r="B154" t="s">
+        <v>27</v>
+      </c>
+      <c r="C154">
+        <v>153</v>
+      </c>
+      <c r="D154" t="s">
+        <v>28</v>
+      </c>
+      <c r="E154" t="s">
+        <v>29</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>30</v>
+      </c>
+      <c r="B155" t="s">
+        <v>27</v>
+      </c>
+      <c r="C155">
+        <v>154</v>
+      </c>
+      <c r="D155" t="s">
+        <v>28</v>
+      </c>
+      <c r="E155" t="s">
+        <v>29</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>30</v>
+      </c>
+      <c r="B156" t="s">
+        <v>27</v>
+      </c>
+      <c r="C156">
+        <v>155</v>
+      </c>
+      <c r="D156" t="s">
+        <v>28</v>
+      </c>
+      <c r="E156" t="s">
+        <v>29</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>30</v>
+      </c>
+      <c r="B157" t="s">
+        <v>27</v>
+      </c>
+      <c r="C157">
+        <v>156</v>
+      </c>
+      <c r="D157" t="s">
+        <v>28</v>
+      </c>
+      <c r="E157" t="s">
+        <v>29</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>30</v>
+      </c>
+      <c r="B158" t="s">
+        <v>27</v>
+      </c>
+      <c r="C158">
+        <v>157</v>
+      </c>
+      <c r="D158" t="s">
+        <v>28</v>
+      </c>
+      <c r="E158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>30</v>
+      </c>
+      <c r="B159" t="s">
+        <v>27</v>
+      </c>
+      <c r="C159">
+        <v>158</v>
+      </c>
+      <c r="D159" t="s">
+        <v>28</v>
+      </c>
+      <c r="E159" t="s">
+        <v>29</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>30</v>
+      </c>
+      <c r="B160" t="s">
+        <v>27</v>
+      </c>
+      <c r="C160">
+        <v>159</v>
+      </c>
+      <c r="D160" t="s">
+        <v>28</v>
+      </c>
+      <c r="E160" t="s">
+        <v>29</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>30</v>
+      </c>
+      <c r="B161" t="s">
+        <v>27</v>
+      </c>
+      <c r="C161">
+        <v>160</v>
+      </c>
+      <c r="D161" t="s">
+        <v>28</v>
+      </c>
+      <c r="E161" t="s">
+        <v>29</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>30</v>
+      </c>
+      <c r="B162" t="s">
+        <v>27</v>
+      </c>
+      <c r="C162">
+        <v>161</v>
+      </c>
+      <c r="D162" t="s">
+        <v>28</v>
+      </c>
+      <c r="E162" t="s">
+        <v>29</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>30</v>
+      </c>
+      <c r="B163" t="s">
+        <v>27</v>
+      </c>
+      <c r="C163">
+        <v>162</v>
+      </c>
+      <c r="D163" t="s">
+        <v>28</v>
+      </c>
+      <c r="E163" t="s">
+        <v>29</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>30</v>
+      </c>
+      <c r="B164" t="s">
+        <v>27</v>
+      </c>
+      <c r="C164">
+        <v>163</v>
+      </c>
+      <c r="D164" t="s">
+        <v>28</v>
+      </c>
+      <c r="E164" t="s">
+        <v>29</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>30</v>
+      </c>
+      <c r="B165" t="s">
+        <v>27</v>
+      </c>
+      <c r="C165">
+        <v>164</v>
+      </c>
+      <c r="D165" t="s">
+        <v>28</v>
+      </c>
+      <c r="E165" t="s">
+        <v>29</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>30</v>
+      </c>
+      <c r="B166" t="s">
+        <v>27</v>
+      </c>
+      <c r="C166">
+        <v>165</v>
+      </c>
+      <c r="D166" t="s">
+        <v>28</v>
+      </c>
+      <c r="E166" t="s">
+        <v>29</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>30</v>
+      </c>
+      <c r="B167" t="s">
+        <v>27</v>
+      </c>
+      <c r="C167">
+        <v>166</v>
+      </c>
+      <c r="D167" t="s">
+        <v>28</v>
+      </c>
+      <c r="E167" t="s">
+        <v>29</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>30</v>
+      </c>
+      <c r="B168" t="s">
+        <v>27</v>
+      </c>
+      <c r="C168">
+        <v>167</v>
+      </c>
+      <c r="D168" t="s">
+        <v>28</v>
+      </c>
+      <c r="E168" t="s">
+        <v>29</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>30</v>
+      </c>
+      <c r="B169" t="s">
+        <v>27</v>
+      </c>
+      <c r="C169">
+        <v>168</v>
+      </c>
+      <c r="D169" t="s">
+        <v>28</v>
+      </c>
+      <c r="E169" t="s">
+        <v>29</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>30</v>
+      </c>
+      <c r="B170" t="s">
+        <v>27</v>
+      </c>
+      <c r="C170">
+        <v>169</v>
+      </c>
+      <c r="D170" t="s">
+        <v>28</v>
+      </c>
+      <c r="E170" t="s">
+        <v>29</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>30</v>
+      </c>
+      <c r="B171" t="s">
+        <v>27</v>
+      </c>
+      <c r="C171">
+        <v>170</v>
+      </c>
+      <c r="D171" t="s">
+        <v>28</v>
+      </c>
+      <c r="E171" t="s">
+        <v>29</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>30</v>
+      </c>
+      <c r="B172" t="s">
+        <v>27</v>
+      </c>
+      <c r="C172">
+        <v>171</v>
+      </c>
+      <c r="D172" t="s">
+        <v>28</v>
+      </c>
+      <c r="E172" t="s">
+        <v>29</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>30</v>
+      </c>
+      <c r="B173" t="s">
+        <v>27</v>
+      </c>
+      <c r="C173">
+        <v>172</v>
+      </c>
+      <c r="D173" t="s">
+        <v>28</v>
+      </c>
+      <c r="E173" t="s">
+        <v>29</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>30</v>
+      </c>
+      <c r="B174" t="s">
+        <v>27</v>
+      </c>
+      <c r="C174">
+        <v>173</v>
+      </c>
+      <c r="D174" t="s">
+        <v>28</v>
+      </c>
+      <c r="E174" t="s">
+        <v>29</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>30</v>
+      </c>
+      <c r="B175" t="s">
+        <v>27</v>
+      </c>
+      <c r="C175">
+        <v>174</v>
+      </c>
+      <c r="D175" t="s">
+        <v>28</v>
+      </c>
+      <c r="E175" t="s">
+        <v>29</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>30</v>
+      </c>
+      <c r="B176" t="s">
+        <v>27</v>
+      </c>
+      <c r="C176">
+        <v>175</v>
+      </c>
+      <c r="D176" t="s">
+        <v>28</v>
+      </c>
+      <c r="E176" t="s">
+        <v>29</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>30</v>
+      </c>
+      <c r="B177" t="s">
+        <v>27</v>
+      </c>
+      <c r="C177">
+        <v>176</v>
+      </c>
+      <c r="D177" t="s">
+        <v>28</v>
+      </c>
+      <c r="E177" t="s">
+        <v>29</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>30</v>
+      </c>
+      <c r="B178" t="s">
+        <v>27</v>
+      </c>
+      <c r="C178">
+        <v>177</v>
+      </c>
+      <c r="D178" t="s">
+        <v>28</v>
+      </c>
+      <c r="E178" t="s">
+        <v>29</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>30</v>
+      </c>
+      <c r="B179" t="s">
+        <v>27</v>
+      </c>
+      <c r="C179">
+        <v>178</v>
+      </c>
+      <c r="D179" t="s">
+        <v>28</v>
+      </c>
+      <c r="E179" t="s">
+        <v>29</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>30</v>
+      </c>
+      <c r="B180" t="s">
+        <v>27</v>
+      </c>
+      <c r="C180">
+        <v>179</v>
+      </c>
+      <c r="D180" t="s">
+        <v>28</v>
+      </c>
+      <c r="E180" t="s">
+        <v>29</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>30</v>
+      </c>
+      <c r="B181" t="s">
+        <v>27</v>
+      </c>
+      <c r="C181">
+        <v>180</v>
+      </c>
+      <c r="D181" t="s">
+        <v>28</v>
+      </c>
+      <c r="E181" t="s">
+        <v>29</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>30</v>
+      </c>
+      <c r="B182" t="s">
+        <v>27</v>
+      </c>
+      <c r="C182">
+        <v>181</v>
+      </c>
+      <c r="D182" t="s">
+        <v>28</v>
+      </c>
+      <c r="E182" t="s">
+        <v>29</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>30</v>
+      </c>
+      <c r="B183" t="s">
+        <v>27</v>
+      </c>
+      <c r="C183">
+        <v>182</v>
+      </c>
+      <c r="D183" t="s">
+        <v>28</v>
+      </c>
+      <c r="E183" t="s">
+        <v>29</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>30</v>
+      </c>
+      <c r="B184" t="s">
+        <v>27</v>
+      </c>
+      <c r="C184">
+        <v>183</v>
+      </c>
+      <c r="D184" t="s">
+        <v>28</v>
+      </c>
+      <c r="E184" t="s">
+        <v>29</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>30</v>
+      </c>
+      <c r="B185" t="s">
+        <v>27</v>
+      </c>
+      <c r="C185">
+        <v>184</v>
+      </c>
+      <c r="D185" t="s">
+        <v>28</v>
+      </c>
+      <c r="E185" t="s">
+        <v>29</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>30</v>
+      </c>
+      <c r="B186" t="s">
+        <v>27</v>
+      </c>
+      <c r="C186">
+        <v>185</v>
+      </c>
+      <c r="D186" t="s">
+        <v>28</v>
+      </c>
+      <c r="E186" t="s">
+        <v>29</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>30</v>
+      </c>
+      <c r="B187" t="s">
+        <v>27</v>
+      </c>
+      <c r="C187">
+        <v>186</v>
+      </c>
+      <c r="D187" t="s">
+        <v>28</v>
+      </c>
+      <c r="E187" t="s">
+        <v>29</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>30</v>
+      </c>
+      <c r="B188" t="s">
+        <v>27</v>
+      </c>
+      <c r="C188">
+        <v>187</v>
+      </c>
+      <c r="D188" t="s">
+        <v>28</v>
+      </c>
+      <c r="E188" t="s">
+        <v>29</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>30</v>
+      </c>
+      <c r="B189" t="s">
+        <v>27</v>
+      </c>
+      <c r="C189">
+        <v>188</v>
+      </c>
+      <c r="D189" t="s">
+        <v>28</v>
+      </c>
+      <c r="E189" t="s">
+        <v>29</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>30</v>
+      </c>
+      <c r="B190" t="s">
+        <v>27</v>
+      </c>
+      <c r="C190">
+        <v>189</v>
+      </c>
+      <c r="D190" t="s">
+        <v>28</v>
+      </c>
+      <c r="E190" t="s">
+        <v>29</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>30</v>
+      </c>
+      <c r="B191" t="s">
+        <v>27</v>
+      </c>
+      <c r="C191">
+        <v>190</v>
+      </c>
+      <c r="D191" t="s">
+        <v>28</v>
+      </c>
+      <c r="E191" t="s">
+        <v>29</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>30</v>
+      </c>
+      <c r="B192" t="s">
+        <v>27</v>
+      </c>
+      <c r="C192">
+        <v>191</v>
+      </c>
+      <c r="D192" t="s">
+        <v>28</v>
+      </c>
+      <c r="E192" t="s">
+        <v>29</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>30</v>
+      </c>
+      <c r="B193" t="s">
+        <v>27</v>
+      </c>
+      <c r="C193">
+        <v>192</v>
+      </c>
+      <c r="D193" t="s">
+        <v>28</v>
+      </c>
+      <c r="E193" t="s">
+        <v>29</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>30</v>
+      </c>
+      <c r="B194" t="s">
+        <v>27</v>
+      </c>
+      <c r="C194">
+        <v>193</v>
+      </c>
+      <c r="D194" t="s">
+        <v>28</v>
+      </c>
+      <c r="E194" t="s">
+        <v>29</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>30</v>
+      </c>
+      <c r="B195" t="s">
+        <v>27</v>
+      </c>
+      <c r="C195">
+        <v>194</v>
+      </c>
+      <c r="D195" t="s">
+        <v>28</v>
+      </c>
+      <c r="E195" t="s">
+        <v>29</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>30</v>
+      </c>
+      <c r="B196" t="s">
+        <v>27</v>
+      </c>
+      <c r="C196">
+        <v>195</v>
+      </c>
+      <c r="D196" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" t="s">
+        <v>29</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>30</v>
+      </c>
+      <c r="B197" t="s">
+        <v>27</v>
+      </c>
+      <c r="C197">
+        <v>196</v>
+      </c>
+      <c r="D197" t="s">
+        <v>28</v>
+      </c>
+      <c r="E197" t="s">
+        <v>29</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>30</v>
+      </c>
+      <c r="B198" t="s">
+        <v>27</v>
+      </c>
+      <c r="C198">
+        <v>197</v>
+      </c>
+      <c r="D198" t="s">
+        <v>28</v>
+      </c>
+      <c r="E198" t="s">
+        <v>29</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>30</v>
+      </c>
+      <c r="B199" t="s">
+        <v>27</v>
+      </c>
+      <c r="C199">
+        <v>198</v>
+      </c>
+      <c r="D199" t="s">
+        <v>28</v>
+      </c>
+      <c r="E199" t="s">
+        <v>29</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>30</v>
+      </c>
+      <c r="B200" t="s">
+        <v>27</v>
+      </c>
+      <c r="C200">
+        <v>199</v>
+      </c>
+      <c r="D200" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" t="s">
+        <v>29</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H200" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>30</v>
+      </c>
+      <c r="B201" t="s">
+        <v>27</v>
+      </c>
+      <c r="C201">
+        <v>200</v>
+      </c>
+      <c r="D201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" t="s">
+        <v>29</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>30</v>
+      </c>
+      <c r="B202" t="s">
+        <v>27</v>
+      </c>
+      <c r="C202">
+        <v>201</v>
+      </c>
+      <c r="D202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" t="s">
+        <v>29</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H202" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>30</v>
+      </c>
+      <c r="B203" t="s">
+        <v>27</v>
+      </c>
+      <c r="C203">
+        <v>202</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" t="s">
+        <v>29</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>30</v>
+      </c>
+      <c r="B204" t="s">
+        <v>27</v>
+      </c>
+      <c r="C204">
+        <v>203</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" t="s">
+        <v>29</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H204" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>30</v>
+      </c>
+      <c r="B205" t="s">
+        <v>27</v>
+      </c>
+      <c r="C205">
+        <v>204</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205" t="s">
+        <v>29</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>30</v>
+      </c>
+      <c r="B206" t="s">
+        <v>27</v>
+      </c>
+      <c r="C206">
+        <v>205</v>
+      </c>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="E206" t="s">
+        <v>29</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>30</v>
+      </c>
+      <c r="B207" t="s">
+        <v>27</v>
+      </c>
+      <c r="C207">
+        <v>206</v>
+      </c>
+      <c r="D207" t="s">
+        <v>28</v>
+      </c>
+      <c r="E207" t="s">
+        <v>29</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>30</v>
+      </c>
+      <c r="B208" t="s">
+        <v>27</v>
+      </c>
+      <c r="C208">
+        <v>207</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" t="s">
+        <v>29</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>30</v>
+      </c>
+      <c r="B209" t="s">
+        <v>27</v>
+      </c>
+      <c r="C209">
+        <v>208</v>
+      </c>
+      <c r="D209" t="s">
+        <v>28</v>
+      </c>
+      <c r="E209" t="s">
+        <v>29</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>30</v>
+      </c>
+      <c r="B210" t="s">
+        <v>27</v>
+      </c>
+      <c r="C210">
+        <v>209</v>
+      </c>
+      <c r="D210" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210" t="s">
+        <v>29</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>30</v>
+      </c>
+      <c r="B211" t="s">
+        <v>27</v>
+      </c>
+      <c r="C211">
+        <v>210</v>
+      </c>
+      <c r="D211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" t="s">
+        <v>29</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>30</v>
+      </c>
+      <c r="B212" t="s">
+        <v>27</v>
+      </c>
+      <c r="C212">
+        <v>211</v>
+      </c>
+      <c r="D212" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212" t="s">
+        <v>29</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>30</v>
+      </c>
+      <c r="B213" t="s">
+        <v>27</v>
+      </c>
+      <c r="C213">
+        <v>212</v>
+      </c>
+      <c r="D213" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213" t="s">
+        <v>29</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>30</v>
+      </c>
+      <c r="B214" t="s">
+        <v>27</v>
+      </c>
+      <c r="C214">
+        <v>213</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" t="s">
+        <v>29</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>30</v>
+      </c>
+      <c r="B215" t="s">
+        <v>27</v>
+      </c>
+      <c r="C215">
+        <v>214</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" t="s">
+        <v>29</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H215" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>30</v>
+      </c>
+      <c r="B216" t="s">
+        <v>27</v>
+      </c>
+      <c r="C216">
+        <v>215</v>
+      </c>
+      <c r="D216" t="s">
+        <v>28</v>
+      </c>
+      <c r="E216" t="s">
+        <v>29</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>30</v>
+      </c>
+      <c r="B217" t="s">
+        <v>27</v>
+      </c>
+      <c r="C217">
+        <v>216</v>
+      </c>
+      <c r="D217" t="s">
+        <v>28</v>
+      </c>
+      <c r="E217" t="s">
+        <v>29</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>30</v>
+      </c>
+      <c r="B218" t="s">
+        <v>27</v>
+      </c>
+      <c r="C218">
+        <v>217</v>
+      </c>
+      <c r="D218" t="s">
+        <v>28</v>
+      </c>
+      <c r="E218" t="s">
+        <v>29</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>30</v>
+      </c>
+      <c r="B219" t="s">
+        <v>27</v>
+      </c>
+      <c r="C219">
+        <v>218</v>
+      </c>
+      <c r="D219" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219" t="s">
+        <v>29</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>30</v>
+      </c>
+      <c r="B220" t="s">
+        <v>27</v>
+      </c>
+      <c r="C220">
+        <v>219</v>
+      </c>
+      <c r="D220" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220" t="s">
+        <v>29</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>30</v>
+      </c>
+      <c r="B221" t="s">
+        <v>27</v>
+      </c>
+      <c r="C221">
+        <v>220</v>
+      </c>
+      <c r="D221" t="s">
+        <v>28</v>
+      </c>
+      <c r="E221" t="s">
+        <v>29</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>30</v>
+      </c>
+      <c r="B222" t="s">
+        <v>27</v>
+      </c>
+      <c r="C222">
+        <v>221</v>
+      </c>
+      <c r="D222" t="s">
+        <v>28</v>
+      </c>
+      <c r="E222" t="s">
+        <v>29</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>30</v>
+      </c>
+      <c r="B223" t="s">
+        <v>27</v>
+      </c>
+      <c r="C223">
+        <v>222</v>
+      </c>
+      <c r="D223" t="s">
+        <v>28</v>
+      </c>
+      <c r="E223" t="s">
+        <v>29</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>30</v>
+      </c>
+      <c r="B224" t="s">
+        <v>27</v>
+      </c>
+      <c r="C224">
+        <v>223</v>
+      </c>
+      <c r="D224" t="s">
+        <v>28</v>
+      </c>
+      <c r="E224" t="s">
+        <v>29</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>30</v>
+      </c>
+      <c r="B225" t="s">
+        <v>27</v>
+      </c>
+      <c r="C225">
+        <v>224</v>
+      </c>
+      <c r="D225" t="s">
+        <v>28</v>
+      </c>
+      <c r="E225" t="s">
+        <v>29</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>30</v>
+      </c>
+      <c r="B226" t="s">
+        <v>27</v>
+      </c>
+      <c r="C226">
+        <v>225</v>
+      </c>
+      <c r="D226" t="s">
+        <v>28</v>
+      </c>
+      <c r="E226" t="s">
+        <v>29</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>30</v>
+      </c>
+      <c r="B227" t="s">
+        <v>27</v>
+      </c>
+      <c r="C227">
+        <v>226</v>
+      </c>
+      <c r="D227" t="s">
+        <v>28</v>
+      </c>
+      <c r="E227" t="s">
+        <v>29</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>30</v>
+      </c>
+      <c r="B228" t="s">
+        <v>27</v>
+      </c>
+      <c r="C228">
+        <v>227</v>
+      </c>
+      <c r="D228" t="s">
+        <v>28</v>
+      </c>
+      <c r="E228" t="s">
+        <v>29</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>30</v>
+      </c>
+      <c r="B229" t="s">
+        <v>27</v>
+      </c>
+      <c r="C229">
+        <v>228</v>
+      </c>
+      <c r="D229" t="s">
+        <v>28</v>
+      </c>
+      <c r="E229" t="s">
+        <v>29</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>30</v>
+      </c>
+      <c r="B230" t="s">
+        <v>27</v>
+      </c>
+      <c r="C230">
+        <v>229</v>
+      </c>
+      <c r="D230" t="s">
+        <v>28</v>
+      </c>
+      <c r="E230" t="s">
+        <v>29</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>30</v>
+      </c>
+      <c r="B231" t="s">
+        <v>27</v>
+      </c>
+      <c r="C231">
+        <v>230</v>
+      </c>
+      <c r="D231" t="s">
+        <v>28</v>
+      </c>
+      <c r="E231" t="s">
+        <v>29</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>30</v>
+      </c>
+      <c r="B232" t="s">
+        <v>27</v>
+      </c>
+      <c r="C232">
+        <v>231</v>
+      </c>
+      <c r="D232" t="s">
+        <v>28</v>
+      </c>
+      <c r="E232" t="s">
+        <v>29</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>30</v>
+      </c>
+      <c r="B233" t="s">
+        <v>27</v>
+      </c>
+      <c r="C233">
+        <v>232</v>
+      </c>
+      <c r="D233" t="s">
+        <v>28</v>
+      </c>
+      <c r="E233" t="s">
+        <v>29</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>30</v>
+      </c>
+      <c r="B234" t="s">
+        <v>27</v>
+      </c>
+      <c r="C234">
+        <v>233</v>
+      </c>
+      <c r="D234" t="s">
+        <v>28</v>
+      </c>
+      <c r="E234" t="s">
+        <v>29</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>30</v>
+      </c>
+      <c r="B235" t="s">
+        <v>27</v>
+      </c>
+      <c r="C235">
+        <v>234</v>
+      </c>
+      <c r="D235" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" t="s">
+        <v>29</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H235" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>30</v>
+      </c>
+      <c r="B236" t="s">
+        <v>27</v>
+      </c>
+      <c r="C236">
+        <v>235</v>
+      </c>
+      <c r="D236" t="s">
+        <v>28</v>
+      </c>
+      <c r="E236" t="s">
+        <v>29</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>30</v>
+      </c>
+      <c r="B237" t="s">
+        <v>27</v>
+      </c>
+      <c r="C237">
+        <v>236</v>
+      </c>
+      <c r="D237" t="s">
+        <v>28</v>
+      </c>
+      <c r="E237" t="s">
+        <v>29</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>30</v>
+      </c>
+      <c r="B238" t="s">
+        <v>27</v>
+      </c>
+      <c r="C238">
+        <v>237</v>
+      </c>
+      <c r="D238" t="s">
+        <v>28</v>
+      </c>
+      <c r="E238" t="s">
+        <v>29</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>30</v>
+      </c>
+      <c r="B239" t="s">
+        <v>27</v>
+      </c>
+      <c r="C239">
+        <v>238</v>
+      </c>
+      <c r="D239" t="s">
+        <v>28</v>
+      </c>
+      <c r="E239" t="s">
+        <v>29</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H239" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>30</v>
+      </c>
+      <c r="B240" t="s">
+        <v>27</v>
+      </c>
+      <c r="C240">
+        <v>239</v>
+      </c>
+      <c r="D240" t="s">
+        <v>28</v>
+      </c>
+      <c r="E240" t="s">
+        <v>29</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H240" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>30</v>
+      </c>
+      <c r="B241" t="s">
+        <v>27</v>
+      </c>
+      <c r="C241">
+        <v>240</v>
+      </c>
+      <c r="D241" t="s">
+        <v>28</v>
+      </c>
+      <c r="E241" t="s">
+        <v>29</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H241" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>30</v>
+      </c>
+      <c r="B242" t="s">
+        <v>27</v>
+      </c>
+      <c r="C242">
+        <v>241</v>
+      </c>
+      <c r="D242" t="s">
+        <v>28</v>
+      </c>
+      <c r="E242" t="s">
+        <v>29</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H242" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>30</v>
+      </c>
+      <c r="B243" t="s">
+        <v>27</v>
+      </c>
+      <c r="C243">
+        <v>242</v>
+      </c>
+      <c r="D243" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" t="s">
+        <v>29</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>30</v>
+      </c>
+      <c r="B244" t="s">
+        <v>27</v>
+      </c>
+      <c r="C244">
+        <v>243</v>
+      </c>
+      <c r="D244" t="s">
+        <v>28</v>
+      </c>
+      <c r="E244" t="s">
+        <v>29</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>30</v>
+      </c>
+      <c r="B245" t="s">
+        <v>27</v>
+      </c>
+      <c r="C245">
+        <v>244</v>
+      </c>
+      <c r="D245" t="s">
+        <v>28</v>
+      </c>
+      <c r="E245" t="s">
+        <v>29</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H245" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>30</v>
+      </c>
+      <c r="B246" t="s">
+        <v>27</v>
+      </c>
+      <c r="C246">
+        <v>245</v>
+      </c>
+      <c r="D246" t="s">
+        <v>28</v>
+      </c>
+      <c r="E246" t="s">
+        <v>29</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H246" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>30</v>
+      </c>
+      <c r="B247" t="s">
+        <v>27</v>
+      </c>
+      <c r="C247">
+        <v>246</v>
+      </c>
+      <c r="D247" t="s">
+        <v>28</v>
+      </c>
+      <c r="E247" t="s">
+        <v>29</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H247" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>30</v>
+      </c>
+      <c r="B248" t="s">
+        <v>27</v>
+      </c>
+      <c r="C248">
+        <v>247</v>
+      </c>
+      <c r="D248" t="s">
+        <v>28</v>
+      </c>
+      <c r="E248" t="s">
+        <v>29</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H248" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>30</v>
+      </c>
+      <c r="B249" t="s">
+        <v>27</v>
+      </c>
+      <c r="C249">
+        <v>248</v>
+      </c>
+      <c r="D249" t="s">
+        <v>28</v>
+      </c>
+      <c r="E249" t="s">
+        <v>29</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H249" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>30</v>
+      </c>
+      <c r="B250" t="s">
+        <v>27</v>
+      </c>
+      <c r="C250">
+        <v>249</v>
+      </c>
+      <c r="D250" t="s">
+        <v>28</v>
+      </c>
+      <c r="E250" t="s">
+        <v>29</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G250" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H250" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>30</v>
+      </c>
+      <c r="B251" t="s">
+        <v>27</v>
+      </c>
+      <c r="C251">
+        <v>250</v>
+      </c>
+      <c r="D251" t="s">
+        <v>28</v>
+      </c>
+      <c r="E251" t="s">
+        <v>29</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H251" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>30</v>
+      </c>
+      <c r="B252" t="s">
+        <v>27</v>
+      </c>
+      <c r="C252">
+        <v>251</v>
+      </c>
+      <c r="D252" t="s">
+        <v>28</v>
+      </c>
+      <c r="E252" t="s">
+        <v>29</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H252" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>30</v>
+      </c>
+      <c r="B253" t="s">
+        <v>27</v>
+      </c>
+      <c r="C253">
+        <v>252</v>
+      </c>
+      <c r="D253" t="s">
+        <v>28</v>
+      </c>
+      <c r="E253" t="s">
+        <v>29</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>30</v>
+      </c>
+      <c r="B254" t="s">
+        <v>27</v>
+      </c>
+      <c r="C254">
+        <v>253</v>
+      </c>
+      <c r="D254" t="s">
+        <v>28</v>
+      </c>
+      <c r="E254" t="s">
+        <v>29</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>30</v>
+      </c>
+      <c r="B255" t="s">
+        <v>27</v>
+      </c>
+      <c r="C255">
+        <v>254</v>
+      </c>
+      <c r="D255" t="s">
+        <v>28</v>
+      </c>
+      <c r="E255" t="s">
+        <v>29</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G255" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H255" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>30</v>
+      </c>
+      <c r="B256" t="s">
+        <v>27</v>
+      </c>
+      <c r="C256">
+        <v>255</v>
+      </c>
+      <c r="D256" t="s">
+        <v>28</v>
+      </c>
+      <c r="E256" t="s">
+        <v>29</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G256" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H256" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>30</v>
+      </c>
+      <c r="B257" t="s">
+        <v>27</v>
+      </c>
+      <c r="C257">
+        <v>256</v>
+      </c>
+      <c r="D257" t="s">
+        <v>28</v>
+      </c>
+      <c r="E257" t="s">
+        <v>29</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H257" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>30</v>
+      </c>
+      <c r="B258" t="s">
+        <v>27</v>
+      </c>
+      <c r="C258">
+        <v>257</v>
+      </c>
+      <c r="D258" t="s">
+        <v>28</v>
+      </c>
+      <c r="E258" t="s">
+        <v>29</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H258" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>30</v>
+      </c>
+      <c r="B259" t="s">
+        <v>27</v>
+      </c>
+      <c r="C259">
+        <v>258</v>
+      </c>
+      <c r="D259" t="s">
+        <v>28</v>
+      </c>
+      <c r="E259" t="s">
+        <v>29</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G259" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H259" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>30</v>
+      </c>
+      <c r="B260" t="s">
+        <v>27</v>
+      </c>
+      <c r="C260">
+        <v>259</v>
+      </c>
+      <c r="D260" t="s">
+        <v>28</v>
+      </c>
+      <c r="E260" t="s">
+        <v>29</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G260" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H260" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>30</v>
+      </c>
+      <c r="B261" t="s">
+        <v>27</v>
+      </c>
+      <c r="C261">
+        <v>260</v>
+      </c>
+      <c r="D261" t="s">
+        <v>28</v>
+      </c>
+      <c r="E261" t="s">
+        <v>29</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H261" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>30</v>
+      </c>
+      <c r="B262" t="s">
+        <v>27</v>
+      </c>
+      <c r="C262">
+        <v>261</v>
+      </c>
+      <c r="D262" t="s">
+        <v>28</v>
+      </c>
+      <c r="E262" t="s">
+        <v>29</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G262" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H262" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>30</v>
+      </c>
+      <c r="B263" t="s">
+        <v>27</v>
+      </c>
+      <c r="C263">
+        <v>262</v>
+      </c>
+      <c r="D263" t="s">
+        <v>28</v>
+      </c>
+      <c r="E263" t="s">
+        <v>29</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H263" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>30</v>
+      </c>
+      <c r="B264" t="s">
+        <v>27</v>
+      </c>
+      <c r="C264">
+        <v>263</v>
+      </c>
+      <c r="D264" t="s">
+        <v>28</v>
+      </c>
+      <c r="E264" t="s">
+        <v>29</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H264" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>30</v>
+      </c>
+      <c r="B265" t="s">
+        <v>27</v>
+      </c>
+      <c r="C265">
+        <v>264</v>
+      </c>
+      <c r="D265" t="s">
+        <v>28</v>
+      </c>
+      <c r="E265" t="s">
+        <v>29</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G265" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H265" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>30</v>
+      </c>
+      <c r="B266" t="s">
+        <v>27</v>
+      </c>
+      <c r="C266">
+        <v>265</v>
+      </c>
+      <c r="D266" t="s">
+        <v>28</v>
+      </c>
+      <c r="E266" t="s">
+        <v>29</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G266" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H266" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>30</v>
+      </c>
+      <c r="B267" t="s">
+        <v>27</v>
+      </c>
+      <c r="C267">
+        <v>266</v>
+      </c>
+      <c r="D267" t="s">
+        <v>28</v>
+      </c>
+      <c r="E267" t="s">
+        <v>29</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G267" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H267" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>30</v>
+      </c>
+      <c r="B268" t="s">
+        <v>27</v>
+      </c>
+      <c r="C268">
+        <v>267</v>
+      </c>
+      <c r="D268" t="s">
+        <v>28</v>
+      </c>
+      <c r="E268" t="s">
+        <v>29</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G268" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H268" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>30</v>
+      </c>
+      <c r="B269" t="s">
+        <v>27</v>
+      </c>
+      <c r="C269">
+        <v>268</v>
+      </c>
+      <c r="D269" t="s">
+        <v>28</v>
+      </c>
+      <c r="E269" t="s">
+        <v>29</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G269" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H269" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>30</v>
+      </c>
+      <c r="B270" t="s">
+        <v>27</v>
+      </c>
+      <c r="C270">
+        <v>269</v>
+      </c>
+      <c r="D270" t="s">
+        <v>28</v>
+      </c>
+      <c r="E270" t="s">
+        <v>29</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G270" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H270" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>30</v>
+      </c>
+      <c r="B271" t="s">
+        <v>27</v>
+      </c>
+      <c r="C271">
+        <v>270</v>
+      </c>
+      <c r="D271" t="s">
+        <v>28</v>
+      </c>
+      <c r="E271" t="s">
+        <v>29</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G271" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H271" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>30</v>
+      </c>
+      <c r="B272" t="s">
+        <v>27</v>
+      </c>
+      <c r="C272">
+        <v>271</v>
+      </c>
+      <c r="D272" t="s">
+        <v>28</v>
+      </c>
+      <c r="E272" t="s">
+        <v>29</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G272" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H272" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>30</v>
+      </c>
+      <c r="B273" t="s">
+        <v>27</v>
+      </c>
+      <c r="C273">
+        <v>272</v>
+      </c>
+      <c r="D273" t="s">
+        <v>28</v>
+      </c>
+      <c r="E273" t="s">
+        <v>29</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G273" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H273" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>30</v>
+      </c>
+      <c r="B274" t="s">
+        <v>27</v>
+      </c>
+      <c r="C274">
+        <v>273</v>
+      </c>
+      <c r="D274" t="s">
+        <v>28</v>
+      </c>
+      <c r="E274" t="s">
+        <v>29</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G274" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H274" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>30</v>
+      </c>
+      <c r="B275" t="s">
+        <v>27</v>
+      </c>
+      <c r="C275">
+        <v>274</v>
+      </c>
+      <c r="D275" t="s">
+        <v>28</v>
+      </c>
+      <c r="E275" t="s">
+        <v>29</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G275" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>30</v>
+      </c>
+      <c r="B276" t="s">
+        <v>27</v>
+      </c>
+      <c r="C276">
+        <v>275</v>
+      </c>
+      <c r="D276" t="s">
+        <v>28</v>
+      </c>
+      <c r="E276" t="s">
+        <v>29</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G276" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H276" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>30</v>
+      </c>
+      <c r="B277" t="s">
+        <v>27</v>
+      </c>
+      <c r="C277">
+        <v>276</v>
+      </c>
+      <c r="D277" t="s">
+        <v>28</v>
+      </c>
+      <c r="E277" t="s">
+        <v>29</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G277" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H277" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>30</v>
+      </c>
+      <c r="B278" t="s">
+        <v>27</v>
+      </c>
+      <c r="C278">
+        <v>277</v>
+      </c>
+      <c r="D278" t="s">
+        <v>28</v>
+      </c>
+      <c r="E278" t="s">
+        <v>29</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G278" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H278" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>30</v>
+      </c>
+      <c r="B279" t="s">
+        <v>27</v>
+      </c>
+      <c r="C279">
+        <v>278</v>
+      </c>
+      <c r="D279" t="s">
+        <v>28</v>
+      </c>
+      <c r="E279" t="s">
+        <v>29</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G279" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H279" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>30</v>
+      </c>
+      <c r="B280" t="s">
+        <v>27</v>
+      </c>
+      <c r="C280">
+        <v>279</v>
+      </c>
+      <c r="D280" t="s">
+        <v>28</v>
+      </c>
+      <c r="E280" t="s">
+        <v>29</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G280" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H280" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>30</v>
+      </c>
+      <c r="B281" t="s">
+        <v>27</v>
+      </c>
+      <c r="C281">
+        <v>280</v>
+      </c>
+      <c r="D281" t="s">
+        <v>28</v>
+      </c>
+      <c r="E281" t="s">
+        <v>29</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G281" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H281" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>30</v>
+      </c>
+      <c r="B282" t="s">
+        <v>27</v>
+      </c>
+      <c r="C282">
+        <v>281</v>
+      </c>
+      <c r="D282" t="s">
+        <v>28</v>
+      </c>
+      <c r="E282" t="s">
+        <v>29</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H282" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>30</v>
+      </c>
+      <c r="B283" t="s">
+        <v>27</v>
+      </c>
+      <c r="C283">
+        <v>282</v>
+      </c>
+      <c r="D283" t="s">
+        <v>28</v>
+      </c>
+      <c r="E283" t="s">
+        <v>29</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G283" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H283" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>30</v>
+      </c>
+      <c r="B284" t="s">
+        <v>27</v>
+      </c>
+      <c r="C284">
+        <v>283</v>
+      </c>
+      <c r="D284" t="s">
+        <v>28</v>
+      </c>
+      <c r="E284" t="s">
+        <v>29</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H284" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>30</v>
+      </c>
+      <c r="B285" t="s">
+        <v>27</v>
+      </c>
+      <c r="C285">
+        <v>284</v>
+      </c>
+      <c r="D285" t="s">
+        <v>28</v>
+      </c>
+      <c r="E285" t="s">
+        <v>29</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G285" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H285" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>30</v>
+      </c>
+      <c r="B286" t="s">
+        <v>27</v>
+      </c>
+      <c r="C286">
+        <v>285</v>
+      </c>
+      <c r="D286" t="s">
+        <v>28</v>
+      </c>
+      <c r="E286" t="s">
+        <v>29</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G286" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H286" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>30</v>
+      </c>
+      <c r="B287" t="s">
+        <v>27</v>
+      </c>
+      <c r="C287">
+        <v>286</v>
+      </c>
+      <c r="D287" t="s">
+        <v>28</v>
+      </c>
+      <c r="E287" t="s">
+        <v>29</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G287" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H287" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>30</v>
+      </c>
+      <c r="B288" t="s">
+        <v>27</v>
+      </c>
+      <c r="C288">
+        <v>287</v>
+      </c>
+      <c r="D288" t="s">
+        <v>28</v>
+      </c>
+      <c r="E288" t="s">
+        <v>29</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G288" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H288" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>30</v>
+      </c>
+      <c r="B289" t="s">
+        <v>27</v>
+      </c>
+      <c r="C289">
+        <v>288</v>
+      </c>
+      <c r="D289" t="s">
+        <v>28</v>
+      </c>
+      <c r="E289" t="s">
+        <v>29</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H289" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>30</v>
+      </c>
+      <c r="B290" t="s">
+        <v>27</v>
+      </c>
+      <c r="C290">
+        <v>289</v>
+      </c>
+      <c r="D290" t="s">
+        <v>28</v>
+      </c>
+      <c r="E290" t="s">
+        <v>29</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G290" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H290" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>30</v>
+      </c>
+      <c r="B291" t="s">
+        <v>27</v>
+      </c>
+      <c r="C291">
+        <v>290</v>
+      </c>
+      <c r="D291" t="s">
+        <v>28</v>
+      </c>
+      <c r="E291" t="s">
+        <v>29</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G291" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H291" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>30</v>
+      </c>
+      <c r="B292" t="s">
+        <v>27</v>
+      </c>
+      <c r="C292">
+        <v>291</v>
+      </c>
+      <c r="D292" t="s">
+        <v>28</v>
+      </c>
+      <c r="E292" t="s">
+        <v>29</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G292" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H292" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>30</v>
+      </c>
+      <c r="B293" t="s">
+        <v>27</v>
+      </c>
+      <c r="C293">
+        <v>292</v>
+      </c>
+      <c r="D293" t="s">
+        <v>28</v>
+      </c>
+      <c r="E293" t="s">
+        <v>29</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G293" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H293" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>30</v>
+      </c>
+      <c r="B294" t="s">
+        <v>27</v>
+      </c>
+      <c r="C294">
+        <v>293</v>
+      </c>
+      <c r="D294" t="s">
+        <v>28</v>
+      </c>
+      <c r="E294" t="s">
+        <v>29</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G294" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H294" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>30</v>
+      </c>
+      <c r="B295" t="s">
+        <v>27</v>
+      </c>
+      <c r="C295">
+        <v>294</v>
+      </c>
+      <c r="D295" t="s">
+        <v>28</v>
+      </c>
+      <c r="E295" t="s">
+        <v>29</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G295" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H295" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>30</v>
+      </c>
+      <c r="B296" t="s">
+        <v>27</v>
+      </c>
+      <c r="C296">
+        <v>295</v>
+      </c>
+      <c r="D296" t="s">
+        <v>28</v>
+      </c>
+      <c r="E296" t="s">
+        <v>29</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G296" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H296" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>30</v>
+      </c>
+      <c r="B297" t="s">
+        <v>27</v>
+      </c>
+      <c r="C297">
+        <v>296</v>
+      </c>
+      <c r="D297" t="s">
+        <v>28</v>
+      </c>
+      <c r="E297" t="s">
+        <v>29</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G297" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H297" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>30</v>
+      </c>
+      <c r="B298" t="s">
+        <v>27</v>
+      </c>
+      <c r="C298">
+        <v>297</v>
+      </c>
+      <c r="D298" t="s">
+        <v>28</v>
+      </c>
+      <c r="E298" t="s">
+        <v>29</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G298" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H298" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>30</v>
+      </c>
+      <c r="B299" t="s">
+        <v>27</v>
+      </c>
+      <c r="C299">
+        <v>298</v>
+      </c>
+      <c r="D299" t="s">
+        <v>28</v>
+      </c>
+      <c r="E299" t="s">
+        <v>29</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G299" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H299" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>30</v>
+      </c>
+      <c r="B300" t="s">
+        <v>27</v>
+      </c>
+      <c r="C300">
+        <v>299</v>
+      </c>
+      <c r="D300" t="s">
+        <v>28</v>
+      </c>
+      <c r="E300" t="s">
+        <v>29</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G300" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H300" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>30</v>
+      </c>
+      <c r="B301" t="s">
+        <v>27</v>
+      </c>
+      <c r="C301">
+        <v>300</v>
+      </c>
+      <c r="D301" t="s">
+        <v>28</v>
+      </c>
+      <c r="E301" t="s">
+        <v>29</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G301" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H301" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>30</v>
+      </c>
+      <c r="B302" t="s">
+        <v>27</v>
+      </c>
+      <c r="C302">
+        <v>301</v>
+      </c>
+      <c r="D302" t="s">
+        <v>28</v>
+      </c>
+      <c r="E302" t="s">
+        <v>29</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G302" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H302" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>30</v>
+      </c>
+      <c r="B303" t="s">
+        <v>27</v>
+      </c>
+      <c r="C303">
+        <v>302</v>
+      </c>
+      <c r="D303" t="s">
+        <v>28</v>
+      </c>
+      <c r="E303" t="s">
+        <v>29</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G303" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H303" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>30</v>
+      </c>
+      <c r="B304" t="s">
+        <v>27</v>
+      </c>
+      <c r="C304">
+        <v>303</v>
+      </c>
+      <c r="D304" t="s">
+        <v>28</v>
+      </c>
+      <c r="E304" t="s">
+        <v>29</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G304" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H304" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1120,8 +8478,574 @@
     <hyperlink ref="G19" r:id="rId22" xr:uid="{F69C18C0-F992-4478-B99F-A115AD37C4FC}"/>
     <hyperlink ref="G20" r:id="rId23" xr:uid="{D784AD20-00A5-4F76-AEBD-01594C6FCDFF}"/>
     <hyperlink ref="G21" r:id="rId24" xr:uid="{F9956A11-15E4-47F8-894C-D00F02DC0AD0}"/>
+    <hyperlink ref="H22" r:id="rId25" xr:uid="{7050479D-D6DB-48E8-89EE-E34F5CF235BF}"/>
+    <hyperlink ref="H23" r:id="rId26" xr:uid="{345B5217-037D-415A-B659-DCCDD8AC82E3}"/>
+    <hyperlink ref="H24" r:id="rId27" xr:uid="{8BE799EE-AD03-4E0B-872D-C3DCE834106D}"/>
+    <hyperlink ref="H25" r:id="rId28" xr:uid="{B3B39DA8-2231-4C11-A549-2E8C8B47C738}"/>
+    <hyperlink ref="H26" r:id="rId29" xr:uid="{3CCC19A2-B004-4424-8988-D234D0C37F52}"/>
+    <hyperlink ref="H27" r:id="rId30" xr:uid="{35604D44-8836-4816-B253-8741AA7442D2}"/>
+    <hyperlink ref="H28" r:id="rId31" xr:uid="{FBA66D78-69A1-4351-9208-A47CB36E6B43}"/>
+    <hyperlink ref="H29" r:id="rId32" xr:uid="{42FEF892-59DE-40BA-901F-9B3B5C66C638}"/>
+    <hyperlink ref="H30" r:id="rId33" xr:uid="{71EA95C3-83E6-487A-8BB6-673314120D27}"/>
+    <hyperlink ref="H31" r:id="rId34" xr:uid="{788FDAC8-E99B-4D58-BF9E-DAB8666CCEF5}"/>
+    <hyperlink ref="H32" r:id="rId35" xr:uid="{E5BD3C88-66A8-442E-87DC-A648747A64A6}"/>
+    <hyperlink ref="H33" r:id="rId36" xr:uid="{4E9E0B0F-2D65-443C-9B18-A49B55DF9E8D}"/>
+    <hyperlink ref="H34" r:id="rId37" xr:uid="{8F5529E3-332F-417A-89D3-8326A87DDA3B}"/>
+    <hyperlink ref="H35" r:id="rId38" xr:uid="{3783A5D8-09FE-4AEA-8A90-6785805711C9}"/>
+    <hyperlink ref="H36" r:id="rId39" xr:uid="{C9987DBF-9130-40A9-A6CD-DEB66E8CE0F3}"/>
+    <hyperlink ref="H37" r:id="rId40" xr:uid="{22075399-7CBF-41C6-A22E-D38E09B32AF6}"/>
+    <hyperlink ref="H38" r:id="rId41" xr:uid="{90D976EC-FB1E-4DAF-8A76-5AA7B209CC57}"/>
+    <hyperlink ref="H39" r:id="rId42" xr:uid="{6DA6D3FA-6029-406D-9A1E-23F97DA344B7}"/>
+    <hyperlink ref="H40" r:id="rId43" xr:uid="{6E430EF4-79F4-404E-A7CF-642DF563B4D6}"/>
+    <hyperlink ref="H41" r:id="rId44" xr:uid="{5CB10F3F-98D9-43E7-8586-888C11FD0412}"/>
+    <hyperlink ref="H42" r:id="rId45" xr:uid="{C96EA8B1-7FF5-46B8-B92E-085BC2837A1B}"/>
+    <hyperlink ref="H43" r:id="rId46" xr:uid="{701B315E-3EAA-4448-B999-47258BEC2070}"/>
+    <hyperlink ref="H44" r:id="rId47" xr:uid="{89ED3D41-B5DE-4758-AB74-1B4C7D7621A7}"/>
+    <hyperlink ref="H45" r:id="rId48" xr:uid="{9D22961A-CF49-4949-B0BA-84B12C29780A}"/>
+    <hyperlink ref="H46" r:id="rId49" xr:uid="{C27A8BCF-8C2E-4376-8C16-69E7F9F3B312}"/>
+    <hyperlink ref="H47" r:id="rId50" xr:uid="{16E897DA-6C6F-41CE-90D1-25F1D5BFD3A1}"/>
+    <hyperlink ref="H48" r:id="rId51" xr:uid="{3BF3DCFC-BB54-4CE6-AE7A-AD6068B5CD8D}"/>
+    <hyperlink ref="H49" r:id="rId52" xr:uid="{DFA1BD43-944A-4B1F-B0B8-2B24F3277D4C}"/>
+    <hyperlink ref="H50" r:id="rId53" xr:uid="{FA875FCC-B6F9-4AE5-8F56-FF95596017E8}"/>
+    <hyperlink ref="H51" r:id="rId54" xr:uid="{2ECEC48A-05F6-4A13-96A6-B79A168FDF3A}"/>
+    <hyperlink ref="H52" r:id="rId55" xr:uid="{1C21BA98-D284-4505-880D-DB2A7968356D}"/>
+    <hyperlink ref="H53" r:id="rId56" xr:uid="{019ECCF9-5632-4FC3-8884-2CDA1ACB3C35}"/>
+    <hyperlink ref="H54" r:id="rId57" xr:uid="{CE7ED8AD-D467-43F1-AA01-20664FC19C90}"/>
+    <hyperlink ref="H55" r:id="rId58" xr:uid="{5F8D59C9-E76A-4845-81AC-846143592DBA}"/>
+    <hyperlink ref="H56" r:id="rId59" xr:uid="{294CE789-457E-448A-8860-D1C74A122121}"/>
+    <hyperlink ref="H57" r:id="rId60" xr:uid="{1E3E14A2-8246-42AC-9738-2A0611DA417C}"/>
+    <hyperlink ref="H58" r:id="rId61" xr:uid="{C749F58B-030C-40AB-A120-84FABB3AB9CB}"/>
+    <hyperlink ref="H59" r:id="rId62" xr:uid="{BAD7F88B-5788-4996-9A9A-9C18495AB31B}"/>
+    <hyperlink ref="H60" r:id="rId63" xr:uid="{943E2324-A717-46F5-9DD6-8165A024A2EB}"/>
+    <hyperlink ref="H61" r:id="rId64" xr:uid="{F3E72E73-4B75-465B-BD6A-506C41C0F197}"/>
+    <hyperlink ref="H62" r:id="rId65" xr:uid="{C3E0522F-EAD2-411D-987D-FC1C6E1D91F3}"/>
+    <hyperlink ref="H63" r:id="rId66" xr:uid="{6727DBCF-0AE4-42BB-B0CC-C1F701E9D9F1}"/>
+    <hyperlink ref="H64" r:id="rId67" xr:uid="{0F9195D0-763B-46F6-9C81-6CE3819C112B}"/>
+    <hyperlink ref="H65" r:id="rId68" xr:uid="{228E154B-3E53-469F-A91B-BF0B574A0A4E}"/>
+    <hyperlink ref="H66" r:id="rId69" xr:uid="{9F8367E3-64E3-4C70-AAD6-121130A70D74}"/>
+    <hyperlink ref="H67" r:id="rId70" xr:uid="{DAD3BE77-A06F-42BA-BDC1-764557D58839}"/>
+    <hyperlink ref="H68" r:id="rId71" xr:uid="{EFF579AD-93AD-4CFF-8D92-4583A5F49920}"/>
+    <hyperlink ref="H69" r:id="rId72" xr:uid="{A4CC95CB-AB64-4F70-9367-1877814F2C48}"/>
+    <hyperlink ref="H70" r:id="rId73" xr:uid="{4BABA550-42C6-48B1-85F4-0DC8E0FA6033}"/>
+    <hyperlink ref="H71" r:id="rId74" xr:uid="{AF31D568-C011-45B1-AB8F-844F231228FC}"/>
+    <hyperlink ref="H72" r:id="rId75" xr:uid="{87326E66-07D6-4B03-9790-F714BE811478}"/>
+    <hyperlink ref="H73" r:id="rId76" xr:uid="{2ED57A13-64D1-4B41-B989-8C999AACBB45}"/>
+    <hyperlink ref="H74" r:id="rId77" xr:uid="{4DCB0C97-6B13-488D-BE2B-5CD375C1DAD4}"/>
+    <hyperlink ref="H75" r:id="rId78" xr:uid="{3293F146-B28D-4978-AB5B-AAA95433AE5C}"/>
+    <hyperlink ref="H76" r:id="rId79" xr:uid="{46F53449-6298-4D5E-A761-DC963721F2F5}"/>
+    <hyperlink ref="H77" r:id="rId80" xr:uid="{300CB278-DA0B-4974-A179-000DC21BA1BC}"/>
+    <hyperlink ref="H78" r:id="rId81" xr:uid="{7D5CDC55-4631-4B53-A40D-2447588D0E38}"/>
+    <hyperlink ref="H79" r:id="rId82" xr:uid="{62BA3835-8FCC-480E-A94C-465B77F1729F}"/>
+    <hyperlink ref="H80" r:id="rId83" xr:uid="{19420009-E24E-44E9-A0A5-38E8869B8290}"/>
+    <hyperlink ref="H81" r:id="rId84" xr:uid="{A1A06C5F-DFE2-4C79-BC52-92548872C533}"/>
+    <hyperlink ref="H82" r:id="rId85" xr:uid="{24D499AF-DEB1-42D2-86F3-4A06DCADCCBA}"/>
+    <hyperlink ref="H83" r:id="rId86" xr:uid="{32640E71-0493-40DD-8615-3906774E9EE1}"/>
+    <hyperlink ref="H84" r:id="rId87" xr:uid="{004142A3-BD79-4EC5-9FE9-79D6033515F8}"/>
+    <hyperlink ref="H85" r:id="rId88" xr:uid="{5A31DB97-88DA-484C-B39D-5B9E03C5BBE8}"/>
+    <hyperlink ref="H86" r:id="rId89" xr:uid="{BBB81958-64E7-4B4C-88FD-5E5A54095D4C}"/>
+    <hyperlink ref="H87" r:id="rId90" xr:uid="{E92B39AC-7FA7-420C-B5AB-31AB15E9ED13}"/>
+    <hyperlink ref="H88" r:id="rId91" xr:uid="{BDB12604-F46C-41BB-9D99-2301A6E84AB3}"/>
+    <hyperlink ref="H89" r:id="rId92" xr:uid="{C626C92A-5E81-47DB-87CC-BB9CC0A97CA2}"/>
+    <hyperlink ref="H90" r:id="rId93" xr:uid="{94408FF7-FE25-4664-B1EA-6BF0188BF2F6}"/>
+    <hyperlink ref="H91" r:id="rId94" xr:uid="{DB7DFA2A-C766-480D-A7E4-8D5A55EB9148}"/>
+    <hyperlink ref="H92" r:id="rId95" xr:uid="{CD4653D7-3465-464F-B251-7984D7723DD8}"/>
+    <hyperlink ref="H93" r:id="rId96" xr:uid="{79ED0465-E0E9-4E91-9127-2F7F5A7C05D6}"/>
+    <hyperlink ref="H94" r:id="rId97" xr:uid="{268530CF-61D5-41A6-8D41-9325DF478B6D}"/>
+    <hyperlink ref="H95" r:id="rId98" xr:uid="{3CEA5AC6-7D4B-4D3A-B46B-BF8994924137}"/>
+    <hyperlink ref="H96" r:id="rId99" xr:uid="{28AAD808-87C0-4C54-93B7-7CFFAE53F184}"/>
+    <hyperlink ref="H97" r:id="rId100" xr:uid="{2FC2B7BA-C97B-4006-A8E7-730E083140DA}"/>
+    <hyperlink ref="H98" r:id="rId101" xr:uid="{86CC3E6E-912D-4A14-88D2-2EB88B98A07A}"/>
+    <hyperlink ref="H99" r:id="rId102" xr:uid="{01BBE2A1-96D1-4E84-8353-DDAEFA7B602F}"/>
+    <hyperlink ref="H100" r:id="rId103" xr:uid="{828FB797-F500-4396-97C3-A1FA9E732271}"/>
+    <hyperlink ref="H101" r:id="rId104" xr:uid="{8B6FDABE-38FB-4D37-9D0A-AD35E08417D0}"/>
+    <hyperlink ref="H102" r:id="rId105" xr:uid="{1DC827DC-A284-4246-8EEB-C7E73CE56D61}"/>
+    <hyperlink ref="H103" r:id="rId106" xr:uid="{5E1B0EF5-C8F0-4B7E-A9F4-BE283BCBB304}"/>
+    <hyperlink ref="H104" r:id="rId107" xr:uid="{ADFFF667-7FB5-40E4-8803-D1AB5461EF43}"/>
+    <hyperlink ref="H105" r:id="rId108" xr:uid="{98D1F069-563E-40B8-8F87-D435AB805B18}"/>
+    <hyperlink ref="H106" r:id="rId109" xr:uid="{1FD9036F-E9EA-4153-9FA5-378BE43CD0AA}"/>
+    <hyperlink ref="H107" r:id="rId110" xr:uid="{EE4F66C8-592E-44CE-9428-AB13D5D0A9B3}"/>
+    <hyperlink ref="H108" r:id="rId111" xr:uid="{6CA54A86-1D73-4B51-9885-9A0DD6585004}"/>
+    <hyperlink ref="H109" r:id="rId112" xr:uid="{61529326-DA32-429E-843A-41F1E238B61A}"/>
+    <hyperlink ref="H110" r:id="rId113" xr:uid="{FCCC4C14-43D2-4F90-87D0-E1DBB19A9883}"/>
+    <hyperlink ref="H111" r:id="rId114" xr:uid="{97130DFA-AFA9-41D1-A6FD-FCA0EABB8249}"/>
+    <hyperlink ref="H112" r:id="rId115" xr:uid="{03CC247F-E2C6-4310-9ABE-F0093366BEDE}"/>
+    <hyperlink ref="H113" r:id="rId116" xr:uid="{75A873BB-B18B-4FE7-9640-F50ECA347A73}"/>
+    <hyperlink ref="H114" r:id="rId117" xr:uid="{93D953AC-0BFC-4D6F-9357-D68619963762}"/>
+    <hyperlink ref="H115" r:id="rId118" xr:uid="{11D5375C-1332-412F-830A-D1909AD370E7}"/>
+    <hyperlink ref="H116" r:id="rId119" xr:uid="{DFDC5F02-C9E9-49BA-95F5-FB0DE9A414AF}"/>
+    <hyperlink ref="H117" r:id="rId120" xr:uid="{3148ADEB-AB1C-48B9-B4FF-B8D6CDAC65D0}"/>
+    <hyperlink ref="H118" r:id="rId121" xr:uid="{0637A81E-0DC2-46AE-8C11-F45B4A290A7E}"/>
+    <hyperlink ref="H119" r:id="rId122" xr:uid="{AC683105-68B2-4221-A48A-208338E71EFF}"/>
+    <hyperlink ref="H120" r:id="rId123" xr:uid="{7B22F473-1BF4-42F8-B720-7321C6B494D9}"/>
+    <hyperlink ref="H121" r:id="rId124" xr:uid="{78FF7906-EC91-4F9B-AB19-200E59577EF5}"/>
+    <hyperlink ref="H122" r:id="rId125" xr:uid="{B8223A4B-B760-4B6A-AA74-F2B6E40087EF}"/>
+    <hyperlink ref="H123" r:id="rId126" xr:uid="{FB8FEEA5-4CF4-4E9B-B2AA-6EBE64093D3A}"/>
+    <hyperlink ref="H124" r:id="rId127" xr:uid="{7D481321-09B0-4EB7-BA5B-2A9170BC8440}"/>
+    <hyperlink ref="H125" r:id="rId128" xr:uid="{41604D5D-D5C5-4794-A05E-DA1C1644A6AC}"/>
+    <hyperlink ref="H126" r:id="rId129" xr:uid="{A65A71B6-024E-43EB-8968-3A3EE4B0E398}"/>
+    <hyperlink ref="H127" r:id="rId130" xr:uid="{E99F429E-DABF-4D61-946E-125D176DF5EC}"/>
+    <hyperlink ref="H128" r:id="rId131" xr:uid="{04AEE461-2C9A-4BD6-886D-4359850F5F53}"/>
+    <hyperlink ref="H129" r:id="rId132" xr:uid="{43F8FB6D-68F7-4835-86CC-4D068F21AFC9}"/>
+    <hyperlink ref="H130" r:id="rId133" xr:uid="{341AADAE-96EC-49AC-92CA-63E4C98AE7ED}"/>
+    <hyperlink ref="H131" r:id="rId134" xr:uid="{F2F541C1-ACD6-4C32-ABA1-D00D7D26055C}"/>
+    <hyperlink ref="H132" r:id="rId135" xr:uid="{58226D08-D09A-4BCF-A939-3DBE9A110C42}"/>
+    <hyperlink ref="H133" r:id="rId136" xr:uid="{C219F4C2-D169-4A8A-8515-35BED69561F4}"/>
+    <hyperlink ref="H134" r:id="rId137" xr:uid="{9AF1AEFC-1F16-4A35-985F-F1B60F81E14D}"/>
+    <hyperlink ref="H135" r:id="rId138" xr:uid="{935BFE9A-8C20-4343-A503-8094B9C36E09}"/>
+    <hyperlink ref="H136" r:id="rId139" xr:uid="{A80457C3-2C89-44C4-8ABC-6A02A7EC6E06}"/>
+    <hyperlink ref="H137" r:id="rId140" xr:uid="{1AF22773-65DB-42EB-9439-91C3C6B99A6A}"/>
+    <hyperlink ref="H138" r:id="rId141" xr:uid="{5F168D6A-7BCF-4966-8385-06DC6D5F41D8}"/>
+    <hyperlink ref="H139" r:id="rId142" xr:uid="{8C750E11-9666-48FA-971A-597059EFDF24}"/>
+    <hyperlink ref="H140" r:id="rId143" xr:uid="{BB5C136D-8099-4B76-92E1-50BCF4770294}"/>
+    <hyperlink ref="H141" r:id="rId144" xr:uid="{5A692A46-1C98-4A45-99D2-B417E2379F89}"/>
+    <hyperlink ref="H142" r:id="rId145" xr:uid="{9D2B6633-0735-4384-9BBE-6FAB7312E290}"/>
+    <hyperlink ref="H143" r:id="rId146" xr:uid="{F11B7168-5EFA-45EA-968F-3DDF262F73D4}"/>
+    <hyperlink ref="H144" r:id="rId147" xr:uid="{575A0E34-3650-4C61-B042-091FAAFD2C1A}"/>
+    <hyperlink ref="H145" r:id="rId148" xr:uid="{17C284BE-000C-4701-ACF3-FC77FBF0B14A}"/>
+    <hyperlink ref="H146" r:id="rId149" xr:uid="{D85FE581-055E-4F93-8B7B-17B091FBA42B}"/>
+    <hyperlink ref="H147" r:id="rId150" xr:uid="{CF1FB06F-C291-4F58-8BB0-5EB843F20A50}"/>
+    <hyperlink ref="H148" r:id="rId151" xr:uid="{3BC32CE2-B611-41D3-BA87-909B8A108157}"/>
+    <hyperlink ref="H149" r:id="rId152" xr:uid="{EF45DCF7-4B83-49C9-8962-BAAF2CF042A2}"/>
+    <hyperlink ref="H150" r:id="rId153" xr:uid="{B223DE72-68F9-4A2B-B0FE-738C732231CF}"/>
+    <hyperlink ref="H151" r:id="rId154" xr:uid="{DCF401D0-619B-4B1D-9F75-3516F8617307}"/>
+    <hyperlink ref="H152" r:id="rId155" xr:uid="{DEDDFF23-3933-42F0-9518-2FAF8A263A9E}"/>
+    <hyperlink ref="H153" r:id="rId156" xr:uid="{F57F09F4-D989-4536-B279-2D732E58D25B}"/>
+    <hyperlink ref="H154" r:id="rId157" xr:uid="{269A2012-B9BA-4E0F-8BA6-3AA5E517E52B}"/>
+    <hyperlink ref="H155" r:id="rId158" xr:uid="{A15F2395-AA53-4BE3-B64A-F3FF78BB9F19}"/>
+    <hyperlink ref="H156" r:id="rId159" xr:uid="{B78D0391-7CFB-4D9F-820D-721857943576}"/>
+    <hyperlink ref="H157" r:id="rId160" xr:uid="{A8A153D1-D3B7-4FA4-847E-C4E7E773B5FC}"/>
+    <hyperlink ref="H158" r:id="rId161" xr:uid="{7B9C2C75-7613-4B52-9D70-1854160B5FAD}"/>
+    <hyperlink ref="H159" r:id="rId162" xr:uid="{C5E0FCC2-259F-4D8C-88B7-C279CFEE6394}"/>
+    <hyperlink ref="H160" r:id="rId163" xr:uid="{ADA07C57-DC3D-4DE1-9B12-C5DAE52A7C7B}"/>
+    <hyperlink ref="H161" r:id="rId164" xr:uid="{153D701F-ECA9-4290-8E8D-1F2CAD1B5621}"/>
+    <hyperlink ref="H162" r:id="rId165" xr:uid="{EF7851B8-399E-43D2-9C29-18BE3AC6B478}"/>
+    <hyperlink ref="H163" r:id="rId166" xr:uid="{105895EC-7404-4725-A2F3-166DAFEC800F}"/>
+    <hyperlink ref="H164" r:id="rId167" xr:uid="{38A0FAF4-3698-4827-A81C-8A5C4A12C366}"/>
+    <hyperlink ref="H165" r:id="rId168" xr:uid="{9D1E0FD5-9556-42E2-A019-4BF1162E7A8A}"/>
+    <hyperlink ref="H166" r:id="rId169" xr:uid="{9EFEACA2-531E-4B95-84C9-68353E67AC0D}"/>
+    <hyperlink ref="H167" r:id="rId170" xr:uid="{24C7CA6D-7F33-4653-92C8-302CBA24CE18}"/>
+    <hyperlink ref="H168" r:id="rId171" xr:uid="{96E209EF-5DEE-4DD2-909F-601551889D47}"/>
+    <hyperlink ref="H169" r:id="rId172" xr:uid="{F4E5917C-F103-4AD9-B2D7-55EA95384393}"/>
+    <hyperlink ref="H170" r:id="rId173" xr:uid="{B1C63C22-BAED-47B8-95DF-23F60FACC946}"/>
+    <hyperlink ref="H171" r:id="rId174" xr:uid="{FBF814C6-6628-4CBD-AD24-E68A92287D4C}"/>
+    <hyperlink ref="H172" r:id="rId175" xr:uid="{26D0A67A-43D5-4E96-99E6-5AA973186F48}"/>
+    <hyperlink ref="H173" r:id="rId176" xr:uid="{F1C62D18-685B-4DC9-AA11-E0450E934F65}"/>
+    <hyperlink ref="H174" r:id="rId177" xr:uid="{57C49B43-9593-49E6-8609-D81968D8D63E}"/>
+    <hyperlink ref="H175" r:id="rId178" xr:uid="{07072FD1-1257-438B-B167-30CCD40B13C7}"/>
+    <hyperlink ref="H176" r:id="rId179" xr:uid="{F9EED19D-4826-4977-BCB5-F94621A28F4C}"/>
+    <hyperlink ref="H177" r:id="rId180" xr:uid="{438D29BC-CCC3-45F4-A226-91E9AB72A8D4}"/>
+    <hyperlink ref="H178" r:id="rId181" xr:uid="{B95BEFB3-7081-4D7E-98DA-52A77AA5AB5A}"/>
+    <hyperlink ref="H179" r:id="rId182" xr:uid="{6088BC1F-7DDA-45FE-8AD4-1BE9568DA857}"/>
+    <hyperlink ref="H180" r:id="rId183" xr:uid="{B07B2B03-4913-4742-AB4F-F743654F1462}"/>
+    <hyperlink ref="H181" r:id="rId184" xr:uid="{C340C543-7348-4208-BD85-0FD72E4882C7}"/>
+    <hyperlink ref="H182" r:id="rId185" xr:uid="{B437D58A-D739-45F1-9A8F-834722D132E0}"/>
+    <hyperlink ref="H183" r:id="rId186" xr:uid="{FFA934EB-E53A-4AE8-BEB3-62FEA09D2808}"/>
+    <hyperlink ref="H184" r:id="rId187" xr:uid="{0C27E17E-2FC8-491A-8976-B0484F043A73}"/>
+    <hyperlink ref="H185" r:id="rId188" xr:uid="{8023ED93-6C5B-47C5-AA2A-C34CA8209B63}"/>
+    <hyperlink ref="H186" r:id="rId189" xr:uid="{98A739EE-2202-462F-911F-0D7F765D47E7}"/>
+    <hyperlink ref="H187" r:id="rId190" xr:uid="{136980E3-18AA-499E-8D19-59791E3417A9}"/>
+    <hyperlink ref="H188" r:id="rId191" xr:uid="{E3C97F62-40C5-4556-81FB-F98DB0EFE91A}"/>
+    <hyperlink ref="H189" r:id="rId192" xr:uid="{8DF00300-AA2D-4B78-B314-74ED04942689}"/>
+    <hyperlink ref="H190" r:id="rId193" xr:uid="{F7DDA9BA-3BD7-4D99-8A3E-E5CBFD49323B}"/>
+    <hyperlink ref="H191" r:id="rId194" xr:uid="{B548093E-8C31-4425-8D97-5F3A93810FFF}"/>
+    <hyperlink ref="H192" r:id="rId195" xr:uid="{D7AB6EEF-0018-42BD-BC98-976EAD742A24}"/>
+    <hyperlink ref="H193" r:id="rId196" xr:uid="{FE203597-443E-4DCA-B29D-1A143D5C256E}"/>
+    <hyperlink ref="H194" r:id="rId197" xr:uid="{03BEEA9A-9ECA-4140-A78A-57FC91289B61}"/>
+    <hyperlink ref="H195" r:id="rId198" xr:uid="{91ECEB38-970D-4500-B744-D69F59FA962D}"/>
+    <hyperlink ref="H196" r:id="rId199" xr:uid="{F3649B4B-CF4E-4877-8822-7DAFEF05FA6E}"/>
+    <hyperlink ref="H197" r:id="rId200" xr:uid="{DAD70EC6-5D09-4FD5-BF42-1CAEA48D57E1}"/>
+    <hyperlink ref="H198" r:id="rId201" xr:uid="{0740467E-1A91-4EA7-85CF-6697D9DE5015}"/>
+    <hyperlink ref="H199" r:id="rId202" xr:uid="{31BCB7D6-736F-4AB9-A4D5-BFC5A5D3746D}"/>
+    <hyperlink ref="H200" r:id="rId203" xr:uid="{8E28BB03-8E9F-4D61-BCC0-4986407C6C7D}"/>
+    <hyperlink ref="H201" r:id="rId204" xr:uid="{B5422432-32D1-4A14-AC4C-C8BB74F16626}"/>
+    <hyperlink ref="H202" r:id="rId205" xr:uid="{0CCC38E0-FB3B-469E-8A9B-197B77E0FF47}"/>
+    <hyperlink ref="H203" r:id="rId206" xr:uid="{FB3356E5-4C42-4EA5-9226-AB6E8C2EB804}"/>
+    <hyperlink ref="H204" r:id="rId207" xr:uid="{C64EF2E4-98CF-4870-B8EE-A9A09318BE56}"/>
+    <hyperlink ref="H205" r:id="rId208" xr:uid="{2709724A-DB3D-4EA1-830F-C5EE540DCB4C}"/>
+    <hyperlink ref="H206" r:id="rId209" xr:uid="{11322A12-2DBC-4B48-A263-C778D0CE67E5}"/>
+    <hyperlink ref="H207" r:id="rId210" xr:uid="{FC7E054A-CA83-4342-AE9E-22CA0F9CEF3E}"/>
+    <hyperlink ref="H208" r:id="rId211" xr:uid="{0342184B-BECD-4E23-8CD9-23AC00AEDBBD}"/>
+    <hyperlink ref="H209" r:id="rId212" xr:uid="{453503BD-D595-42EF-86CD-1A7FC602743F}"/>
+    <hyperlink ref="H210" r:id="rId213" xr:uid="{0519453D-A4D4-43DE-B220-664B5828B954}"/>
+    <hyperlink ref="H211" r:id="rId214" xr:uid="{2BC05356-72D4-42C9-9048-5711038940DF}"/>
+    <hyperlink ref="H212" r:id="rId215" xr:uid="{9B062760-8DA9-4722-B97D-00333F48E400}"/>
+    <hyperlink ref="H213" r:id="rId216" xr:uid="{960A4061-E544-4000-B071-0C0C864140C4}"/>
+    <hyperlink ref="H214" r:id="rId217" xr:uid="{7448CA0D-AFD6-4CB4-B744-F28174BCB483}"/>
+    <hyperlink ref="H215" r:id="rId218" xr:uid="{D29F74FE-D18C-4472-931B-708F1CBC4ABE}"/>
+    <hyperlink ref="H216" r:id="rId219" xr:uid="{F03D5642-A337-4673-90A3-E8E6C7911680}"/>
+    <hyperlink ref="H217" r:id="rId220" xr:uid="{5EF5FC12-85E5-4AA8-A5CF-5E13CC69C468}"/>
+    <hyperlink ref="H218" r:id="rId221" xr:uid="{0F8EED46-FEB5-43CA-9AFE-CBB6C953910C}"/>
+    <hyperlink ref="H219" r:id="rId222" xr:uid="{7C31D411-27EE-4689-9F62-5CC274421F22}"/>
+    <hyperlink ref="H220" r:id="rId223" xr:uid="{D5DD1B09-C39A-4BCF-987B-1B843B513B08}"/>
+    <hyperlink ref="H221" r:id="rId224" xr:uid="{B8B25E91-965A-4795-848B-D11C11B60D4B}"/>
+    <hyperlink ref="H222" r:id="rId225" xr:uid="{DE10E095-EB3E-4F84-BDC6-8E4D3C5E6DB9}"/>
+    <hyperlink ref="H223" r:id="rId226" xr:uid="{35F9C78F-B955-43F7-9B19-986946ED8921}"/>
+    <hyperlink ref="H224" r:id="rId227" xr:uid="{FCEC3AF7-5369-4D0F-A2EF-778DAD1DF423}"/>
+    <hyperlink ref="H225" r:id="rId228" xr:uid="{59905C8E-3E55-4B31-AC60-976FAEE4C333}"/>
+    <hyperlink ref="H226" r:id="rId229" xr:uid="{5FF39F91-FD04-45E9-86A2-E1285FE95F5D}"/>
+    <hyperlink ref="H227" r:id="rId230" xr:uid="{D6FD189B-86CB-4880-9885-ED03CC845A61}"/>
+    <hyperlink ref="H228" r:id="rId231" xr:uid="{1EC9FC5B-9A5E-4F9F-9F45-90864615FECF}"/>
+    <hyperlink ref="H229" r:id="rId232" xr:uid="{F8E424C8-9E4C-4A2C-BF43-03DC19CC1E7F}"/>
+    <hyperlink ref="H230" r:id="rId233" xr:uid="{BB095D91-049D-4EF2-AE7D-A9F92E0360D1}"/>
+    <hyperlink ref="H231" r:id="rId234" xr:uid="{74A478A7-9608-4404-B119-4F30B19D9003}"/>
+    <hyperlink ref="H232" r:id="rId235" xr:uid="{00A6E37A-863A-48BB-BA4A-B5FF67650913}"/>
+    <hyperlink ref="H233" r:id="rId236" xr:uid="{0031CE55-85C4-4604-9697-1F4BC73A8A32}"/>
+    <hyperlink ref="H234" r:id="rId237" xr:uid="{2B8EE533-A1F9-43A0-AF53-61A06BB3906B}"/>
+    <hyperlink ref="H235" r:id="rId238" xr:uid="{FED8AD79-3143-427C-8DF0-02F57B93D7C0}"/>
+    <hyperlink ref="H236" r:id="rId239" xr:uid="{CFF04775-5089-4E80-9A2B-434C69F329C5}"/>
+    <hyperlink ref="H237" r:id="rId240" xr:uid="{F04D26DD-0A58-4269-A0B6-20E6C57C4203}"/>
+    <hyperlink ref="H238" r:id="rId241" xr:uid="{41C78204-8044-47FD-91AC-6066FDD48F0D}"/>
+    <hyperlink ref="H239" r:id="rId242" xr:uid="{47696053-EEB9-46A5-A56B-4769B4365EFA}"/>
+    <hyperlink ref="H240" r:id="rId243" xr:uid="{D0523649-6F5B-47E5-82F1-03F7C4FB48E6}"/>
+    <hyperlink ref="H241" r:id="rId244" xr:uid="{F56C4815-6E1A-40D3-B4CA-43D6E49718CE}"/>
+    <hyperlink ref="H242" r:id="rId245" xr:uid="{D84C0EF7-1A57-4618-98E3-A2B12A3EFC99}"/>
+    <hyperlink ref="H243" r:id="rId246" xr:uid="{A5EDB9E1-5419-4C9D-9E59-A74720F1DE38}"/>
+    <hyperlink ref="H244" r:id="rId247" xr:uid="{8E9B652A-B5BE-4272-A014-F6E3C80F775E}"/>
+    <hyperlink ref="H245" r:id="rId248" xr:uid="{489B8261-5BB8-47F2-9096-BC3DC414717C}"/>
+    <hyperlink ref="H246" r:id="rId249" xr:uid="{8E6DA385-4DC8-4660-A597-E9BC985B7F24}"/>
+    <hyperlink ref="H247" r:id="rId250" xr:uid="{85D9BDA1-0CA3-4DB1-A77D-413E77C54526}"/>
+    <hyperlink ref="H248" r:id="rId251" xr:uid="{58D407FA-E558-470B-88DF-D9366EF11260}"/>
+    <hyperlink ref="H249" r:id="rId252" xr:uid="{070CE895-2735-4998-B6E6-4B48E44E96A1}"/>
+    <hyperlink ref="H250" r:id="rId253" xr:uid="{EE90010B-2A5D-41EA-9B70-585193604F27}"/>
+    <hyperlink ref="H251" r:id="rId254" xr:uid="{C0CDA13F-8EFE-41A5-9F45-4AE66ECD96F6}"/>
+    <hyperlink ref="H252" r:id="rId255" xr:uid="{F377A83F-BE86-4F80-9CD6-6E150CDD18E7}"/>
+    <hyperlink ref="H253" r:id="rId256" xr:uid="{5B08E288-B38B-44A9-A1F8-4E9E906F2AB9}"/>
+    <hyperlink ref="H254" r:id="rId257" xr:uid="{CC407FF4-9950-49D4-87AF-6C50E748CD10}"/>
+    <hyperlink ref="H255" r:id="rId258" xr:uid="{8A4D8A3B-F227-45C1-A38C-D9818C9EEC0B}"/>
+    <hyperlink ref="H256" r:id="rId259" xr:uid="{AC9E4DCA-9CF1-4075-A150-4CEE6D5517AF}"/>
+    <hyperlink ref="H257" r:id="rId260" xr:uid="{E8A3298D-49FB-431E-9FC7-9483F61FED10}"/>
+    <hyperlink ref="H258" r:id="rId261" xr:uid="{A22642F1-0677-4DA5-ACEB-22D6CF7E2408}"/>
+    <hyperlink ref="H259" r:id="rId262" xr:uid="{2CC478A1-DC5B-40F7-9BFD-08804FB380D3}"/>
+    <hyperlink ref="H260" r:id="rId263" xr:uid="{F61FB337-4B22-4026-9C4E-BB2E103E6E11}"/>
+    <hyperlink ref="H261" r:id="rId264" xr:uid="{1E897899-7528-4D13-BE4B-8AB69456F88B}"/>
+    <hyperlink ref="H262" r:id="rId265" xr:uid="{CDECCB26-A471-47B8-A318-2215846DD5D9}"/>
+    <hyperlink ref="H263" r:id="rId266" xr:uid="{27632D36-FF7D-47B6-B975-79707A5F6F66}"/>
+    <hyperlink ref="H264" r:id="rId267" xr:uid="{128B85DA-5CCF-4329-982E-930F16705B64}"/>
+    <hyperlink ref="H265" r:id="rId268" xr:uid="{B69B6E62-AE50-4913-9CA0-C36A9243A310}"/>
+    <hyperlink ref="H266" r:id="rId269" xr:uid="{C8981D20-F3A5-4617-A471-61FED36575C6}"/>
+    <hyperlink ref="H267" r:id="rId270" xr:uid="{541FBFE8-37AD-4ACB-9B2C-99BF5F9937ED}"/>
+    <hyperlink ref="H268" r:id="rId271" xr:uid="{59296C86-5CED-438E-8357-DA8822E7B70A}"/>
+    <hyperlink ref="H269" r:id="rId272" xr:uid="{FF2A5388-C8B1-4770-A606-8C0FA563EB56}"/>
+    <hyperlink ref="H270" r:id="rId273" xr:uid="{07C7C046-4A76-47F9-A0E0-98E5284118DB}"/>
+    <hyperlink ref="H271" r:id="rId274" xr:uid="{8261FCBB-0E56-4FA8-9A09-AF7B6B0153B5}"/>
+    <hyperlink ref="H272" r:id="rId275" xr:uid="{E6C656F9-9E41-4233-9429-A02504F271DC}"/>
+    <hyperlink ref="H273" r:id="rId276" xr:uid="{23D55D31-E5E4-4277-A0B0-2092E8FF79B8}"/>
+    <hyperlink ref="H274" r:id="rId277" xr:uid="{2173169C-0617-4EDB-89CE-59866CE28642}"/>
+    <hyperlink ref="H275" r:id="rId278" xr:uid="{159E41D3-0A2A-40C6-9CB2-F6013D76C15C}"/>
+    <hyperlink ref="H276" r:id="rId279" xr:uid="{4BA9E931-8E2D-4FB6-B119-C37B53D98018}"/>
+    <hyperlink ref="H277" r:id="rId280" xr:uid="{77A15ACE-1A84-43D4-A73D-B19E33A5055F}"/>
+    <hyperlink ref="H278" r:id="rId281" xr:uid="{58C2B747-1E7D-4485-ADBF-C5C6E10B0B9D}"/>
+    <hyperlink ref="H279" r:id="rId282" xr:uid="{690E37F6-31ED-4706-8F32-9781986AF882}"/>
+    <hyperlink ref="H280" r:id="rId283" xr:uid="{F2F21096-D394-4B04-B2C8-88361681078D}"/>
+    <hyperlink ref="H281" r:id="rId284" xr:uid="{0FDA9134-4DA0-4482-865A-A28CCE3B147B}"/>
+    <hyperlink ref="H282" r:id="rId285" xr:uid="{B9903B9D-2460-4B6D-B31F-A6C5592CE4E1}"/>
+    <hyperlink ref="H283" r:id="rId286" xr:uid="{19D60A6E-758A-447D-8846-AF7684D521D2}"/>
+    <hyperlink ref="H284" r:id="rId287" xr:uid="{809ABECD-3C65-47F1-B3B7-A5D5A3C29C45}"/>
+    <hyperlink ref="H285" r:id="rId288" xr:uid="{5B6934BD-2312-4223-84BA-FCFCCEB901C1}"/>
+    <hyperlink ref="H286" r:id="rId289" xr:uid="{370E90B9-70FF-4B36-9D42-1252327D1992}"/>
+    <hyperlink ref="H287" r:id="rId290" xr:uid="{5A84C65C-0B11-44A3-AF54-90C7D5731C55}"/>
+    <hyperlink ref="H288" r:id="rId291" xr:uid="{BBEDAC47-CB8C-4B14-B9ED-FF392E17E5C1}"/>
+    <hyperlink ref="H289" r:id="rId292" xr:uid="{075C8D11-0A82-4BE5-A684-00E2E5E80A3B}"/>
+    <hyperlink ref="H290" r:id="rId293" xr:uid="{096B4E1A-E1D2-418B-89CF-DB613CD6DB1A}"/>
+    <hyperlink ref="H291" r:id="rId294" xr:uid="{1611CB0B-42DF-4CC5-8F94-85C3614CA0D4}"/>
+    <hyperlink ref="H292" r:id="rId295" xr:uid="{84A9BE5C-A1D2-48E7-BCEB-07BD26AD2C4B}"/>
+    <hyperlink ref="H293" r:id="rId296" xr:uid="{3DA850CD-AEB3-45B5-86AC-83FA08476908}"/>
+    <hyperlink ref="H294" r:id="rId297" xr:uid="{0162A098-24D3-4158-B14D-F3DE1CA9C0AD}"/>
+    <hyperlink ref="H295" r:id="rId298" xr:uid="{F30D6B72-7CDA-422C-BDBB-5E758AE9E044}"/>
+    <hyperlink ref="H296" r:id="rId299" xr:uid="{10DE53DD-AD00-4F2A-B5DE-C9A6BDC1F112}"/>
+    <hyperlink ref="H297" r:id="rId300" xr:uid="{ADEEBAE7-EE15-40FB-BEC3-0CC8DF129783}"/>
+    <hyperlink ref="H298" r:id="rId301" xr:uid="{C134AC69-F4C2-422C-BFA5-3CFA28E35609}"/>
+    <hyperlink ref="H299" r:id="rId302" xr:uid="{5B6F42CA-407A-47C7-88DF-1D9F363D0EB1}"/>
+    <hyperlink ref="H300" r:id="rId303" xr:uid="{24FC4A7E-BC3F-4C34-A076-3890CC14EA6E}"/>
+    <hyperlink ref="H301" r:id="rId304" xr:uid="{C5E0CC38-5F35-47FD-BCE3-649C8E2325D8}"/>
+    <hyperlink ref="H302" r:id="rId305" xr:uid="{B5B69590-BAD1-4571-B279-811FF5CE6BC0}"/>
+    <hyperlink ref="H303" r:id="rId306" xr:uid="{6BD4C906-E971-4047-B03A-7FACFE7C7A32}"/>
+    <hyperlink ref="H304" r:id="rId307" xr:uid="{FEF90491-1515-4D4D-89C8-7D222B926800}"/>
+    <hyperlink ref="G22" r:id="rId308" xr:uid="{E4BA1929-A268-4232-8551-2211F6772169}"/>
+    <hyperlink ref="G23" r:id="rId309" xr:uid="{439F7FF8-39F6-47C5-9C45-E94837EC44C8}"/>
+    <hyperlink ref="G24" r:id="rId310" xr:uid="{ADD3E1AD-822A-4F22-9147-38D9E8D8881E}"/>
+    <hyperlink ref="G25" r:id="rId311" xr:uid="{49AFD498-8025-4F3D-9502-35F80AF5F576}"/>
+    <hyperlink ref="G26" r:id="rId312" xr:uid="{C3DE7296-5F28-4010-9162-98D80E5A67C8}"/>
+    <hyperlink ref="G27" r:id="rId313" xr:uid="{6545DF11-AD42-440D-B22B-47EE9F5EE3E4}"/>
+    <hyperlink ref="G28" r:id="rId314" xr:uid="{EE55A053-B627-4EAF-95DD-5008F9B5F407}"/>
+    <hyperlink ref="G29" r:id="rId315" xr:uid="{069C8E5D-CA9B-4986-8CB5-2643E0E04D01}"/>
+    <hyperlink ref="G30" r:id="rId316" xr:uid="{9639B90C-5F05-4C92-B26B-A84E5637AC76}"/>
+    <hyperlink ref="G31" r:id="rId317" xr:uid="{B70A3592-390B-4B87-8411-32017035096C}"/>
+    <hyperlink ref="G32" r:id="rId318" xr:uid="{E6434969-8D68-40CA-82A9-1F2872F3F090}"/>
+    <hyperlink ref="G33" r:id="rId319" xr:uid="{7D0129C9-98B5-41A2-8FFF-DCF81B696C0D}"/>
+    <hyperlink ref="G34" r:id="rId320" xr:uid="{35D06139-7D6D-4E20-8BE2-75C1D7EFD737}"/>
+    <hyperlink ref="G35" r:id="rId321" xr:uid="{108AEF0E-8F7D-4CD9-A11E-B6722B6CCA00}"/>
+    <hyperlink ref="G36" r:id="rId322" xr:uid="{2FE89795-8AA1-40CC-AA43-5AD861392EC8}"/>
+    <hyperlink ref="G37" r:id="rId323" xr:uid="{F7AB1F40-9707-4845-829F-A8775FFC9D1F}"/>
+    <hyperlink ref="G38" r:id="rId324" xr:uid="{F63D1F87-999C-4BC5-BF12-01B6B0DCDE35}"/>
+    <hyperlink ref="G39" r:id="rId325" xr:uid="{6EEFA3FE-1F15-4141-941C-36391476473C}"/>
+    <hyperlink ref="G40" r:id="rId326" xr:uid="{0D6C1B58-8D1A-46F7-8748-C7E3E30BC973}"/>
+    <hyperlink ref="G41" r:id="rId327" xr:uid="{2E74D8B3-3120-4206-B59D-68CC2BAEF058}"/>
+    <hyperlink ref="G42" r:id="rId328" xr:uid="{30F8C1D2-5A7F-4F8A-AB22-F00A3FF93862}"/>
+    <hyperlink ref="G43" r:id="rId329" xr:uid="{97841871-C43D-460A-861A-E813575715C9}"/>
+    <hyperlink ref="G44" r:id="rId330" xr:uid="{3A6C7B44-DD83-49B1-A0AF-85DF18F3441D}"/>
+    <hyperlink ref="G45" r:id="rId331" xr:uid="{FE4DF600-3725-49EA-9186-559ED78091F9}"/>
+    <hyperlink ref="G46" r:id="rId332" xr:uid="{C0F017A9-56DC-4659-97CF-76564773A37E}"/>
+    <hyperlink ref="G47" r:id="rId333" xr:uid="{2FAA9A59-ECAC-466A-867A-14E9AB3A1752}"/>
+    <hyperlink ref="G48" r:id="rId334" xr:uid="{EF26E2E5-08D5-45AF-BD2F-5D99BBFF7F72}"/>
+    <hyperlink ref="G49" r:id="rId335" xr:uid="{4AB442D4-1C55-4C1F-A4F2-158FAF82C3F0}"/>
+    <hyperlink ref="G50" r:id="rId336" xr:uid="{04800902-F01E-4B94-831C-045937683F1C}"/>
+    <hyperlink ref="G51" r:id="rId337" xr:uid="{56C502B1-19A8-4B60-B6DF-A2E8CE897B93}"/>
+    <hyperlink ref="G52" r:id="rId338" xr:uid="{89E2185E-DF12-4F6E-ACAF-3CC8C79C804A}"/>
+    <hyperlink ref="G53" r:id="rId339" xr:uid="{4705D324-E8A1-45F9-A2C9-2D571D892C48}"/>
+    <hyperlink ref="G54" r:id="rId340" xr:uid="{E531A9B2-32FA-4FCA-A612-8E01E753F321}"/>
+    <hyperlink ref="G55" r:id="rId341" xr:uid="{09E82BB1-36C7-4B11-AC9B-22E57C1C93B2}"/>
+    <hyperlink ref="G56" r:id="rId342" xr:uid="{5ED3F35B-34A0-4D31-AADD-D4EA635CA45C}"/>
+    <hyperlink ref="G57" r:id="rId343" xr:uid="{9F5BFAFA-97DA-4817-8875-2D8623D7F1CB}"/>
+    <hyperlink ref="G58" r:id="rId344" xr:uid="{DFC6726A-86A0-46F4-AD1D-984AA5C3CD37}"/>
+    <hyperlink ref="G59" r:id="rId345" xr:uid="{3E87AF72-9352-44D5-B0B3-5A676E1A90E3}"/>
+    <hyperlink ref="G60" r:id="rId346" xr:uid="{429C5E79-DF6D-4A83-ABEA-EF8D9A27E26F}"/>
+    <hyperlink ref="G61" r:id="rId347" xr:uid="{E7DE27CB-FABF-4BE8-BB66-E164CA7634E0}"/>
+    <hyperlink ref="G62" r:id="rId348" xr:uid="{F2D0F314-9CD1-44D0-B27D-C3DEDC65F269}"/>
+    <hyperlink ref="G63" r:id="rId349" xr:uid="{D6D08A28-57FA-4D86-B95E-52DDD3FF33DB}"/>
+    <hyperlink ref="G64" r:id="rId350" xr:uid="{087924FB-6523-4AB7-B276-8C8E97D0BEF9}"/>
+    <hyperlink ref="G65" r:id="rId351" xr:uid="{3CCCD2B1-374E-41D3-8CA8-178B877AEC19}"/>
+    <hyperlink ref="G66" r:id="rId352" xr:uid="{0FEA2942-E556-41BC-857A-B65AE98EAE85}"/>
+    <hyperlink ref="G67" r:id="rId353" xr:uid="{B79A0DA0-3321-4303-A90A-017D5A214C48}"/>
+    <hyperlink ref="G68" r:id="rId354" xr:uid="{114F3928-896E-4AA4-A4F6-7CF31FDF17A5}"/>
+    <hyperlink ref="G69" r:id="rId355" xr:uid="{DD36FBBE-2149-42AA-88E9-5B2CD7FD58A6}"/>
+    <hyperlink ref="G70" r:id="rId356" xr:uid="{A075F19C-CFE8-45B9-B10E-CEBD5D1675A1}"/>
+    <hyperlink ref="G71" r:id="rId357" xr:uid="{B1252532-5E75-47A4-85E4-A32D9B32848F}"/>
+    <hyperlink ref="G72" r:id="rId358" xr:uid="{855B48A0-6572-46BF-8155-1E49FF12213C}"/>
+    <hyperlink ref="G73" r:id="rId359" xr:uid="{1BECF249-E5B1-48B1-B28F-4C5B059B0118}"/>
+    <hyperlink ref="G74" r:id="rId360" xr:uid="{EE58E1B3-65B0-4640-9116-87C9187E8778}"/>
+    <hyperlink ref="G75" r:id="rId361" xr:uid="{70EEDBDA-72F9-4951-BFEE-848BBCD6F87F}"/>
+    <hyperlink ref="G76" r:id="rId362" xr:uid="{7EA7DF62-A321-4BF3-A5F2-D8F0C71BF194}"/>
+    <hyperlink ref="G77" r:id="rId363" xr:uid="{554E37E3-1CE4-49E4-B240-5390A0EB81E2}"/>
+    <hyperlink ref="G78" r:id="rId364" xr:uid="{1F51BFA5-D34B-4E29-9835-62E8BFA2954B}"/>
+    <hyperlink ref="G79" r:id="rId365" xr:uid="{6727A066-FF29-4CF6-80BB-E3474C476E92}"/>
+    <hyperlink ref="G80" r:id="rId366" xr:uid="{4EDF11A0-DA00-4B83-A4E1-AABFE8D53F76}"/>
+    <hyperlink ref="G81" r:id="rId367" xr:uid="{0FF18B2D-9411-42A4-8C61-5E90E6FF9C9F}"/>
+    <hyperlink ref="G82" r:id="rId368" xr:uid="{EBB92B39-5463-4A47-8B9A-140864E5F0C8}"/>
+    <hyperlink ref="G83" r:id="rId369" xr:uid="{F88A49A3-2437-4904-B3DC-977B99813FB0}"/>
+    <hyperlink ref="G84" r:id="rId370" xr:uid="{7F009BCE-D982-4020-87B1-085764870770}"/>
+    <hyperlink ref="G85" r:id="rId371" xr:uid="{47ACF693-428B-4178-9979-CFB89FC2CF56}"/>
+    <hyperlink ref="G86" r:id="rId372" xr:uid="{A0F9C9A5-BE41-4AEA-A6E2-8A08DFFC35CE}"/>
+    <hyperlink ref="G87" r:id="rId373" xr:uid="{BD47C5E9-B3F9-49D2-8E5D-F2E23F96ABFB}"/>
+    <hyperlink ref="G88" r:id="rId374" xr:uid="{8F913A0B-6C54-46AB-B986-86F392802880}"/>
+    <hyperlink ref="G89" r:id="rId375" xr:uid="{8F6B1493-D051-4A0F-9D21-4BE387B12137}"/>
+    <hyperlink ref="G90" r:id="rId376" xr:uid="{6C9FE113-3122-4A01-8E82-627FA0F658D2}"/>
+    <hyperlink ref="G91" r:id="rId377" xr:uid="{2F948E0E-48CD-45FF-827C-7DE5910A354E}"/>
+    <hyperlink ref="G92" r:id="rId378" xr:uid="{060676D9-082D-4812-B64B-9E7A39770777}"/>
+    <hyperlink ref="G93" r:id="rId379" xr:uid="{9A7892BD-B4C4-4C32-B887-8C5AD8929A4F}"/>
+    <hyperlink ref="G94" r:id="rId380" xr:uid="{A43A13FC-BD04-401B-BDD4-805D17DCF5F3}"/>
+    <hyperlink ref="G95" r:id="rId381" xr:uid="{4947CD3F-1EB3-4031-8317-F9485D0A5225}"/>
+    <hyperlink ref="G96" r:id="rId382" xr:uid="{1297FB2A-A4B5-46BD-8B5F-BC496ACC1B9B}"/>
+    <hyperlink ref="G97" r:id="rId383" xr:uid="{2B6EB514-68FD-42D1-A63D-BB8D0BC53AD0}"/>
+    <hyperlink ref="G98" r:id="rId384" xr:uid="{60A7BDE1-9DC9-482C-8759-DD1B642810A1}"/>
+    <hyperlink ref="G99" r:id="rId385" xr:uid="{9F4F91D6-30A3-4E59-B91A-B6D8DEC7CF89}"/>
+    <hyperlink ref="G100" r:id="rId386" xr:uid="{E93CB69D-B138-4B58-9E7D-55FCB610C6A4}"/>
+    <hyperlink ref="G101" r:id="rId387" xr:uid="{6D71D82C-B5BB-4804-9E17-13349F9D14D0}"/>
+    <hyperlink ref="G102" r:id="rId388" xr:uid="{617A5BA1-DF54-4F93-96D0-1C099008B279}"/>
+    <hyperlink ref="G103" r:id="rId389" xr:uid="{71CEB48C-A64C-4398-9A27-C8BBAD91C4B4}"/>
+    <hyperlink ref="G104" r:id="rId390" xr:uid="{44C49350-1A55-4B77-8AB0-308944F7CA63}"/>
+    <hyperlink ref="G105" r:id="rId391" xr:uid="{65B8BCA0-09EF-4542-9AA0-4A173418C867}"/>
+    <hyperlink ref="G106" r:id="rId392" xr:uid="{EFC73B84-00DF-48E6-97A9-0ECB68DC12B8}"/>
+    <hyperlink ref="G107" r:id="rId393" xr:uid="{F66232D1-1774-4F8F-9E76-2933A3EF6C96}"/>
+    <hyperlink ref="G108" r:id="rId394" xr:uid="{B6C980EA-8CDD-4E85-B397-53015CF7E5AE}"/>
+    <hyperlink ref="G109" r:id="rId395" xr:uid="{AB5B706D-2295-4170-8EAC-A2C476D152E6}"/>
+    <hyperlink ref="G110" r:id="rId396" xr:uid="{B70763DF-3059-4047-B80E-FE9A3759377F}"/>
+    <hyperlink ref="G111" r:id="rId397" xr:uid="{1CC2B92C-2EA7-43D4-B254-B086423627B1}"/>
+    <hyperlink ref="G112" r:id="rId398" xr:uid="{EA755003-991C-4C24-91E5-6E33CCD956E7}"/>
+    <hyperlink ref="G113" r:id="rId399" xr:uid="{2C94563F-5946-4BCE-8A8F-FBAC193FDBF8}"/>
+    <hyperlink ref="G114" r:id="rId400" xr:uid="{244E461F-4197-4D51-9A3B-4D68C0869BDB}"/>
+    <hyperlink ref="G115" r:id="rId401" xr:uid="{1B6ADA1C-9CA3-4DF0-81A2-939F7DED43A0}"/>
+    <hyperlink ref="G116" r:id="rId402" xr:uid="{8E83EB9B-04B6-4214-9BC7-C947B88162B8}"/>
+    <hyperlink ref="G117" r:id="rId403" xr:uid="{87B6FAAA-5434-48B9-82F5-D72ADA45B743}"/>
+    <hyperlink ref="G118" r:id="rId404" xr:uid="{E203104B-715E-4F07-ABD7-A1A58AA1211D}"/>
+    <hyperlink ref="G119" r:id="rId405" xr:uid="{343242A3-9AC4-41B3-A54D-72A99D4DE62C}"/>
+    <hyperlink ref="G120" r:id="rId406" xr:uid="{CB193C69-67EC-4718-8D80-9C089F9AD6DB}"/>
+    <hyperlink ref="G121" r:id="rId407" xr:uid="{031DFBC5-055A-4E4A-95EC-0010AA3D8FC1}"/>
+    <hyperlink ref="G122" r:id="rId408" xr:uid="{D9B520C2-C68E-4B48-B165-2E36E7A51875}"/>
+    <hyperlink ref="G123" r:id="rId409" xr:uid="{B38D4E21-8F69-4E92-8B27-964598416276}"/>
+    <hyperlink ref="G124" r:id="rId410" xr:uid="{6EE86795-9472-4E8F-8FDE-0FC07360205B}"/>
+    <hyperlink ref="G125" r:id="rId411" xr:uid="{BFE9B95D-2B14-46A1-ACD5-61029498A06F}"/>
+    <hyperlink ref="G126" r:id="rId412" xr:uid="{1A4632AF-E8DB-4B78-9F12-D1303BE550BD}"/>
+    <hyperlink ref="G127" r:id="rId413" xr:uid="{A77BCCF6-B0CB-44B5-869D-CB33C015315D}"/>
+    <hyperlink ref="G128" r:id="rId414" xr:uid="{71B88DAB-87DB-405E-AC43-37178EEB592B}"/>
+    <hyperlink ref="G129" r:id="rId415" xr:uid="{405B77B3-96C3-470A-9FCB-68C44218565B}"/>
+    <hyperlink ref="G130" r:id="rId416" xr:uid="{0187418E-2E7B-4052-96F4-1FF5033DB853}"/>
+    <hyperlink ref="G131" r:id="rId417" xr:uid="{3B491494-D267-4F34-BC30-1E8B50F870E3}"/>
+    <hyperlink ref="G132" r:id="rId418" xr:uid="{90043136-38D5-4CFF-8A16-AB7690C06E58}"/>
+    <hyperlink ref="G133" r:id="rId419" xr:uid="{B738B4E8-05AA-49B6-B695-DA1688FD0E75}"/>
+    <hyperlink ref="G134" r:id="rId420" xr:uid="{52A9E1D2-1553-4107-A1EB-10964CFBF57A}"/>
+    <hyperlink ref="G135" r:id="rId421" xr:uid="{36D57B1F-7915-4CC5-A8FC-2559F8D50016}"/>
+    <hyperlink ref="G136" r:id="rId422" xr:uid="{8720D571-34AD-469E-B79C-0A0C538238F8}"/>
+    <hyperlink ref="G137" r:id="rId423" xr:uid="{FE6485BD-2846-4AC9-B1C0-DA2E206BCB7B}"/>
+    <hyperlink ref="G138" r:id="rId424" xr:uid="{0A7B1AAC-5591-4239-9A6B-6AAEE199B32B}"/>
+    <hyperlink ref="G139" r:id="rId425" xr:uid="{2364E738-0F35-47C9-A311-3169CABE2B7C}"/>
+    <hyperlink ref="G140" r:id="rId426" xr:uid="{4D0D3DB9-3D52-4D41-BF5C-7714CC520907}"/>
+    <hyperlink ref="G141" r:id="rId427" xr:uid="{F98494D8-549C-4EA7-BEBF-E169C287C46F}"/>
+    <hyperlink ref="G142" r:id="rId428" xr:uid="{C5ACA935-6CAC-47C0-9AAD-8E254E5EE31A}"/>
+    <hyperlink ref="G143" r:id="rId429" xr:uid="{C9C29E2A-47A3-4318-B836-4C421E1735F3}"/>
+    <hyperlink ref="G144" r:id="rId430" xr:uid="{7F138230-7F84-40A3-A7DF-D10FC80BD6EE}"/>
+    <hyperlink ref="G145" r:id="rId431" xr:uid="{060B7973-9818-48E2-811F-808E8E72F6AC}"/>
+    <hyperlink ref="G146" r:id="rId432" xr:uid="{43E4398D-36D6-47E8-B038-B20BE67B6BA3}"/>
+    <hyperlink ref="G147" r:id="rId433" xr:uid="{EDAC0C07-0FC4-418C-8AAF-D83FE270F714}"/>
+    <hyperlink ref="G148" r:id="rId434" xr:uid="{2065DCF8-58D8-4A7A-BA58-8BEDA7137A82}"/>
+    <hyperlink ref="G149" r:id="rId435" xr:uid="{3380D5A6-19C3-4D8F-8C03-73BB0B171B92}"/>
+    <hyperlink ref="G150" r:id="rId436" xr:uid="{FF5749C8-5488-4B91-BBB1-5D599648585C}"/>
+    <hyperlink ref="G151" r:id="rId437" xr:uid="{B0499648-F27D-4722-BD0A-34F6920A11DA}"/>
+    <hyperlink ref="G152" r:id="rId438" xr:uid="{29798D7A-8484-47D3-804F-3BC24A4264CE}"/>
+    <hyperlink ref="G153" r:id="rId439" xr:uid="{0A7DB3AF-F018-4AC5-9F79-D496004BA42F}"/>
+    <hyperlink ref="G154" r:id="rId440" xr:uid="{DD5E5A81-D9D7-4AA1-B7D0-D25A73C847A4}"/>
+    <hyperlink ref="G155" r:id="rId441" xr:uid="{F0249B03-780C-4F2B-B37B-994B1355BB65}"/>
+    <hyperlink ref="G156" r:id="rId442" xr:uid="{D01DCEF1-F3B8-4535-B1F1-284E8D297523}"/>
+    <hyperlink ref="G157" r:id="rId443" xr:uid="{EDD2E70D-AA2B-4093-8475-39A9778C9306}"/>
+    <hyperlink ref="G158" r:id="rId444" xr:uid="{D5C7CF6B-16E5-4038-8462-F13BF0EA6D97}"/>
+    <hyperlink ref="G159" r:id="rId445" xr:uid="{194F15B5-3D88-4840-BFD4-7DC84FA3972A}"/>
+    <hyperlink ref="G160" r:id="rId446" xr:uid="{266330BC-CA20-491A-822A-664103FBC93A}"/>
+    <hyperlink ref="G161" r:id="rId447" xr:uid="{98075AB8-3D28-496B-8655-05B1DD6C4D1A}"/>
+    <hyperlink ref="G162" r:id="rId448" xr:uid="{8B6693B2-494B-4C05-94FA-CF005B27A0E4}"/>
+    <hyperlink ref="G163" r:id="rId449" xr:uid="{BF29372A-EBBB-4670-9C79-5B8A85355C6C}"/>
+    <hyperlink ref="G164" r:id="rId450" xr:uid="{54E5CDA1-4FF1-44C1-A75A-7B9E2F962A10}"/>
+    <hyperlink ref="G165" r:id="rId451" xr:uid="{BB6BE0AE-B6CB-43B9-A781-46FAC1C20DE8}"/>
+    <hyperlink ref="G166" r:id="rId452" xr:uid="{CA92A515-298A-4D02-A9A0-E92F14100A00}"/>
+    <hyperlink ref="G167" r:id="rId453" xr:uid="{7465137D-1DA0-4DF6-A353-30EE7F3FBA5C}"/>
+    <hyperlink ref="G168" r:id="rId454" xr:uid="{92B93DE1-E448-42B4-A09A-4D609B9E6428}"/>
+    <hyperlink ref="G169" r:id="rId455" xr:uid="{AF2CD3B7-D0A3-4BED-9AA6-21F94A15D075}"/>
+    <hyperlink ref="G170" r:id="rId456" xr:uid="{8582F19D-63B1-4C3B-AABF-3B024A7CBACF}"/>
+    <hyperlink ref="G171" r:id="rId457" xr:uid="{D2E4B896-C244-4F0A-9385-554DCCEA3F53}"/>
+    <hyperlink ref="G172" r:id="rId458" xr:uid="{A9A04940-4E5E-46AF-AD1C-DE8F7605D538}"/>
+    <hyperlink ref="G173" r:id="rId459" xr:uid="{699D1C7D-2A0F-4281-A8A7-0D82410C2B1E}"/>
+    <hyperlink ref="G174" r:id="rId460" xr:uid="{E7994383-B660-4D49-A3FE-DF86F9E4149F}"/>
+    <hyperlink ref="G175" r:id="rId461" xr:uid="{327B7359-5B4B-460E-A6D4-09D0E7A1A8F4}"/>
+    <hyperlink ref="G176" r:id="rId462" xr:uid="{77AC6620-247C-4579-B4E6-75F055EE98ED}"/>
+    <hyperlink ref="G177" r:id="rId463" xr:uid="{01E47652-ED63-4E41-9BBD-45D21FCD95A3}"/>
+    <hyperlink ref="G178" r:id="rId464" xr:uid="{524EFCF1-5D71-4EA3-8D48-6D1DE8D92A54}"/>
+    <hyperlink ref="G179" r:id="rId465" xr:uid="{3E49CA93-624E-4AE8-A0AE-734FDCA44FE5}"/>
+    <hyperlink ref="G180" r:id="rId466" xr:uid="{879757BD-187D-4A23-B26E-7E2F4C8FBA74}"/>
+    <hyperlink ref="G181" r:id="rId467" xr:uid="{FCAB8BA9-35E8-4B1F-8CD1-6D30898FE53D}"/>
+    <hyperlink ref="G182" r:id="rId468" xr:uid="{8A537C51-0809-4D1C-A203-F2F7AB5EC216}"/>
+    <hyperlink ref="G183" r:id="rId469" xr:uid="{43E4838B-A1A7-419C-900C-27BB05C0AEBA}"/>
+    <hyperlink ref="G184" r:id="rId470" xr:uid="{074A305F-4F2D-4950-B063-CE912C33F7C1}"/>
+    <hyperlink ref="G185" r:id="rId471" xr:uid="{6C56DC99-E61F-4B57-A15E-9288C6D76DED}"/>
+    <hyperlink ref="G186" r:id="rId472" xr:uid="{CD01E883-F207-42C8-9668-3799D1772947}"/>
+    <hyperlink ref="G187" r:id="rId473" xr:uid="{0DC10F33-2D8B-4627-9619-4293A1E3837B}"/>
+    <hyperlink ref="G188" r:id="rId474" xr:uid="{B129F7D5-5937-4AE5-9B8A-7542105EE635}"/>
+    <hyperlink ref="G189" r:id="rId475" xr:uid="{59706F24-280C-4973-AD75-79D460309137}"/>
+    <hyperlink ref="G190" r:id="rId476" xr:uid="{74CF075D-DD3F-4EA3-8A32-C2E32FB87689}"/>
+    <hyperlink ref="G191" r:id="rId477" xr:uid="{972FB441-8F9F-481F-A096-A6F174C2BA4A}"/>
+    <hyperlink ref="G192" r:id="rId478" xr:uid="{9E601596-32CA-4DF9-A5B7-D9FE3090B394}"/>
+    <hyperlink ref="G193" r:id="rId479" xr:uid="{0A767A9E-6D2F-461F-B6FB-8F2E0A755DB2}"/>
+    <hyperlink ref="G194" r:id="rId480" xr:uid="{4D5C6A05-5CFF-4126-BB56-4B8D2ABB1C72}"/>
+    <hyperlink ref="G195" r:id="rId481" xr:uid="{5AB86451-4F3A-48C2-AE9E-E959617EA824}"/>
+    <hyperlink ref="G196" r:id="rId482" xr:uid="{AFAD5FD2-7952-4C94-93A2-9AF7C14A0094}"/>
+    <hyperlink ref="G197" r:id="rId483" xr:uid="{4F76BD24-814F-4D20-BB45-3A80F044D8D0}"/>
+    <hyperlink ref="G198" r:id="rId484" xr:uid="{261822F9-2666-404C-B362-6B3329191CA5}"/>
+    <hyperlink ref="G199" r:id="rId485" xr:uid="{EDE25371-AB09-4601-8BE2-2C00FE6F0BE6}"/>
+    <hyperlink ref="G200" r:id="rId486" xr:uid="{932B6B5F-F440-40AB-A229-9C639AD8397E}"/>
+    <hyperlink ref="G201" r:id="rId487" xr:uid="{EE4778CE-C2BF-4590-8C97-F5711DF45AC0}"/>
+    <hyperlink ref="G202" r:id="rId488" xr:uid="{DFA25772-B035-4294-94D0-EBFAFF4A35A5}"/>
+    <hyperlink ref="G203" r:id="rId489" xr:uid="{A7AD9569-294C-4632-BDE7-F14D930F5CDD}"/>
+    <hyperlink ref="G204" r:id="rId490" xr:uid="{64CEED2C-5E75-42D8-9D88-298286E94A9F}"/>
+    <hyperlink ref="G205" r:id="rId491" xr:uid="{3594AF1A-4D75-461A-876A-36D7E5918F43}"/>
+    <hyperlink ref="G206" r:id="rId492" xr:uid="{AE3EAAA7-91C1-4F93-B717-7C4C8D2A16F0}"/>
+    <hyperlink ref="G207" r:id="rId493" xr:uid="{E26803A6-A7E2-40F6-91AF-F57673BF27A7}"/>
+    <hyperlink ref="G208" r:id="rId494" xr:uid="{F5A348F3-F58B-420C-8406-CF77446CBFD2}"/>
+    <hyperlink ref="G209" r:id="rId495" xr:uid="{807E5D13-3AA8-4356-BAD1-DD6CDF75CBCF}"/>
+    <hyperlink ref="G210" r:id="rId496" xr:uid="{ACF1C3A3-ED2A-4A1B-BAA8-CEC4F2217A0B}"/>
+    <hyperlink ref="G211" r:id="rId497" xr:uid="{5F5CA7C6-6CBB-4200-8A34-8E7D4AF0CBB8}"/>
+    <hyperlink ref="G212" r:id="rId498" xr:uid="{883449DD-5207-423E-9B00-69005DF34D97}"/>
+    <hyperlink ref="G213" r:id="rId499" xr:uid="{38102317-E610-4730-B004-1DE72CD293C4}"/>
+    <hyperlink ref="G214" r:id="rId500" xr:uid="{B5EC44BF-0053-4235-94F1-18B581380A3C}"/>
+    <hyperlink ref="G215" r:id="rId501" xr:uid="{DB639AAC-1A4D-4DE8-A5C2-16EAF45C3093}"/>
+    <hyperlink ref="G216" r:id="rId502" xr:uid="{8BB84DCD-B1CE-46C5-82CF-A80AF2F6BEEA}"/>
+    <hyperlink ref="G217" r:id="rId503" xr:uid="{1D3396C8-7071-49CC-92B0-762B5E14EC99}"/>
+    <hyperlink ref="G218" r:id="rId504" xr:uid="{A135A879-2EBA-4242-A08A-050C077CEF21}"/>
+    <hyperlink ref="G219" r:id="rId505" xr:uid="{E57B7E56-BC86-4CFE-9EA7-BDE71F147049}"/>
+    <hyperlink ref="G220" r:id="rId506" xr:uid="{A8EA52C0-DD6E-4882-B8BF-06B0AF87ADF4}"/>
+    <hyperlink ref="G221" r:id="rId507" xr:uid="{E83944E7-E4B5-4EFC-ACE9-C9FE8B2BDB29}"/>
+    <hyperlink ref="G222" r:id="rId508" xr:uid="{C1016803-83A6-4B40-A551-B579CAA8506E}"/>
+    <hyperlink ref="G223" r:id="rId509" xr:uid="{CD79B453-AC14-4A12-B57C-FD44D89463A4}"/>
+    <hyperlink ref="G224" r:id="rId510" xr:uid="{5EF3D356-BB86-4FF4-B191-B2782E6D5387}"/>
+    <hyperlink ref="G225" r:id="rId511" xr:uid="{D3A1B4BA-570C-44E0-BE56-A227051BF7B2}"/>
+    <hyperlink ref="G226" r:id="rId512" xr:uid="{8C5835CA-8BDD-439D-A321-5B63C1C96ED7}"/>
+    <hyperlink ref="G227" r:id="rId513" xr:uid="{34A17959-33D0-42BA-BD98-91853212D77F}"/>
+    <hyperlink ref="G228" r:id="rId514" xr:uid="{BDDF62D9-6735-467B-A974-9EC085C35012}"/>
+    <hyperlink ref="G229" r:id="rId515" xr:uid="{CA7008DC-4402-4DCD-A829-50669F964AE6}"/>
+    <hyperlink ref="G230" r:id="rId516" xr:uid="{453F359D-E286-4528-BF7B-5CEAB6CFC148}"/>
+    <hyperlink ref="G231" r:id="rId517" xr:uid="{676DFC8B-2569-47D2-8898-33250AC2D131}"/>
+    <hyperlink ref="G232" r:id="rId518" xr:uid="{972E64B8-7273-4C7E-BDEE-A8BE689E14CB}"/>
+    <hyperlink ref="G233" r:id="rId519" xr:uid="{4A556F3B-94B6-4B79-91CC-E0BBDE072751}"/>
+    <hyperlink ref="G234" r:id="rId520" xr:uid="{26D55580-D86E-485B-B2F7-69F021DE4A9B}"/>
+    <hyperlink ref="G235" r:id="rId521" xr:uid="{F0BD10CB-41E7-459D-951B-9749B9A1799B}"/>
+    <hyperlink ref="G236" r:id="rId522" xr:uid="{98281193-493E-4B3E-AF73-3B0BD115020E}"/>
+    <hyperlink ref="G237" r:id="rId523" xr:uid="{4FFA978F-6E29-4971-9A6B-1AFA84E1C63A}"/>
+    <hyperlink ref="G238" r:id="rId524" xr:uid="{074C3A4C-83F7-4CE0-A2A6-E3D4B2D68913}"/>
+    <hyperlink ref="G239" r:id="rId525" xr:uid="{9D43D635-20BE-4BA8-A75C-A2C4B822C20F}"/>
+    <hyperlink ref="G240" r:id="rId526" xr:uid="{12D2834D-6570-4D84-825A-EED495DBC2AE}"/>
+    <hyperlink ref="G241" r:id="rId527" xr:uid="{CC1F6151-8774-49EB-A2DF-A80940A6A052}"/>
+    <hyperlink ref="G242" r:id="rId528" xr:uid="{5B3E5780-A196-4E93-85FB-9A39969D9D64}"/>
+    <hyperlink ref="G243" r:id="rId529" xr:uid="{551973B0-7A0B-4C88-AB0A-5B3CDE83D7FB}"/>
+    <hyperlink ref="G244" r:id="rId530" xr:uid="{4D2A9872-27DE-47AA-BA37-6B05D507F67B}"/>
+    <hyperlink ref="G245" r:id="rId531" xr:uid="{27A7B954-66A7-4848-912E-6A9BC6152C22}"/>
+    <hyperlink ref="G246" r:id="rId532" xr:uid="{9B9DCD0B-937F-46CD-A2C4-63296ADA3353}"/>
+    <hyperlink ref="G247" r:id="rId533" xr:uid="{5DD7F14A-4775-4B65-8410-DFC5A05CC505}"/>
+    <hyperlink ref="G248" r:id="rId534" xr:uid="{DE642B7B-B30F-41E1-AA65-7861DCBE8D3F}"/>
+    <hyperlink ref="G249" r:id="rId535" xr:uid="{C8DF107A-ED2E-4D37-ACB4-F78E99CEBD37}"/>
+    <hyperlink ref="G250" r:id="rId536" xr:uid="{A2925098-3C97-4BEC-9771-AB229F0D7100}"/>
+    <hyperlink ref="G251" r:id="rId537" xr:uid="{F93D74F1-3850-4F35-BF25-49AD326EB0D4}"/>
+    <hyperlink ref="G252" r:id="rId538" xr:uid="{78CCF018-D716-41B3-847E-CB04D82994DC}"/>
+    <hyperlink ref="G253" r:id="rId539" xr:uid="{33ED6290-1314-4E7B-BF09-A57F8E05082B}"/>
+    <hyperlink ref="G254" r:id="rId540" xr:uid="{AB2FF8F2-1BA0-4293-8339-CE0C3B74D062}"/>
+    <hyperlink ref="G255" r:id="rId541" xr:uid="{B1640425-3CAD-4EB7-B3BD-7D94D85E47F4}"/>
+    <hyperlink ref="G256" r:id="rId542" xr:uid="{7C5132CC-D373-4310-9C59-E36BEA8EA32F}"/>
+    <hyperlink ref="G257" r:id="rId543" xr:uid="{DD42777B-CE92-4D2F-9F80-FD3D6FC1508E}"/>
+    <hyperlink ref="G258" r:id="rId544" xr:uid="{BD190BD5-7CE1-4F27-98D0-E45DC378D14B}"/>
+    <hyperlink ref="G259" r:id="rId545" xr:uid="{569716FA-A6BA-4334-B167-0E21093163ED}"/>
+    <hyperlink ref="G260" r:id="rId546" xr:uid="{5894EA8A-8CED-4ECC-B877-351DD7027D28}"/>
+    <hyperlink ref="G261" r:id="rId547" xr:uid="{7E80A6B2-A106-4F8E-8B75-7986E1D1B2BE}"/>
+    <hyperlink ref="G262" r:id="rId548" xr:uid="{3DB924B7-84EC-4D63-9F42-534DA5DE8E4C}"/>
+    <hyperlink ref="G263" r:id="rId549" xr:uid="{7012807E-58B4-4F70-873A-A2912E9A2B5D}"/>
+    <hyperlink ref="G264" r:id="rId550" xr:uid="{BEB18D10-B8DC-4068-9C16-78418F13AC9C}"/>
+    <hyperlink ref="G265" r:id="rId551" xr:uid="{35304BCD-CAEA-4CB2-A1B9-A6A4A56BF3B5}"/>
+    <hyperlink ref="G266" r:id="rId552" xr:uid="{8EEEE503-4873-47AE-82C6-066BCCF93EEA}"/>
+    <hyperlink ref="G267" r:id="rId553" xr:uid="{FEE351EB-C51D-4867-999F-5A6C1E13E321}"/>
+    <hyperlink ref="G268" r:id="rId554" xr:uid="{E00FE2E4-F8C8-4ECC-92F5-4BF19CCBCC11}"/>
+    <hyperlink ref="G269" r:id="rId555" xr:uid="{5819B118-FDB4-4195-9853-C087FC7F57BC}"/>
+    <hyperlink ref="G270" r:id="rId556" xr:uid="{1971DB26-D97F-4C24-BB17-55F9BE9F4227}"/>
+    <hyperlink ref="G271" r:id="rId557" xr:uid="{08732E04-44E7-4153-96B4-EB27236A3E49}"/>
+    <hyperlink ref="G272" r:id="rId558" xr:uid="{C1685800-9E1C-423C-A6F8-9AE00D6C4E92}"/>
+    <hyperlink ref="G273" r:id="rId559" xr:uid="{435B9ADB-A06F-4EBF-B1DF-F788C04CE0D4}"/>
+    <hyperlink ref="G274" r:id="rId560" xr:uid="{1A628736-40AB-41C8-8982-178E52E51BC1}"/>
+    <hyperlink ref="G275" r:id="rId561" xr:uid="{F4BA6818-F006-416B-A035-18F84F53FDE0}"/>
+    <hyperlink ref="G276" r:id="rId562" xr:uid="{8B5F2714-B5C6-458E-BC1E-EC8E787892EF}"/>
+    <hyperlink ref="G277" r:id="rId563" xr:uid="{CEDB3547-5C02-4C1A-9C1E-6D09FE1B452A}"/>
+    <hyperlink ref="G278" r:id="rId564" xr:uid="{A04C8035-5AB0-49BF-AE76-E3A5DB77C665}"/>
+    <hyperlink ref="G279" r:id="rId565" xr:uid="{9BCF390B-AEA7-40CD-AF40-E3404EE9D101}"/>
+    <hyperlink ref="G280" r:id="rId566" xr:uid="{72D35681-53BB-4C4C-AC4B-8F9167E0256E}"/>
+    <hyperlink ref="G281" r:id="rId567" xr:uid="{D330878F-966F-4241-99BA-69B1142F76D8}"/>
+    <hyperlink ref="G282" r:id="rId568" xr:uid="{E45E1EB3-9867-4AE5-9FF7-B5B1292AF08F}"/>
+    <hyperlink ref="G283" r:id="rId569" xr:uid="{68EFBD57-A855-45AA-AD6F-E33880A566E8}"/>
+    <hyperlink ref="G284" r:id="rId570" xr:uid="{7DC71180-1EB6-411F-8A58-7A900E7AD3FC}"/>
+    <hyperlink ref="G285" r:id="rId571" xr:uid="{06158E30-3EFA-4645-9878-1CDEBBB12649}"/>
+    <hyperlink ref="G286" r:id="rId572" xr:uid="{2851263A-C73C-41BB-9FE5-8BC5FFCF1983}"/>
+    <hyperlink ref="G287" r:id="rId573" xr:uid="{9568B23B-17C5-4619-8352-517359F67432}"/>
+    <hyperlink ref="G288" r:id="rId574" xr:uid="{9BAC84BD-9ED9-45D7-AD41-87FB2C5C36CD}"/>
+    <hyperlink ref="G289" r:id="rId575" xr:uid="{153B90FF-E8A4-47C6-BFFF-FF0148A04C83}"/>
+    <hyperlink ref="G290" r:id="rId576" xr:uid="{FC3919C9-2368-488D-B260-3DB7FF4FBDBD}"/>
+    <hyperlink ref="G291" r:id="rId577" xr:uid="{E2124193-5BD5-4F1F-AF71-8B96876CB329}"/>
+    <hyperlink ref="G292" r:id="rId578" xr:uid="{80057C3D-4C63-4F1C-A4F3-BB52B9D03E38}"/>
+    <hyperlink ref="G293" r:id="rId579" xr:uid="{44A47F0A-05FF-4066-B06D-91DE840D1298}"/>
+    <hyperlink ref="G294" r:id="rId580" xr:uid="{E2364A35-078A-4474-BC62-D0CFBB7C5295}"/>
+    <hyperlink ref="G295" r:id="rId581" xr:uid="{CB229E2A-8BF3-4276-A9B0-5DDCDA4C502E}"/>
+    <hyperlink ref="G296" r:id="rId582" xr:uid="{A20CF1A5-72B8-42D2-A440-83C50874EDF3}"/>
+    <hyperlink ref="G297" r:id="rId583" xr:uid="{3BDD48CF-0BA4-4D29-AEFF-9D3F82FA0B05}"/>
+    <hyperlink ref="G298" r:id="rId584" xr:uid="{B3580EEB-5E35-4D73-8C54-D00E1BDF5474}"/>
+    <hyperlink ref="G299" r:id="rId585" xr:uid="{13F42747-F26A-466F-BBCF-9EEA3304F2C9}"/>
+    <hyperlink ref="G300" r:id="rId586" xr:uid="{2B13C1CB-E645-422B-91F7-19812CA6D4E6}"/>
+    <hyperlink ref="G301" r:id="rId587" xr:uid="{7A2B0F86-0794-4384-AB35-B10A62CFEA23}"/>
+    <hyperlink ref="G302" r:id="rId588" xr:uid="{39065DFA-268F-4313-A628-C5D8DDEC5723}"/>
+    <hyperlink ref="G303" r:id="rId589" xr:uid="{722D264A-BAEE-4834-B4C3-81712D33BE61}"/>
+    <hyperlink ref="G304" r:id="rId590" xr:uid="{30A78D29-7400-46C1-AB5F-ADEC60534F08}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId591"/>
 </worksheet>
 </file>
--- a/Mensageria/betti/email.xlsx
+++ b/Mensageria/betti/email.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.alves\source\aulas\AulasEuCodo\Mensageria\betti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B2E975-0251-4B33-B51D-C72761D34AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AAE4BE-CC0F-4CF5-AAFC-7A7CEC277558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1B2C2596-FEDC-4806-AA04-C3A6BED56956}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="40">
   <si>
     <t>A</t>
   </si>
@@ -519,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59491F56-CD08-47F1-9229-800FA97E9013}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -790,14 +790,1666 @@
         <v>36</v>
       </c>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53">
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54">
+        <v>53</v>
+      </c>
+      <c r="D54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55">
+        <v>54</v>
+      </c>
+      <c r="D55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56">
+        <v>55</v>
+      </c>
+      <c r="D56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57">
+        <v>56</v>
+      </c>
+      <c r="D57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58">
+        <v>57</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59">
+        <v>58</v>
+      </c>
+      <c r="D59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60">
+        <v>59</v>
+      </c>
+      <c r="D60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61">
+        <v>60</v>
+      </c>
+      <c r="D61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62">
+        <v>61</v>
+      </c>
+      <c r="D62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63">
+        <v>62</v>
+      </c>
+      <c r="D63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" t="s">
+        <v>26</v>
+      </c>
+      <c r="F63" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64">
+        <v>63</v>
+      </c>
+      <c r="D64" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65">
+        <v>64</v>
+      </c>
+      <c r="D65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66">
+        <v>65</v>
+      </c>
+      <c r="D66" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67">
+        <v>66</v>
+      </c>
+      <c r="D67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68">
+        <v>67</v>
+      </c>
+      <c r="D68" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68" t="s">
+        <v>26</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{211C1AE1-1DBC-4DBB-A156-E4CE9FFC88C7}"/>
     <hyperlink ref="H3:H10" r:id="rId2" display="nayrpkt@gmail.com" xr:uid="{1C12571D-C915-4127-BE48-164C42B2BADC}"/>
     <hyperlink ref="H2" r:id="rId3" display="nayrpkt@gmail.com" xr:uid="{FCA25B0F-6286-4320-9B1F-FD5A64DBBEB1}"/>
     <hyperlink ref="G3:G10" r:id="rId4" display="robert.ads.anjos@gmail.com" xr:uid="{00541651-9D2B-43BD-B943-758F742CF890}"/>
+    <hyperlink ref="H11" r:id="rId5" xr:uid="{09910E8B-CFB6-4993-BE95-18D6BF11E190}"/>
+    <hyperlink ref="H12" r:id="rId6" xr:uid="{8610FAB9-5999-4A38-871D-4C1AE88D7923}"/>
+    <hyperlink ref="H13" r:id="rId7" xr:uid="{C946FAFE-0CF1-43DB-9803-E3ABF5958E7A}"/>
+    <hyperlink ref="H14" r:id="rId8" xr:uid="{28B25D6C-D4C2-4BD9-9186-F9A8748940AD}"/>
+    <hyperlink ref="H15" r:id="rId9" xr:uid="{3B765E08-3291-4178-B3E9-D2C079CC4B5A}"/>
+    <hyperlink ref="H16" r:id="rId10" xr:uid="{04969B02-7E9A-4733-AF4C-F29780CED7DA}"/>
+    <hyperlink ref="H17" r:id="rId11" xr:uid="{B59896AB-E253-4497-8693-6C5CD2B25FAF}"/>
+    <hyperlink ref="H18" r:id="rId12" xr:uid="{E25808FE-B1C8-471E-9A2F-0FC8B65D12BC}"/>
+    <hyperlink ref="H19" r:id="rId13" xr:uid="{90096C27-04B4-4EF5-96C7-37D31B7AA5F9}"/>
+    <hyperlink ref="H20" r:id="rId14" xr:uid="{1408B4ED-C8DB-4E2E-B95F-8E2802D47C7A}"/>
+    <hyperlink ref="H21" r:id="rId15" xr:uid="{83788C3C-2E79-41D9-B076-09053A1FC036}"/>
+    <hyperlink ref="H22" r:id="rId16" xr:uid="{EB81B099-701F-4F79-AB9E-23C3299060AB}"/>
+    <hyperlink ref="H23" r:id="rId17" xr:uid="{6D15EDAF-833F-42FE-928B-C27ED961EC77}"/>
+    <hyperlink ref="H24" r:id="rId18" xr:uid="{5727F37F-098A-4636-B56E-C754B8BBEF8C}"/>
+    <hyperlink ref="H25" r:id="rId19" xr:uid="{FB8C61C4-1DDB-4228-A817-C4DA780BEB44}"/>
+    <hyperlink ref="H26" r:id="rId20" xr:uid="{DB2501ED-C61B-40F0-A3A2-2A80B107804E}"/>
+    <hyperlink ref="H27" r:id="rId21" xr:uid="{E2E87CB7-C7A4-42D8-AED1-4DE641E0D342}"/>
+    <hyperlink ref="H28" r:id="rId22" xr:uid="{5406506C-B336-4BDC-A0AF-1FB8BD0EA880}"/>
+    <hyperlink ref="H29" r:id="rId23" xr:uid="{BB77BA83-9818-43A6-A600-A5642D848870}"/>
+    <hyperlink ref="H30" r:id="rId24" xr:uid="{E68A039C-A287-4F27-BB9D-B84C3A44D3CF}"/>
+    <hyperlink ref="H31" r:id="rId25" xr:uid="{462964A2-5D01-4B51-9EDD-96DA2989A4A7}"/>
+    <hyperlink ref="H32" r:id="rId26" xr:uid="{515F2F48-0AC8-45BA-A768-A546FED53777}"/>
+    <hyperlink ref="H33" r:id="rId27" xr:uid="{1361260E-44D7-4F0B-A49F-98E32870F847}"/>
+    <hyperlink ref="H34" r:id="rId28" xr:uid="{60C852E4-6A62-43DD-9F6F-B04F128919BB}"/>
+    <hyperlink ref="H35" r:id="rId29" xr:uid="{E8A002E2-B988-4D76-8829-E7064240C772}"/>
+    <hyperlink ref="H36" r:id="rId30" xr:uid="{54B7A8C9-1E1B-4E3F-8AEA-E2B80465FF5B}"/>
+    <hyperlink ref="H37" r:id="rId31" xr:uid="{6605C19A-361D-4F7F-923C-B0B2CD9461C5}"/>
+    <hyperlink ref="H38" r:id="rId32" xr:uid="{CD9455D7-E6FE-44C4-87DD-A145099CA99C}"/>
+    <hyperlink ref="H39" r:id="rId33" xr:uid="{6D4F794E-6D23-4ABF-8AA4-EA1BCD777FB7}"/>
+    <hyperlink ref="H40" r:id="rId34" xr:uid="{6901E312-FF6A-437C-8E23-A3C3A7A6D06F}"/>
+    <hyperlink ref="H41" r:id="rId35" xr:uid="{C110BBBB-B163-4E4A-BA61-EF21F97C048A}"/>
+    <hyperlink ref="H42" r:id="rId36" xr:uid="{ADCD7D38-7927-47F0-80B3-66B9E8D935D6}"/>
+    <hyperlink ref="H43" r:id="rId37" xr:uid="{954E0104-7867-4219-A2D9-1906FAF6FEF1}"/>
+    <hyperlink ref="H44" r:id="rId38" xr:uid="{69945E1F-0483-4ABF-93A0-CAB64F0DC480}"/>
+    <hyperlink ref="H45" r:id="rId39" xr:uid="{B7E5EE66-6A24-48B3-95DA-541131D194E5}"/>
+    <hyperlink ref="H46" r:id="rId40" xr:uid="{F42004BC-3292-40C4-B85F-78A5FFC0575E}"/>
+    <hyperlink ref="H47" r:id="rId41" xr:uid="{2DA0B9FA-F04D-47CD-AC45-1648382DE809}"/>
+    <hyperlink ref="H48" r:id="rId42" xr:uid="{ED3BFEE6-4FB3-44C0-825A-04E54EFBC4DD}"/>
+    <hyperlink ref="H49" r:id="rId43" xr:uid="{2B265C5B-C51B-4FA1-956E-5A340EE815AD}"/>
+    <hyperlink ref="H50" r:id="rId44" xr:uid="{1D966E29-2556-4CC1-9525-BCB7D76B5B83}"/>
+    <hyperlink ref="H51" r:id="rId45" xr:uid="{D2E9BAA9-EF2E-4D5C-8B0C-A8E18C472C3A}"/>
+    <hyperlink ref="H52" r:id="rId46" xr:uid="{371B6130-EBEE-4A37-9A6D-91E7E6D1F2FD}"/>
+    <hyperlink ref="H53" r:id="rId47" xr:uid="{D2261BFB-94B8-438F-B14E-71DB9A3961D0}"/>
+    <hyperlink ref="H54" r:id="rId48" xr:uid="{E603B97B-61EC-4F16-9999-DE40CD3FF60F}"/>
+    <hyperlink ref="H55" r:id="rId49" xr:uid="{C7840E43-F2D8-49CB-B717-B065C321006E}"/>
+    <hyperlink ref="H56" r:id="rId50" xr:uid="{EA51FE1A-034F-4738-9B13-DD7FC2BEA0AE}"/>
+    <hyperlink ref="H57" r:id="rId51" xr:uid="{EA0D4843-A2A2-4EE9-BD56-5BF0CF26C6ED}"/>
+    <hyperlink ref="H58" r:id="rId52" xr:uid="{5F15A054-9654-43DE-A310-A281363B867E}"/>
+    <hyperlink ref="H59" r:id="rId53" xr:uid="{2AAD2FC9-7875-4C7E-BE18-5929DCD300E2}"/>
+    <hyperlink ref="H60" r:id="rId54" xr:uid="{3B13B48B-CFD8-43FD-A256-BFBCA6E9F166}"/>
+    <hyperlink ref="H61" r:id="rId55" xr:uid="{2812F3C5-BA5B-4280-A6EE-F071C743A0F9}"/>
+    <hyperlink ref="H62" r:id="rId56" xr:uid="{A51391BB-726E-4E53-A854-F835E4326CB7}"/>
+    <hyperlink ref="H63" r:id="rId57" xr:uid="{3816078E-236A-40ED-8098-8D6C2593073C}"/>
+    <hyperlink ref="H64" r:id="rId58" xr:uid="{16019511-2A5B-45DB-9951-7580C7CED611}"/>
+    <hyperlink ref="H65" r:id="rId59" xr:uid="{0F281052-88CC-4EFC-9654-D738A5265195}"/>
+    <hyperlink ref="H66" r:id="rId60" xr:uid="{988320DB-75EE-40A5-80AB-5DC5D88C77B3}"/>
+    <hyperlink ref="H67" r:id="rId61" xr:uid="{BD69E281-B932-4E39-BC3D-0A5839B363E1}"/>
+    <hyperlink ref="H68" r:id="rId62" xr:uid="{E063F8A8-C725-4BE8-8357-391DBDD95480}"/>
+    <hyperlink ref="H69" r:id="rId63" xr:uid="{46926277-A148-4D82-AF7C-43360CBCA36A}"/>
+    <hyperlink ref="G11" r:id="rId64" xr:uid="{08891F1E-BFCE-4901-BB79-93AA85608BD6}"/>
+    <hyperlink ref="G12" r:id="rId65" xr:uid="{5B945965-8CF2-4536-B6C6-B03AA77AC55C}"/>
+    <hyperlink ref="G13" r:id="rId66" xr:uid="{474F2900-37DB-45FC-AC64-A44473756317}"/>
+    <hyperlink ref="G14" r:id="rId67" xr:uid="{8083D30B-557A-4AC8-8D3C-27A3DD20F6F0}"/>
+    <hyperlink ref="G15" r:id="rId68" xr:uid="{9BC24074-15A2-42CF-82F3-9EE884921304}"/>
+    <hyperlink ref="G16" r:id="rId69" xr:uid="{CC4BD510-687D-4365-A02B-40308B7BB094}"/>
+    <hyperlink ref="G17" r:id="rId70" xr:uid="{307F9D09-DD1B-449E-8BD1-CEA8554CE58F}"/>
+    <hyperlink ref="G18" r:id="rId71" xr:uid="{256E56A0-313B-40C0-B777-463B070E8BC5}"/>
+    <hyperlink ref="G19" r:id="rId72" xr:uid="{53093AA6-4084-4A8D-9497-0ED7AA03C383}"/>
+    <hyperlink ref="G20" r:id="rId73" xr:uid="{0A61BB15-6DA2-4651-832C-63B5FBFBF363}"/>
+    <hyperlink ref="G21" r:id="rId74" xr:uid="{81605D05-A6AE-48A8-B253-5F4DDBDA4ADF}"/>
+    <hyperlink ref="G22" r:id="rId75" xr:uid="{CC010305-21EE-4FDA-9CD9-E1E88E21073E}"/>
+    <hyperlink ref="G23" r:id="rId76" xr:uid="{015C4D36-070E-4AE5-8A75-18BB99358F8A}"/>
+    <hyperlink ref="G24" r:id="rId77" xr:uid="{9388E673-BA81-47E0-BFEB-FD5D9EFB6189}"/>
+    <hyperlink ref="G25" r:id="rId78" xr:uid="{C35AD358-FAE5-4651-BA71-7FCB62B777AD}"/>
+    <hyperlink ref="G26" r:id="rId79" xr:uid="{49164CC9-A989-48A1-907E-506CF71CAD23}"/>
+    <hyperlink ref="G27" r:id="rId80" xr:uid="{FD0CC0A5-6781-4196-BC44-A37E10AEC42E}"/>
+    <hyperlink ref="G28" r:id="rId81" xr:uid="{EEC82DBC-4EC1-4487-B9D7-395DEF439593}"/>
+    <hyperlink ref="G29" r:id="rId82" xr:uid="{D76B3FB4-0C70-4CE6-918B-0908E0F374B8}"/>
+    <hyperlink ref="G30" r:id="rId83" xr:uid="{1DEFF231-CA99-4D17-8AE5-615AC7A823A4}"/>
+    <hyperlink ref="G31" r:id="rId84" xr:uid="{966D5DAB-BC05-48B1-AED4-A984DDFA9687}"/>
+    <hyperlink ref="G32" r:id="rId85" xr:uid="{89CC95B8-463D-4ED6-BCD0-BD61431EEC6B}"/>
+    <hyperlink ref="G33" r:id="rId86" xr:uid="{59E52C85-2003-40A5-8C17-8E2F50167809}"/>
+    <hyperlink ref="G34" r:id="rId87" xr:uid="{BA71EEF9-AF74-4964-81CA-5687E31C1DD4}"/>
+    <hyperlink ref="G35" r:id="rId88" xr:uid="{D4B8B830-7DBB-47C0-A575-21C20C37106F}"/>
+    <hyperlink ref="G36" r:id="rId89" xr:uid="{A3B66E16-DF2D-4C8E-8493-576C3B334E63}"/>
+    <hyperlink ref="G37" r:id="rId90" xr:uid="{A8760C98-A87A-41BC-846D-7C27B64DC83F}"/>
+    <hyperlink ref="G38" r:id="rId91" xr:uid="{A325DB0A-16B9-4C9B-AD23-028436D268E4}"/>
+    <hyperlink ref="G39" r:id="rId92" xr:uid="{21E4E18D-D7B0-4619-9131-F214640DD643}"/>
+    <hyperlink ref="G40" r:id="rId93" xr:uid="{BB72CDF5-7DBF-4D40-BD56-FA7B73CD3590}"/>
+    <hyperlink ref="G41" r:id="rId94" xr:uid="{0755F9B0-B3FA-4412-9627-511B01D587C4}"/>
+    <hyperlink ref="G42" r:id="rId95" xr:uid="{0E77696F-C2A8-46A4-A1C9-5B053BCCD56A}"/>
+    <hyperlink ref="G43" r:id="rId96" xr:uid="{62AD8424-5EED-4E05-BD4A-67FFF079F5DE}"/>
+    <hyperlink ref="G44" r:id="rId97" xr:uid="{BD5F52DA-750A-4708-9209-F0832953610C}"/>
+    <hyperlink ref="G45" r:id="rId98" xr:uid="{5DB21C96-F541-4875-82E0-FD95E99F7A16}"/>
+    <hyperlink ref="G46" r:id="rId99" xr:uid="{3296534A-C4DB-4629-8892-2512BE67C1E1}"/>
+    <hyperlink ref="G47" r:id="rId100" xr:uid="{FC4C2567-5D0A-4A46-87FD-0F052C0C538D}"/>
+    <hyperlink ref="G48" r:id="rId101" xr:uid="{CCBD4575-042B-483B-B95F-DB0C6BFBBF8D}"/>
+    <hyperlink ref="G49" r:id="rId102" xr:uid="{433D9299-B965-440B-AB9D-D1BC0FF90227}"/>
+    <hyperlink ref="G50" r:id="rId103" xr:uid="{9C92CA39-C795-4745-BCA7-75F9635352EF}"/>
+    <hyperlink ref="G51" r:id="rId104" xr:uid="{80955053-99B6-4770-9451-1AB0C4AB0658}"/>
+    <hyperlink ref="G52" r:id="rId105" xr:uid="{D08F8A10-1FEA-4FF8-91AA-4D5C6E2CF965}"/>
+    <hyperlink ref="G53" r:id="rId106" xr:uid="{E1552DE5-3F36-4447-A098-1C38DEF076C3}"/>
+    <hyperlink ref="G54" r:id="rId107" xr:uid="{27C89CBD-A689-49D7-A356-45AB8D080E30}"/>
+    <hyperlink ref="G55" r:id="rId108" xr:uid="{71744331-B135-4284-A969-858AB98596A0}"/>
+    <hyperlink ref="G56" r:id="rId109" xr:uid="{E8227959-A688-47B5-8A00-EAAE316BCF25}"/>
+    <hyperlink ref="G57" r:id="rId110" xr:uid="{81A75D53-81AF-47EF-955C-7F6AE6E8D441}"/>
+    <hyperlink ref="G58" r:id="rId111" xr:uid="{381AF0E9-4678-4C36-98E5-18D44A2CC57D}"/>
+    <hyperlink ref="G59" r:id="rId112" xr:uid="{851C0207-0075-4165-8E96-8EDBA705D1BE}"/>
+    <hyperlink ref="G60" r:id="rId113" xr:uid="{0EB71C1A-846F-471B-A44E-D6A98021B2BD}"/>
+    <hyperlink ref="G61" r:id="rId114" xr:uid="{015E38E2-E0E0-4C07-9DC8-737D165A1996}"/>
+    <hyperlink ref="G62" r:id="rId115" xr:uid="{403E4063-551A-486E-A1F9-3F42AF284878}"/>
+    <hyperlink ref="G63" r:id="rId116" xr:uid="{4B58B3D6-A744-4480-9F2D-E188A123B412}"/>
+    <hyperlink ref="G64" r:id="rId117" xr:uid="{8042DD29-EA9B-4FD4-82D4-4821278FDA07}"/>
+    <hyperlink ref="G65" r:id="rId118" xr:uid="{C726FBED-BFBE-4CE0-96C2-8969080BF41C}"/>
+    <hyperlink ref="G66" r:id="rId119" xr:uid="{A7FDEECE-9C08-46A0-9503-19049D241A3B}"/>
+    <hyperlink ref="G67" r:id="rId120" xr:uid="{8A8FED6A-5191-4D66-9581-4022B7D0D290}"/>
+    <hyperlink ref="G68" r:id="rId121" xr:uid="{A08C4575-38E9-451E-80D2-24708329B4C0}"/>
+    <hyperlink ref="G69" r:id="rId122" xr:uid="{72CA6DCC-6E4F-454E-BE85-9513BC2C22F5}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId123"/>
 </worksheet>
 </file>
--- a/Mensageria/betti/email.xlsx
+++ b/Mensageria/betti/email.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.alves\source\aulas\AulasEuCodo\Mensageria\betti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AAE4BE-CC0F-4CF5-AAFC-7A7CEC277558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ECEB8B-8EB5-47B6-A844-C7DB66593508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1B2C2596-FEDC-4806-AA04-C3A6BED56956}"/>
   </bookViews>
@@ -128,9 +128,6 @@
     <t>Jubuscléia</t>
   </si>
   <si>
-    <t>PASTA</t>
-  </si>
-  <si>
     <t>TORRE</t>
   </si>
   <si>
@@ -146,16 +143,19 @@
     <t>CLIENTE</t>
   </si>
   <si>
-    <t>nayrpkt@gmail.com</t>
-  </si>
-  <si>
     <t>EMAILS EM CÓPIA (se tiver mais que um, separar por virgula</t>
   </si>
   <si>
-    <t>nayrpkt@gmail.com, robert_hk_@hotmail.com</t>
-  </si>
-  <si>
     <t>EMAIL DO PROJETO</t>
+  </si>
+  <si>
+    <t>PASTA | EMPREENDIMENTO</t>
+  </si>
+  <si>
+    <t>bulpert@yahoo.com, robert_hk_@hotmail.com</t>
+  </si>
+  <si>
+    <t>bulpert@yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -521,39 +521,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59491F56-CD08-47F1-9229-800FA97E9013}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
     <col min="8" max="8" width="58.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
         <v>35</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -605,7 +606,7 @@
         <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -631,7 +632,7 @@
         <v>28</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -657,7 +658,7 @@
         <v>28</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -683,7 +684,7 @@
         <v>28</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -709,7 +710,7 @@
         <v>28</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -735,7 +736,7 @@
         <v>28</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -761,7 +762,7 @@
         <v>28</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -787,7 +788,7 @@
         <v>28</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -813,7 +814,7 @@
         <v>28</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -839,7 +840,7 @@
         <v>28</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -865,7 +866,7 @@
         <v>28</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -891,7 +892,7 @@
         <v>28</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -917,7 +918,7 @@
         <v>28</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -943,7 +944,7 @@
         <v>28</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -969,7 +970,7 @@
         <v>28</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -995,7 +996,7 @@
         <v>28</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1021,7 +1022,7 @@
         <v>28</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1047,7 +1048,7 @@
         <v>28</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1073,7 +1074,7 @@
         <v>28</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1099,7 +1100,7 @@
         <v>28</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1125,7 +1126,7 @@
         <v>28</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1151,7 +1152,7 @@
         <v>28</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1177,7 +1178,7 @@
         <v>28</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1203,7 +1204,7 @@
         <v>28</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1229,7 +1230,7 @@
         <v>28</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1255,7 +1256,7 @@
         <v>28</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1281,7 +1282,7 @@
         <v>28</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1307,7 +1308,7 @@
         <v>28</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1333,7 +1334,7 @@
         <v>28</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1359,7 +1360,7 @@
         <v>28</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1385,7 +1386,7 @@
         <v>28</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1411,7 +1412,7 @@
         <v>28</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1437,7 +1438,7 @@
         <v>28</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1463,7 +1464,7 @@
         <v>28</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1489,7 +1490,7 @@
         <v>28</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1515,7 +1516,7 @@
         <v>28</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1541,7 +1542,7 @@
         <v>28</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -1567,7 +1568,7 @@
         <v>28</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -1593,7 +1594,7 @@
         <v>28</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -1619,7 +1620,7 @@
         <v>28</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -1645,7 +1646,7 @@
         <v>28</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -1671,7 +1672,7 @@
         <v>28</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -1697,7 +1698,7 @@
         <v>28</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -1723,7 +1724,7 @@
         <v>28</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -1749,7 +1750,7 @@
         <v>28</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -1775,7 +1776,7 @@
         <v>28</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -1801,7 +1802,7 @@
         <v>28</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -1827,7 +1828,7 @@
         <v>28</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -1853,7 +1854,7 @@
         <v>28</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -1879,7 +1880,7 @@
         <v>28</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -1905,7 +1906,7 @@
         <v>28</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -1931,7 +1932,7 @@
         <v>28</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -1957,7 +1958,7 @@
         <v>28</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -1983,7 +1984,7 @@
         <v>28</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -2009,7 +2010,7 @@
         <v>28</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -2035,7 +2036,7 @@
         <v>28</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -2061,7 +2062,7 @@
         <v>28</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -2087,7 +2088,7 @@
         <v>28</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -2113,7 +2114,7 @@
         <v>28</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -2139,7 +2140,7 @@
         <v>28</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -2165,7 +2166,7 @@
         <v>28</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -2191,7 +2192,7 @@
         <v>28</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -2217,7 +2218,7 @@
         <v>28</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -2243,7 +2244,7 @@
         <v>28</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -2269,7 +2270,7 @@
         <v>28</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -2295,7 +2296,7 @@
         <v>28</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -2321,135 +2322,78 @@
         <v>28</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{211C1AE1-1DBC-4DBB-A156-E4CE9FFC88C7}"/>
-    <hyperlink ref="H3:H10" r:id="rId2" display="nayrpkt@gmail.com" xr:uid="{1C12571D-C915-4127-BE48-164C42B2BADC}"/>
-    <hyperlink ref="H2" r:id="rId3" display="nayrpkt@gmail.com" xr:uid="{FCA25B0F-6286-4320-9B1F-FD5A64DBBEB1}"/>
-    <hyperlink ref="G3:G10" r:id="rId4" display="robert.ads.anjos@gmail.com" xr:uid="{00541651-9D2B-43BD-B943-758F742CF890}"/>
-    <hyperlink ref="H11" r:id="rId5" xr:uid="{09910E8B-CFB6-4993-BE95-18D6BF11E190}"/>
-    <hyperlink ref="H12" r:id="rId6" xr:uid="{8610FAB9-5999-4A38-871D-4C1AE88D7923}"/>
-    <hyperlink ref="H13" r:id="rId7" xr:uid="{C946FAFE-0CF1-43DB-9803-E3ABF5958E7A}"/>
-    <hyperlink ref="H14" r:id="rId8" xr:uid="{28B25D6C-D4C2-4BD9-9186-F9A8748940AD}"/>
-    <hyperlink ref="H15" r:id="rId9" xr:uid="{3B765E08-3291-4178-B3E9-D2C079CC4B5A}"/>
-    <hyperlink ref="H16" r:id="rId10" xr:uid="{04969B02-7E9A-4733-AF4C-F29780CED7DA}"/>
-    <hyperlink ref="H17" r:id="rId11" xr:uid="{B59896AB-E253-4497-8693-6C5CD2B25FAF}"/>
-    <hyperlink ref="H18" r:id="rId12" xr:uid="{E25808FE-B1C8-471E-9A2F-0FC8B65D12BC}"/>
-    <hyperlink ref="H19" r:id="rId13" xr:uid="{90096C27-04B4-4EF5-96C7-37D31B7AA5F9}"/>
-    <hyperlink ref="H20" r:id="rId14" xr:uid="{1408B4ED-C8DB-4E2E-B95F-8E2802D47C7A}"/>
-    <hyperlink ref="H21" r:id="rId15" xr:uid="{83788C3C-2E79-41D9-B076-09053A1FC036}"/>
-    <hyperlink ref="H22" r:id="rId16" xr:uid="{EB81B099-701F-4F79-AB9E-23C3299060AB}"/>
-    <hyperlink ref="H23" r:id="rId17" xr:uid="{6D15EDAF-833F-42FE-928B-C27ED961EC77}"/>
-    <hyperlink ref="H24" r:id="rId18" xr:uid="{5727F37F-098A-4636-B56E-C754B8BBEF8C}"/>
-    <hyperlink ref="H25" r:id="rId19" xr:uid="{FB8C61C4-1DDB-4228-A817-C4DA780BEB44}"/>
-    <hyperlink ref="H26" r:id="rId20" xr:uid="{DB2501ED-C61B-40F0-A3A2-2A80B107804E}"/>
-    <hyperlink ref="H27" r:id="rId21" xr:uid="{E2E87CB7-C7A4-42D8-AED1-4DE641E0D342}"/>
-    <hyperlink ref="H28" r:id="rId22" xr:uid="{5406506C-B336-4BDC-A0AF-1FB8BD0EA880}"/>
-    <hyperlink ref="H29" r:id="rId23" xr:uid="{BB77BA83-9818-43A6-A600-A5642D848870}"/>
-    <hyperlink ref="H30" r:id="rId24" xr:uid="{E68A039C-A287-4F27-BB9D-B84C3A44D3CF}"/>
-    <hyperlink ref="H31" r:id="rId25" xr:uid="{462964A2-5D01-4B51-9EDD-96DA2989A4A7}"/>
-    <hyperlink ref="H32" r:id="rId26" xr:uid="{515F2F48-0AC8-45BA-A768-A546FED53777}"/>
-    <hyperlink ref="H33" r:id="rId27" xr:uid="{1361260E-44D7-4F0B-A49F-98E32870F847}"/>
-    <hyperlink ref="H34" r:id="rId28" xr:uid="{60C852E4-6A62-43DD-9F6F-B04F128919BB}"/>
-    <hyperlink ref="H35" r:id="rId29" xr:uid="{E8A002E2-B988-4D76-8829-E7064240C772}"/>
-    <hyperlink ref="H36" r:id="rId30" xr:uid="{54B7A8C9-1E1B-4E3F-8AEA-E2B80465FF5B}"/>
-    <hyperlink ref="H37" r:id="rId31" xr:uid="{6605C19A-361D-4F7F-923C-B0B2CD9461C5}"/>
-    <hyperlink ref="H38" r:id="rId32" xr:uid="{CD9455D7-E6FE-44C4-87DD-A145099CA99C}"/>
-    <hyperlink ref="H39" r:id="rId33" xr:uid="{6D4F794E-6D23-4ABF-8AA4-EA1BCD777FB7}"/>
-    <hyperlink ref="H40" r:id="rId34" xr:uid="{6901E312-FF6A-437C-8E23-A3C3A7A6D06F}"/>
-    <hyperlink ref="H41" r:id="rId35" xr:uid="{C110BBBB-B163-4E4A-BA61-EF21F97C048A}"/>
-    <hyperlink ref="H42" r:id="rId36" xr:uid="{ADCD7D38-7927-47F0-80B3-66B9E8D935D6}"/>
-    <hyperlink ref="H43" r:id="rId37" xr:uid="{954E0104-7867-4219-A2D9-1906FAF6FEF1}"/>
-    <hyperlink ref="H44" r:id="rId38" xr:uid="{69945E1F-0483-4ABF-93A0-CAB64F0DC480}"/>
-    <hyperlink ref="H45" r:id="rId39" xr:uid="{B7E5EE66-6A24-48B3-95DA-541131D194E5}"/>
-    <hyperlink ref="H46" r:id="rId40" xr:uid="{F42004BC-3292-40C4-B85F-78A5FFC0575E}"/>
-    <hyperlink ref="H47" r:id="rId41" xr:uid="{2DA0B9FA-F04D-47CD-AC45-1648382DE809}"/>
-    <hyperlink ref="H48" r:id="rId42" xr:uid="{ED3BFEE6-4FB3-44C0-825A-04E54EFBC4DD}"/>
-    <hyperlink ref="H49" r:id="rId43" xr:uid="{2B265C5B-C51B-4FA1-956E-5A340EE815AD}"/>
-    <hyperlink ref="H50" r:id="rId44" xr:uid="{1D966E29-2556-4CC1-9525-BCB7D76B5B83}"/>
-    <hyperlink ref="H51" r:id="rId45" xr:uid="{D2E9BAA9-EF2E-4D5C-8B0C-A8E18C472C3A}"/>
-    <hyperlink ref="H52" r:id="rId46" xr:uid="{371B6130-EBEE-4A37-9A6D-91E7E6D1F2FD}"/>
-    <hyperlink ref="H53" r:id="rId47" xr:uid="{D2261BFB-94B8-438F-B14E-71DB9A3961D0}"/>
-    <hyperlink ref="H54" r:id="rId48" xr:uid="{E603B97B-61EC-4F16-9999-DE40CD3FF60F}"/>
-    <hyperlink ref="H55" r:id="rId49" xr:uid="{C7840E43-F2D8-49CB-B717-B065C321006E}"/>
-    <hyperlink ref="H56" r:id="rId50" xr:uid="{EA51FE1A-034F-4738-9B13-DD7FC2BEA0AE}"/>
-    <hyperlink ref="H57" r:id="rId51" xr:uid="{EA0D4843-A2A2-4EE9-BD56-5BF0CF26C6ED}"/>
-    <hyperlink ref="H58" r:id="rId52" xr:uid="{5F15A054-9654-43DE-A310-A281363B867E}"/>
-    <hyperlink ref="H59" r:id="rId53" xr:uid="{2AAD2FC9-7875-4C7E-BE18-5929DCD300E2}"/>
-    <hyperlink ref="H60" r:id="rId54" xr:uid="{3B13B48B-CFD8-43FD-A256-BFBCA6E9F166}"/>
-    <hyperlink ref="H61" r:id="rId55" xr:uid="{2812F3C5-BA5B-4280-A6EE-F071C743A0F9}"/>
-    <hyperlink ref="H62" r:id="rId56" xr:uid="{A51391BB-726E-4E53-A854-F835E4326CB7}"/>
-    <hyperlink ref="H63" r:id="rId57" xr:uid="{3816078E-236A-40ED-8098-8D6C2593073C}"/>
-    <hyperlink ref="H64" r:id="rId58" xr:uid="{16019511-2A5B-45DB-9951-7580C7CED611}"/>
-    <hyperlink ref="H65" r:id="rId59" xr:uid="{0F281052-88CC-4EFC-9654-D738A5265195}"/>
-    <hyperlink ref="H66" r:id="rId60" xr:uid="{988320DB-75EE-40A5-80AB-5DC5D88C77B3}"/>
-    <hyperlink ref="H67" r:id="rId61" xr:uid="{BD69E281-B932-4E39-BC3D-0A5839B363E1}"/>
-    <hyperlink ref="H68" r:id="rId62" xr:uid="{E063F8A8-C725-4BE8-8357-391DBDD95480}"/>
-    <hyperlink ref="H69" r:id="rId63" xr:uid="{46926277-A148-4D82-AF7C-43360CBCA36A}"/>
-    <hyperlink ref="G11" r:id="rId64" xr:uid="{08891F1E-BFCE-4901-BB79-93AA85608BD6}"/>
-    <hyperlink ref="G12" r:id="rId65" xr:uid="{5B945965-8CF2-4536-B6C6-B03AA77AC55C}"/>
-    <hyperlink ref="G13" r:id="rId66" xr:uid="{474F2900-37DB-45FC-AC64-A44473756317}"/>
-    <hyperlink ref="G14" r:id="rId67" xr:uid="{8083D30B-557A-4AC8-8D3C-27A3DD20F6F0}"/>
-    <hyperlink ref="G15" r:id="rId68" xr:uid="{9BC24074-15A2-42CF-82F3-9EE884921304}"/>
-    <hyperlink ref="G16" r:id="rId69" xr:uid="{CC4BD510-687D-4365-A02B-40308B7BB094}"/>
-    <hyperlink ref="G17" r:id="rId70" xr:uid="{307F9D09-DD1B-449E-8BD1-CEA8554CE58F}"/>
-    <hyperlink ref="G18" r:id="rId71" xr:uid="{256E56A0-313B-40C0-B777-463B070E8BC5}"/>
-    <hyperlink ref="G19" r:id="rId72" xr:uid="{53093AA6-4084-4A8D-9497-0ED7AA03C383}"/>
-    <hyperlink ref="G20" r:id="rId73" xr:uid="{0A61BB15-6DA2-4651-832C-63B5FBFBF363}"/>
-    <hyperlink ref="G21" r:id="rId74" xr:uid="{81605D05-A6AE-48A8-B253-5F4DDBDA4ADF}"/>
-    <hyperlink ref="G22" r:id="rId75" xr:uid="{CC010305-21EE-4FDA-9CD9-E1E88E21073E}"/>
-    <hyperlink ref="G23" r:id="rId76" xr:uid="{015C4D36-070E-4AE5-8A75-18BB99358F8A}"/>
-    <hyperlink ref="G24" r:id="rId77" xr:uid="{9388E673-BA81-47E0-BFEB-FD5D9EFB6189}"/>
-    <hyperlink ref="G25" r:id="rId78" xr:uid="{C35AD358-FAE5-4651-BA71-7FCB62B777AD}"/>
-    <hyperlink ref="G26" r:id="rId79" xr:uid="{49164CC9-A989-48A1-907E-506CF71CAD23}"/>
-    <hyperlink ref="G27" r:id="rId80" xr:uid="{FD0CC0A5-6781-4196-BC44-A37E10AEC42E}"/>
-    <hyperlink ref="G28" r:id="rId81" xr:uid="{EEC82DBC-4EC1-4487-B9D7-395DEF439593}"/>
-    <hyperlink ref="G29" r:id="rId82" xr:uid="{D76B3FB4-0C70-4CE6-918B-0908E0F374B8}"/>
-    <hyperlink ref="G30" r:id="rId83" xr:uid="{1DEFF231-CA99-4D17-8AE5-615AC7A823A4}"/>
-    <hyperlink ref="G31" r:id="rId84" xr:uid="{966D5DAB-BC05-48B1-AED4-A984DDFA9687}"/>
-    <hyperlink ref="G32" r:id="rId85" xr:uid="{89CC95B8-463D-4ED6-BCD0-BD61431EEC6B}"/>
-    <hyperlink ref="G33" r:id="rId86" xr:uid="{59E52C85-2003-40A5-8C17-8E2F50167809}"/>
-    <hyperlink ref="G34" r:id="rId87" xr:uid="{BA71EEF9-AF74-4964-81CA-5687E31C1DD4}"/>
-    <hyperlink ref="G35" r:id="rId88" xr:uid="{D4B8B830-7DBB-47C0-A575-21C20C37106F}"/>
-    <hyperlink ref="G36" r:id="rId89" xr:uid="{A3B66E16-DF2D-4C8E-8493-576C3B334E63}"/>
-    <hyperlink ref="G37" r:id="rId90" xr:uid="{A8760C98-A87A-41BC-846D-7C27B64DC83F}"/>
-    <hyperlink ref="G38" r:id="rId91" xr:uid="{A325DB0A-16B9-4C9B-AD23-028436D268E4}"/>
-    <hyperlink ref="G39" r:id="rId92" xr:uid="{21E4E18D-D7B0-4619-9131-F214640DD643}"/>
-    <hyperlink ref="G40" r:id="rId93" xr:uid="{BB72CDF5-7DBF-4D40-BD56-FA7B73CD3590}"/>
-    <hyperlink ref="G41" r:id="rId94" xr:uid="{0755F9B0-B3FA-4412-9627-511B01D587C4}"/>
-    <hyperlink ref="G42" r:id="rId95" xr:uid="{0E77696F-C2A8-46A4-A1C9-5B053BCCD56A}"/>
-    <hyperlink ref="G43" r:id="rId96" xr:uid="{62AD8424-5EED-4E05-BD4A-67FFF079F5DE}"/>
-    <hyperlink ref="G44" r:id="rId97" xr:uid="{BD5F52DA-750A-4708-9209-F0832953610C}"/>
-    <hyperlink ref="G45" r:id="rId98" xr:uid="{5DB21C96-F541-4875-82E0-FD95E99F7A16}"/>
-    <hyperlink ref="G46" r:id="rId99" xr:uid="{3296534A-C4DB-4629-8892-2512BE67C1E1}"/>
-    <hyperlink ref="G47" r:id="rId100" xr:uid="{FC4C2567-5D0A-4A46-87FD-0F052C0C538D}"/>
-    <hyperlink ref="G48" r:id="rId101" xr:uid="{CCBD4575-042B-483B-B95F-DB0C6BFBBF8D}"/>
-    <hyperlink ref="G49" r:id="rId102" xr:uid="{433D9299-B965-440B-AB9D-D1BC0FF90227}"/>
-    <hyperlink ref="G50" r:id="rId103" xr:uid="{9C92CA39-C795-4745-BCA7-75F9635352EF}"/>
-    <hyperlink ref="G51" r:id="rId104" xr:uid="{80955053-99B6-4770-9451-1AB0C4AB0658}"/>
-    <hyperlink ref="G52" r:id="rId105" xr:uid="{D08F8A10-1FEA-4FF8-91AA-4D5C6E2CF965}"/>
-    <hyperlink ref="G53" r:id="rId106" xr:uid="{E1552DE5-3F36-4447-A098-1C38DEF076C3}"/>
-    <hyperlink ref="G54" r:id="rId107" xr:uid="{27C89CBD-A689-49D7-A356-45AB8D080E30}"/>
-    <hyperlink ref="G55" r:id="rId108" xr:uid="{71744331-B135-4284-A969-858AB98596A0}"/>
-    <hyperlink ref="G56" r:id="rId109" xr:uid="{E8227959-A688-47B5-8A00-EAAE316BCF25}"/>
-    <hyperlink ref="G57" r:id="rId110" xr:uid="{81A75D53-81AF-47EF-955C-7F6AE6E8D441}"/>
-    <hyperlink ref="G58" r:id="rId111" xr:uid="{381AF0E9-4678-4C36-98E5-18D44A2CC57D}"/>
-    <hyperlink ref="G59" r:id="rId112" xr:uid="{851C0207-0075-4165-8E96-8EDBA705D1BE}"/>
-    <hyperlink ref="G60" r:id="rId113" xr:uid="{0EB71C1A-846F-471B-A44E-D6A98021B2BD}"/>
-    <hyperlink ref="G61" r:id="rId114" xr:uid="{015E38E2-E0E0-4C07-9DC8-737D165A1996}"/>
-    <hyperlink ref="G62" r:id="rId115" xr:uid="{403E4063-551A-486E-A1F9-3F42AF284878}"/>
-    <hyperlink ref="G63" r:id="rId116" xr:uid="{4B58B3D6-A744-4480-9F2D-E188A123B412}"/>
-    <hyperlink ref="G64" r:id="rId117" xr:uid="{8042DD29-EA9B-4FD4-82D4-4821278FDA07}"/>
-    <hyperlink ref="G65" r:id="rId118" xr:uid="{C726FBED-BFBE-4CE0-96C2-8969080BF41C}"/>
-    <hyperlink ref="G66" r:id="rId119" xr:uid="{A7FDEECE-9C08-46A0-9503-19049D241A3B}"/>
-    <hyperlink ref="G67" r:id="rId120" xr:uid="{8A8FED6A-5191-4D66-9581-4022B7D0D290}"/>
-    <hyperlink ref="G68" r:id="rId121" xr:uid="{A08C4575-38E9-451E-80D2-24708329B4C0}"/>
-    <hyperlink ref="G69" r:id="rId122" xr:uid="{72CA6DCC-6E4F-454E-BE85-9513BC2C22F5}"/>
+    <hyperlink ref="H2" r:id="rId2" display="nayrpkt@gmail.com" xr:uid="{FCA25B0F-6286-4320-9B1F-FD5A64DBBEB1}"/>
+    <hyperlink ref="G3:G10" r:id="rId3" display="robert.ads.anjos@gmail.com" xr:uid="{00541651-9D2B-43BD-B943-758F742CF890}"/>
+    <hyperlink ref="G11" r:id="rId4" xr:uid="{08891F1E-BFCE-4901-BB79-93AA85608BD6}"/>
+    <hyperlink ref="G12" r:id="rId5" xr:uid="{5B945965-8CF2-4536-B6C6-B03AA77AC55C}"/>
+    <hyperlink ref="G13" r:id="rId6" xr:uid="{474F2900-37DB-45FC-AC64-A44473756317}"/>
+    <hyperlink ref="G14" r:id="rId7" xr:uid="{8083D30B-557A-4AC8-8D3C-27A3DD20F6F0}"/>
+    <hyperlink ref="G15" r:id="rId8" xr:uid="{9BC24074-15A2-42CF-82F3-9EE884921304}"/>
+    <hyperlink ref="G16" r:id="rId9" xr:uid="{CC4BD510-687D-4365-A02B-40308B7BB094}"/>
+    <hyperlink ref="G17" r:id="rId10" xr:uid="{307F9D09-DD1B-449E-8BD1-CEA8554CE58F}"/>
+    <hyperlink ref="G18" r:id="rId11" xr:uid="{256E56A0-313B-40C0-B777-463B070E8BC5}"/>
+    <hyperlink ref="G19" r:id="rId12" xr:uid="{53093AA6-4084-4A8D-9497-0ED7AA03C383}"/>
+    <hyperlink ref="G20" r:id="rId13" xr:uid="{0A61BB15-6DA2-4651-832C-63B5FBFBF363}"/>
+    <hyperlink ref="G21" r:id="rId14" xr:uid="{81605D05-A6AE-48A8-B253-5F4DDBDA4ADF}"/>
+    <hyperlink ref="G22" r:id="rId15" xr:uid="{CC010305-21EE-4FDA-9CD9-E1E88E21073E}"/>
+    <hyperlink ref="G23" r:id="rId16" xr:uid="{015C4D36-070E-4AE5-8A75-18BB99358F8A}"/>
+    <hyperlink ref="G24" r:id="rId17" xr:uid="{9388E673-BA81-47E0-BFEB-FD5D9EFB6189}"/>
+    <hyperlink ref="G25" r:id="rId18" xr:uid="{C35AD358-FAE5-4651-BA71-7FCB62B777AD}"/>
+    <hyperlink ref="G26" r:id="rId19" xr:uid="{49164CC9-A989-48A1-907E-506CF71CAD23}"/>
+    <hyperlink ref="G27" r:id="rId20" xr:uid="{FD0CC0A5-6781-4196-BC44-A37E10AEC42E}"/>
+    <hyperlink ref="G28" r:id="rId21" xr:uid="{EEC82DBC-4EC1-4487-B9D7-395DEF439593}"/>
+    <hyperlink ref="G29" r:id="rId22" xr:uid="{D76B3FB4-0C70-4CE6-918B-0908E0F374B8}"/>
+    <hyperlink ref="G30" r:id="rId23" xr:uid="{1DEFF231-CA99-4D17-8AE5-615AC7A823A4}"/>
+    <hyperlink ref="G31" r:id="rId24" xr:uid="{966D5DAB-BC05-48B1-AED4-A984DDFA9687}"/>
+    <hyperlink ref="G32" r:id="rId25" xr:uid="{89CC95B8-463D-4ED6-BCD0-BD61431EEC6B}"/>
+    <hyperlink ref="G33" r:id="rId26" xr:uid="{59E52C85-2003-40A5-8C17-8E2F50167809}"/>
+    <hyperlink ref="G34" r:id="rId27" xr:uid="{BA71EEF9-AF74-4964-81CA-5687E31C1DD4}"/>
+    <hyperlink ref="G35" r:id="rId28" xr:uid="{D4B8B830-7DBB-47C0-A575-21C20C37106F}"/>
+    <hyperlink ref="G36" r:id="rId29" xr:uid="{A3B66E16-DF2D-4C8E-8493-576C3B334E63}"/>
+    <hyperlink ref="G37" r:id="rId30" xr:uid="{A8760C98-A87A-41BC-846D-7C27B64DC83F}"/>
+    <hyperlink ref="G38" r:id="rId31" xr:uid="{A325DB0A-16B9-4C9B-AD23-028436D268E4}"/>
+    <hyperlink ref="G39" r:id="rId32" xr:uid="{21E4E18D-D7B0-4619-9131-F214640DD643}"/>
+    <hyperlink ref="G40" r:id="rId33" xr:uid="{BB72CDF5-7DBF-4D40-BD56-FA7B73CD3590}"/>
+    <hyperlink ref="G41" r:id="rId34" xr:uid="{0755F9B0-B3FA-4412-9627-511B01D587C4}"/>
+    <hyperlink ref="G42" r:id="rId35" xr:uid="{0E77696F-C2A8-46A4-A1C9-5B053BCCD56A}"/>
+    <hyperlink ref="G43" r:id="rId36" xr:uid="{62AD8424-5EED-4E05-BD4A-67FFF079F5DE}"/>
+    <hyperlink ref="G44" r:id="rId37" xr:uid="{BD5F52DA-750A-4708-9209-F0832953610C}"/>
+    <hyperlink ref="G45" r:id="rId38" xr:uid="{5DB21C96-F541-4875-82E0-FD95E99F7A16}"/>
+    <hyperlink ref="G46" r:id="rId39" xr:uid="{3296534A-C4DB-4629-8892-2512BE67C1E1}"/>
+    <hyperlink ref="G47" r:id="rId40" xr:uid="{FC4C2567-5D0A-4A46-87FD-0F052C0C538D}"/>
+    <hyperlink ref="G48" r:id="rId41" xr:uid="{CCBD4575-042B-483B-B95F-DB0C6BFBBF8D}"/>
+    <hyperlink ref="G49" r:id="rId42" xr:uid="{433D9299-B965-440B-AB9D-D1BC0FF90227}"/>
+    <hyperlink ref="G50" r:id="rId43" xr:uid="{9C92CA39-C795-4745-BCA7-75F9635352EF}"/>
+    <hyperlink ref="G51" r:id="rId44" xr:uid="{80955053-99B6-4770-9451-1AB0C4AB0658}"/>
+    <hyperlink ref="G52" r:id="rId45" xr:uid="{D08F8A10-1FEA-4FF8-91AA-4D5C6E2CF965}"/>
+    <hyperlink ref="G53" r:id="rId46" xr:uid="{E1552DE5-3F36-4447-A098-1C38DEF076C3}"/>
+    <hyperlink ref="G54" r:id="rId47" xr:uid="{27C89CBD-A689-49D7-A356-45AB8D080E30}"/>
+    <hyperlink ref="G55" r:id="rId48" xr:uid="{71744331-B135-4284-A969-858AB98596A0}"/>
+    <hyperlink ref="G56" r:id="rId49" xr:uid="{E8227959-A688-47B5-8A00-EAAE316BCF25}"/>
+    <hyperlink ref="G57" r:id="rId50" xr:uid="{81A75D53-81AF-47EF-955C-7F6AE6E8D441}"/>
+    <hyperlink ref="G58" r:id="rId51" xr:uid="{381AF0E9-4678-4C36-98E5-18D44A2CC57D}"/>
+    <hyperlink ref="G59" r:id="rId52" xr:uid="{851C0207-0075-4165-8E96-8EDBA705D1BE}"/>
+    <hyperlink ref="G60" r:id="rId53" xr:uid="{0EB71C1A-846F-471B-A44E-D6A98021B2BD}"/>
+    <hyperlink ref="G61" r:id="rId54" xr:uid="{015E38E2-E0E0-4C07-9DC8-737D165A1996}"/>
+    <hyperlink ref="G62" r:id="rId55" xr:uid="{403E4063-551A-486E-A1F9-3F42AF284878}"/>
+    <hyperlink ref="G63" r:id="rId56" xr:uid="{4B58B3D6-A744-4480-9F2D-E188A123B412}"/>
+    <hyperlink ref="G64" r:id="rId57" xr:uid="{8042DD29-EA9B-4FD4-82D4-4821278FDA07}"/>
+    <hyperlink ref="G65" r:id="rId58" xr:uid="{C726FBED-BFBE-4CE0-96C2-8969080BF41C}"/>
+    <hyperlink ref="G66" r:id="rId59" xr:uid="{A7FDEECE-9C08-46A0-9503-19049D241A3B}"/>
+    <hyperlink ref="G67" r:id="rId60" xr:uid="{8A8FED6A-5191-4D66-9581-4022B7D0D290}"/>
+    <hyperlink ref="G68" r:id="rId61" xr:uid="{A08C4575-38E9-451E-80D2-24708329B4C0}"/>
+    <hyperlink ref="G69" r:id="rId62" xr:uid="{72CA6DCC-6E4F-454E-BE85-9513BC2C22F5}"/>
+    <hyperlink ref="H3:H20" r:id="rId63" display="nayrpkt@gmail.com" xr:uid="{A9CFD133-3D0E-43E2-851B-11CE749C6EB0}"/>
+    <hyperlink ref="H20" r:id="rId64" xr:uid="{81BF9F93-7261-4477-8CAC-7952CFC7B75D}"/>
+    <hyperlink ref="H21:H69" r:id="rId65" display="nayrpkt@gmail.com" xr:uid="{1C7B856C-4B88-489F-9FA7-AAF47B464C4A}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId123"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId66"/>
 </worksheet>
 </file>
--- a/Mensageria/betti/email.xlsx
+++ b/Mensageria/betti/email.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.alves\source\aulas\AulasEuCodo\Mensageria\betti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ECEB8B-8EB5-47B6-A844-C7DB66593508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB20613-ECD9-4C17-A683-0F125ECD2002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1B2C2596-FEDC-4806-AA04-C3A6BED56956}"/>
   </bookViews>
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59491F56-CD08-47F1-9229-800FA97E9013}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
